--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユザ\Desktop\個人用\ゲーム作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユザ\Desktop\個人用\ゲーム作成\kozingame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,9 +23,263 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+  <si>
+    <t>作業工程</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウコウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームプロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターのクラスの作成</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃　通常攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ツウジョウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　ジャンプ攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <rPh sb="0" eb="2">
+      <t>ボウギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>崩れ</t>
+    <rPh sb="0" eb="1">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝突判定</t>
+    <rPh sb="0" eb="4">
+      <t>ショウトツハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーボード操作</t>
+    <rPh sb="5" eb="7">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変身</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー攻撃</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>テキコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス攻撃</t>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター移動</t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリアチェンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵配置</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPゲージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ表記</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム表記</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア表示</t>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー表示</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +292,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -64,8 +326,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,13 +613,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -1257,12 +1257,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1278,9 +1272,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1291,24 +1282,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1323,17 +1296,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1353,19 +1398,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1377,49 +1410,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1726,126 +1726,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="12" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="12" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BA1" s="5"/>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="5"/>
-      <c r="BD1" s="5"/>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="5"/>
-      <c r="BG1" s="5"/>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="5"/>
-      <c r="BJ1" s="5"/>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="5"/>
-      <c r="BM1" s="5"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="5"/>
-      <c r="BP1" s="5"/>
-      <c r="BQ1" s="5"/>
-      <c r="BR1" s="5"/>
-      <c r="BS1" s="5"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="12" t="s">
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="44"/>
+      <c r="BR1" s="44"/>
+      <c r="BS1" s="44"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="5"/>
-      <c r="BW1" s="5"/>
-      <c r="BX1" s="5"/>
-      <c r="BY1" s="5"/>
-      <c r="BZ1" s="5"/>
-      <c r="CA1" s="5"/>
-      <c r="CB1" s="5"/>
-      <c r="CC1" s="5"/>
-      <c r="CD1" s="5"/>
-      <c r="CE1" s="5"/>
-      <c r="CF1" s="5"/>
-      <c r="CG1" s="5"/>
-      <c r="CH1" s="5"/>
-      <c r="CI1" s="5"/>
-      <c r="CJ1" s="6"/>
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="44"/>
+      <c r="BX1" s="44"/>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="44"/>
+      <c r="CA1" s="44"/>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="44"/>
+      <c r="CD1" s="44"/>
+      <c r="CE1" s="44"/>
+      <c r="CF1" s="44"/>
+      <c r="CG1" s="44"/>
+      <c r="CH1" s="44"/>
+      <c r="CI1" s="44"/>
+      <c r="CJ1" s="45"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="13">
+      <c r="F2" s="41"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10">
         <v>44862</v>
       </c>
       <c r="I2" s="2">
@@ -1854,10 +1854,10 @@
       <c r="J2" s="2">
         <v>44864</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="5">
         <v>44865</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="10">
         <v>44866</v>
       </c>
       <c r="M2" s="2">
@@ -1944,10 +1944,10 @@
       <c r="AN2" s="2">
         <v>44894</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AO2" s="5">
         <v>44895</v>
       </c>
-      <c r="AP2" s="13">
+      <c r="AP2" s="10">
         <v>44896</v>
       </c>
       <c r="AQ2" s="2">
@@ -2037,10 +2037,10 @@
       <c r="BS2" s="2">
         <v>44925</v>
       </c>
-      <c r="BT2" s="7">
+      <c r="BT2" s="5">
         <v>44926</v>
       </c>
-      <c r="BU2" s="13">
+      <c r="BU2" s="10">
         <v>44927</v>
       </c>
       <c r="BV2" s="2">
@@ -2085,25 +2085,25 @@
       <c r="CI2" s="2">
         <v>44941</v>
       </c>
-      <c r="CJ2" s="7">
+      <c r="CJ2" s="5">
         <v>44942</v>
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A3" s="45"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="14"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="14"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -2132,8 +2132,8 @@
       <c r="AL3" s="3"/>
       <c r="AM3" s="3"/>
       <c r="AN3" s="3"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="14"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="11"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="3"/>
@@ -2163,8 +2163,8 @@
       <c r="BQ3" s="3"/>
       <c r="BR3" s="3"/>
       <c r="BS3" s="3"/>
-      <c r="BT3" s="8"/>
-      <c r="BU3" s="14"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="11"/>
       <c r="BV3" s="3"/>
       <c r="BW3" s="3"/>
       <c r="BX3" s="3"/>
@@ -2179,23 +2179,23 @@
       <c r="CG3" s="3"/>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
-      <c r="CJ3" s="8"/>
+      <c r="CJ3" s="6"/>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A4" s="45"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="19" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="14"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -2224,8 +2224,8 @@
       <c r="AL4" s="3"/>
       <c r="AM4" s="3"/>
       <c r="AN4" s="3"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="14"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="11"/>
       <c r="AQ4" s="3"/>
       <c r="AR4" s="3"/>
       <c r="AS4" s="3"/>
@@ -2255,8 +2255,8 @@
       <c r="BQ4" s="3"/>
       <c r="BR4" s="3"/>
       <c r="BS4" s="3"/>
-      <c r="BT4" s="8"/>
-      <c r="BU4" s="14"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="11"/>
       <c r="BV4" s="3"/>
       <c r="BW4" s="3"/>
       <c r="BX4" s="3"/>
@@ -2271,23 +2271,23 @@
       <c r="CG4" s="3"/>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
-      <c r="CJ4" s="8"/>
+      <c r="CJ4" s="6"/>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A5" s="45"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="19" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="14"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="14"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -2316,8 +2316,8 @@
       <c r="AL5" s="3"/>
       <c r="AM5" s="3"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="14"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="11"/>
       <c r="AQ5" s="3"/>
       <c r="AR5" s="3"/>
       <c r="AS5" s="3"/>
@@ -2347,8 +2347,8 @@
       <c r="BQ5" s="3"/>
       <c r="BR5" s="3"/>
       <c r="BS5" s="3"/>
-      <c r="BT5" s="8"/>
-      <c r="BU5" s="14"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="11"/>
       <c r="BV5" s="3"/>
       <c r="BW5" s="3"/>
       <c r="BX5" s="3"/>
@@ -2363,23 +2363,23 @@
       <c r="CG5" s="3"/>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
-      <c r="CJ5" s="8"/>
+      <c r="CJ5" s="6"/>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A6" s="45"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="19" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2408,8 +2408,8 @@
       <c r="AL6" s="3"/>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="14"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="11"/>
       <c r="AQ6" s="3"/>
       <c r="AR6" s="3"/>
       <c r="AS6" s="3"/>
@@ -2439,8 +2439,8 @@
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
-      <c r="BT6" s="8"/>
-      <c r="BU6" s="14"/>
+      <c r="BT6" s="6"/>
+      <c r="BU6" s="11"/>
       <c r="BV6" s="3"/>
       <c r="BW6" s="3"/>
       <c r="BX6" s="3"/>
@@ -2455,23 +2455,23 @@
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
-      <c r="CJ6" s="8"/>
+      <c r="CJ6" s="6"/>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A7" s="45"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="19" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2500,8 +2500,8 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="8"/>
-      <c r="AP7" s="14"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="11"/>
       <c r="AQ7" s="3"/>
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
@@ -2531,8 +2531,8 @@
       <c r="BQ7" s="3"/>
       <c r="BR7" s="3"/>
       <c r="BS7" s="3"/>
-      <c r="BT7" s="8"/>
-      <c r="BU7" s="14"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="11"/>
       <c r="BV7" s="3"/>
       <c r="BW7" s="3"/>
       <c r="BX7" s="3"/>
@@ -2547,23 +2547,23 @@
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
-      <c r="CJ7" s="8"/>
+      <c r="CJ7" s="6"/>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A8" s="45"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="19" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2592,8 +2592,8 @@
       <c r="AL8" s="3"/>
       <c r="AM8" s="3"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="8"/>
-      <c r="AP8" s="14"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="11"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
@@ -2623,8 +2623,8 @@
       <c r="BQ8" s="3"/>
       <c r="BR8" s="3"/>
       <c r="BS8" s="3"/>
-      <c r="BT8" s="8"/>
-      <c r="BU8" s="14"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="11"/>
       <c r="BV8" s="3"/>
       <c r="BW8" s="3"/>
       <c r="BX8" s="3"/>
@@ -2639,23 +2639,23 @@
       <c r="CG8" s="3"/>
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
-      <c r="CJ8" s="8"/>
+      <c r="CJ8" s="6"/>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A9" s="45"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="19" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2684,8 +2684,8 @@
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
       <c r="AN9" s="3"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="14"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="11"/>
       <c r="AQ9" s="3"/>
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
@@ -2715,8 +2715,8 @@
       <c r="BQ9" s="3"/>
       <c r="BR9" s="3"/>
       <c r="BS9" s="3"/>
-      <c r="BT9" s="8"/>
-      <c r="BU9" s="14"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="11"/>
       <c r="BV9" s="3"/>
       <c r="BW9" s="3"/>
       <c r="BX9" s="3"/>
@@ -2731,23 +2731,23 @@
       <c r="CG9" s="3"/>
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
-      <c r="CJ9" s="8"/>
+      <c r="CJ9" s="6"/>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A10" s="45"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="19" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="14"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="14"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2776,8 +2776,8 @@
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
       <c r="AN10" s="3"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="14"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="11"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
       <c r="AS10" s="3"/>
@@ -2807,8 +2807,8 @@
       <c r="BQ10" s="3"/>
       <c r="BR10" s="3"/>
       <c r="BS10" s="3"/>
-      <c r="BT10" s="8"/>
-      <c r="BU10" s="14"/>
+      <c r="BT10" s="6"/>
+      <c r="BU10" s="11"/>
       <c r="BV10" s="3"/>
       <c r="BW10" s="3"/>
       <c r="BX10" s="3"/>
@@ -2823,23 +2823,23 @@
       <c r="CG10" s="3"/>
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
-      <c r="CJ10" s="8"/>
+      <c r="CJ10" s="6"/>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A11" s="45"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="19" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="14"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="14"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2868,8 +2868,8 @@
       <c r="AL11" s="3"/>
       <c r="AM11" s="3"/>
       <c r="AN11" s="3"/>
-      <c r="AO11" s="8"/>
-      <c r="AP11" s="14"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="11"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
       <c r="AS11" s="3"/>
@@ -2899,8 +2899,8 @@
       <c r="BQ11" s="3"/>
       <c r="BR11" s="3"/>
       <c r="BS11" s="3"/>
-      <c r="BT11" s="8"/>
-      <c r="BU11" s="14"/>
+      <c r="BT11" s="6"/>
+      <c r="BU11" s="11"/>
       <c r="BV11" s="3"/>
       <c r="BW11" s="3"/>
       <c r="BX11" s="3"/>
@@ -2915,23 +2915,23 @@
       <c r="CG11" s="3"/>
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
-      <c r="CJ11" s="8"/>
+      <c r="CJ11" s="6"/>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A12" s="45"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="19" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2960,8 +2960,8 @@
       <c r="AL12" s="3"/>
       <c r="AM12" s="3"/>
       <c r="AN12" s="3"/>
-      <c r="AO12" s="8"/>
-      <c r="AP12" s="14"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="11"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
@@ -2991,8 +2991,8 @@
       <c r="BQ12" s="3"/>
       <c r="BR12" s="3"/>
       <c r="BS12" s="3"/>
-      <c r="BT12" s="8"/>
-      <c r="BU12" s="14"/>
+      <c r="BT12" s="6"/>
+      <c r="BU12" s="11"/>
       <c r="BV12" s="3"/>
       <c r="BW12" s="3"/>
       <c r="BX12" s="3"/>
@@ -3007,23 +3007,23 @@
       <c r="CG12" s="3"/>
       <c r="CH12" s="3"/>
       <c r="CI12" s="3"/>
-      <c r="CJ12" s="8"/>
+      <c r="CJ12" s="6"/>
     </row>
     <row r="13" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="21" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="14"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="14"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -3052,8 +3052,8 @@
       <c r="AL13" s="3"/>
       <c r="AM13" s="3"/>
       <c r="AN13" s="3"/>
-      <c r="AO13" s="8"/>
-      <c r="AP13" s="14"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="11"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
       <c r="AS13" s="3"/>
@@ -3083,8 +3083,8 @@
       <c r="BQ13" s="3"/>
       <c r="BR13" s="3"/>
       <c r="BS13" s="3"/>
-      <c r="BT13" s="8"/>
-      <c r="BU13" s="14"/>
+      <c r="BT13" s="6"/>
+      <c r="BU13" s="11"/>
       <c r="BV13" s="3"/>
       <c r="BW13" s="3"/>
       <c r="BX13" s="3"/>
@@ -3099,25 +3099,25 @@
       <c r="CG13" s="3"/>
       <c r="CH13" s="3"/>
       <c r="CI13" s="3"/>
-      <c r="CJ13" s="8"/>
+      <c r="CJ13" s="6"/>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A14" s="45"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="42" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="14"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="14"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -3146,8 +3146,8 @@
       <c r="AL14" s="3"/>
       <c r="AM14" s="3"/>
       <c r="AN14" s="3"/>
-      <c r="AO14" s="8"/>
-      <c r="AP14" s="14"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="11"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
       <c r="AS14" s="3"/>
@@ -3177,8 +3177,8 @@
       <c r="BQ14" s="3"/>
       <c r="BR14" s="3"/>
       <c r="BS14" s="3"/>
-      <c r="BT14" s="8"/>
-      <c r="BU14" s="14"/>
+      <c r="BT14" s="6"/>
+      <c r="BU14" s="11"/>
       <c r="BV14" s="3"/>
       <c r="BW14" s="3"/>
       <c r="BX14" s="3"/>
@@ -3193,23 +3193,23 @@
       <c r="CG14" s="3"/>
       <c r="CH14" s="3"/>
       <c r="CI14" s="3"/>
-      <c r="CJ14" s="8"/>
+      <c r="CJ14" s="6"/>
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A15" s="45"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="29" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="14"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="14"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -3238,8 +3238,8 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
       <c r="AN15" s="3"/>
-      <c r="AO15" s="8"/>
-      <c r="AP15" s="14"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="11"/>
       <c r="AQ15" s="3"/>
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
@@ -3269,8 +3269,8 @@
       <c r="BQ15" s="3"/>
       <c r="BR15" s="3"/>
       <c r="BS15" s="3"/>
-      <c r="BT15" s="8"/>
-      <c r="BU15" s="14"/>
+      <c r="BT15" s="6"/>
+      <c r="BU15" s="11"/>
       <c r="BV15" s="3"/>
       <c r="BW15" s="3"/>
       <c r="BX15" s="3"/>
@@ -3285,23 +3285,23 @@
       <c r="CG15" s="3"/>
       <c r="CH15" s="3"/>
       <c r="CI15" s="3"/>
-      <c r="CJ15" s="8"/>
+      <c r="CJ15" s="6"/>
     </row>
     <row r="16" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="45"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="31" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="15"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -3330,8 +3330,8 @@
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="15"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="12"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="4"/>
       <c r="AS16" s="4"/>
@@ -3361,8 +3361,8 @@
       <c r="BQ16" s="4"/>
       <c r="BR16" s="4"/>
       <c r="BS16" s="4"/>
-      <c r="BT16" s="9"/>
-      <c r="BU16" s="15"/>
+      <c r="BT16" s="7"/>
+      <c r="BU16" s="12"/>
       <c r="BV16" s="4"/>
       <c r="BW16" s="4"/>
       <c r="BX16" s="4"/>
@@ -3377,25 +3377,25 @@
       <c r="CG16" s="4"/>
       <c r="CH16" s="4"/>
       <c r="CI16" s="4"/>
-      <c r="CJ16" s="9"/>
+      <c r="CJ16" s="7"/>
     </row>
     <row r="17" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="45"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="48" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="15"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -3424,8 +3424,8 @@
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
-      <c r="AO17" s="9"/>
-      <c r="AP17" s="15"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="12"/>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
       <c r="AS17" s="4"/>
@@ -3455,8 +3455,8 @@
       <c r="BQ17" s="4"/>
       <c r="BR17" s="4"/>
       <c r="BS17" s="4"/>
-      <c r="BT17" s="9"/>
-      <c r="BU17" s="15"/>
+      <c r="BT17" s="7"/>
+      <c r="BU17" s="12"/>
       <c r="BV17" s="4"/>
       <c r="BW17" s="4"/>
       <c r="BX17" s="4"/>
@@ -3471,25 +3471,25 @@
       <c r="CG17" s="4"/>
       <c r="CH17" s="4"/>
       <c r="CI17" s="4"/>
-      <c r="CJ17" s="9"/>
+      <c r="CJ17" s="7"/>
     </row>
     <row r="18" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="48" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="15"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="15"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -3518,8 +3518,8 @@
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
-      <c r="AO18" s="9"/>
-      <c r="AP18" s="15"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="12"/>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
       <c r="AS18" s="4"/>
@@ -3549,8 +3549,8 @@
       <c r="BQ18" s="4"/>
       <c r="BR18" s="4"/>
       <c r="BS18" s="4"/>
-      <c r="BT18" s="9"/>
-      <c r="BU18" s="15"/>
+      <c r="BT18" s="7"/>
+      <c r="BU18" s="12"/>
       <c r="BV18" s="4"/>
       <c r="BW18" s="4"/>
       <c r="BX18" s="4"/>
@@ -3565,27 +3565,27 @@
       <c r="CG18" s="4"/>
       <c r="CH18" s="4"/>
       <c r="CI18" s="4"/>
-      <c r="CJ18" s="9"/>
+      <c r="CJ18" s="7"/>
     </row>
     <row r="19" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="45"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="39" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="14"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="14"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -3614,8 +3614,8 @@
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
-      <c r="AO19" s="8"/>
-      <c r="AP19" s="14"/>
+      <c r="AO19" s="6"/>
+      <c r="AP19" s="11"/>
       <c r="AQ19" s="3"/>
       <c r="AR19" s="3"/>
       <c r="AS19" s="3"/>
@@ -3645,8 +3645,8 @@
       <c r="BQ19" s="3"/>
       <c r="BR19" s="3"/>
       <c r="BS19" s="3"/>
-      <c r="BT19" s="8"/>
-      <c r="BU19" s="14"/>
+      <c r="BT19" s="6"/>
+      <c r="BU19" s="11"/>
       <c r="BV19" s="3"/>
       <c r="BW19" s="3"/>
       <c r="BX19" s="3"/>
@@ -3661,25 +3661,25 @@
       <c r="CG19" s="3"/>
       <c r="CH19" s="3"/>
       <c r="CI19" s="3"/>
-      <c r="CJ19" s="8"/>
+      <c r="CJ19" s="6"/>
     </row>
     <row r="20" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="45"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="49" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="14"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="14"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -3708,8 +3708,8 @@
       <c r="AL20" s="3"/>
       <c r="AM20" s="3"/>
       <c r="AN20" s="3"/>
-      <c r="AO20" s="8"/>
-      <c r="AP20" s="14"/>
+      <c r="AO20" s="6"/>
+      <c r="AP20" s="11"/>
       <c r="AQ20" s="3"/>
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
@@ -3739,8 +3739,8 @@
       <c r="BQ20" s="3"/>
       <c r="BR20" s="3"/>
       <c r="BS20" s="3"/>
-      <c r="BT20" s="8"/>
-      <c r="BU20" s="14"/>
+      <c r="BT20" s="6"/>
+      <c r="BU20" s="11"/>
       <c r="BV20" s="3"/>
       <c r="BW20" s="3"/>
       <c r="BX20" s="3"/>
@@ -3755,25 +3755,25 @@
       <c r="CG20" s="3"/>
       <c r="CH20" s="3"/>
       <c r="CI20" s="3"/>
-      <c r="CJ20" s="8"/>
+      <c r="CJ20" s="6"/>
     </row>
     <row r="21" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="45"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="49" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="14"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="14"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -3802,8 +3802,8 @@
       <c r="AL21" s="3"/>
       <c r="AM21" s="3"/>
       <c r="AN21" s="3"/>
-      <c r="AO21" s="8"/>
-      <c r="AP21" s="14"/>
+      <c r="AO21" s="6"/>
+      <c r="AP21" s="11"/>
       <c r="AQ21" s="3"/>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -3833,8 +3833,8 @@
       <c r="BQ21" s="3"/>
       <c r="BR21" s="3"/>
       <c r="BS21" s="3"/>
-      <c r="BT21" s="8"/>
-      <c r="BU21" s="14"/>
+      <c r="BT21" s="6"/>
+      <c r="BU21" s="11"/>
       <c r="BV21" s="3"/>
       <c r="BW21" s="3"/>
       <c r="BX21" s="3"/>
@@ -3849,25 +3849,25 @@
       <c r="CG21" s="3"/>
       <c r="CH21" s="3"/>
       <c r="CI21" s="3"/>
-      <c r="CJ21" s="8"/>
+      <c r="CJ21" s="6"/>
     </row>
     <row r="22" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="45"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="49" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="14"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="14"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3896,8 +3896,8 @@
       <c r="AL22" s="3"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="8"/>
-      <c r="AP22" s="14"/>
+      <c r="AO22" s="6"/>
+      <c r="AP22" s="11"/>
       <c r="AQ22" s="3"/>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -3927,8 +3927,8 @@
       <c r="BQ22" s="3"/>
       <c r="BR22" s="3"/>
       <c r="BS22" s="3"/>
-      <c r="BT22" s="8"/>
-      <c r="BU22" s="14"/>
+      <c r="BT22" s="6"/>
+      <c r="BU22" s="11"/>
       <c r="BV22" s="3"/>
       <c r="BW22" s="3"/>
       <c r="BX22" s="3"/>
@@ -3943,25 +3943,25 @@
       <c r="CG22" s="3"/>
       <c r="CH22" s="3"/>
       <c r="CI22" s="3"/>
-      <c r="CJ22" s="8"/>
+      <c r="CJ22" s="6"/>
     </row>
     <row r="23" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="45"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="49" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="14"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -3990,8 +3990,8 @@
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
       <c r="AN23" s="3"/>
-      <c r="AO23" s="8"/>
-      <c r="AP23" s="14"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="11"/>
       <c r="AQ23" s="3"/>
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
@@ -4021,8 +4021,8 @@
       <c r="BQ23" s="3"/>
       <c r="BR23" s="3"/>
       <c r="BS23" s="3"/>
-      <c r="BT23" s="8"/>
-      <c r="BU23" s="14"/>
+      <c r="BT23" s="6"/>
+      <c r="BU23" s="11"/>
       <c r="BV23" s="3"/>
       <c r="BW23" s="3"/>
       <c r="BX23" s="3"/>
@@ -4037,25 +4037,25 @@
       <c r="CG23" s="3"/>
       <c r="CH23" s="3"/>
       <c r="CI23" s="3"/>
-      <c r="CJ23" s="8"/>
+      <c r="CJ23" s="6"/>
     </row>
     <row r="24" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="45"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="49" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="14"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="14"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -4084,8 +4084,8 @@
       <c r="AL24" s="3"/>
       <c r="AM24" s="3"/>
       <c r="AN24" s="3"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="14"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="11"/>
       <c r="AQ24" s="3"/>
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
@@ -4115,8 +4115,8 @@
       <c r="BQ24" s="3"/>
       <c r="BR24" s="3"/>
       <c r="BS24" s="3"/>
-      <c r="BT24" s="8"/>
-      <c r="BU24" s="14"/>
+      <c r="BT24" s="6"/>
+      <c r="BU24" s="11"/>
       <c r="BV24" s="3"/>
       <c r="BW24" s="3"/>
       <c r="BX24" s="3"/>
@@ -4131,25 +4131,25 @@
       <c r="CG24" s="3"/>
       <c r="CH24" s="3"/>
       <c r="CI24" s="3"/>
-      <c r="CJ24" s="8"/>
+      <c r="CJ24" s="6"/>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A25" s="45"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="39" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="14"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="14"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -4178,8 +4178,8 @@
       <c r="AL25" s="3"/>
       <c r="AM25" s="3"/>
       <c r="AN25" s="3"/>
-      <c r="AO25" s="8"/>
-      <c r="AP25" s="14"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="11"/>
       <c r="AQ25" s="3"/>
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
@@ -4209,8 +4209,8 @@
       <c r="BQ25" s="3"/>
       <c r="BR25" s="3"/>
       <c r="BS25" s="3"/>
-      <c r="BT25" s="8"/>
-      <c r="BU25" s="14"/>
+      <c r="BT25" s="6"/>
+      <c r="BU25" s="11"/>
       <c r="BV25" s="3"/>
       <c r="BW25" s="3"/>
       <c r="BX25" s="3"/>
@@ -4225,23 +4225,23 @@
       <c r="CG25" s="3"/>
       <c r="CH25" s="3"/>
       <c r="CI25" s="3"/>
-      <c r="CJ25" s="8"/>
+      <c r="CJ25" s="6"/>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A26" s="45"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="19" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="14"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="14"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -4270,8 +4270,8 @@
       <c r="AL26" s="3"/>
       <c r="AM26" s="3"/>
       <c r="AN26" s="3"/>
-      <c r="AO26" s="8"/>
-      <c r="AP26" s="14"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="11"/>
       <c r="AQ26" s="3"/>
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
@@ -4301,8 +4301,8 @@
       <c r="BQ26" s="3"/>
       <c r="BR26" s="3"/>
       <c r="BS26" s="3"/>
-      <c r="BT26" s="8"/>
-      <c r="BU26" s="14"/>
+      <c r="BT26" s="6"/>
+      <c r="BU26" s="11"/>
       <c r="BV26" s="3"/>
       <c r="BW26" s="3"/>
       <c r="BX26" s="3"/>
@@ -4317,23 +4317,23 @@
       <c r="CG26" s="3"/>
       <c r="CH26" s="3"/>
       <c r="CI26" s="3"/>
-      <c r="CJ26" s="8"/>
+      <c r="CJ26" s="6"/>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A27" s="45"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="19" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="14"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="14"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -4362,8 +4362,8 @@
       <c r="AL27" s="3"/>
       <c r="AM27" s="3"/>
       <c r="AN27" s="3"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="14"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="11"/>
       <c r="AQ27" s="3"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
@@ -4393,8 +4393,8 @@
       <c r="BQ27" s="3"/>
       <c r="BR27" s="3"/>
       <c r="BS27" s="3"/>
-      <c r="BT27" s="8"/>
-      <c r="BU27" s="14"/>
+      <c r="BT27" s="6"/>
+      <c r="BU27" s="11"/>
       <c r="BV27" s="3"/>
       <c r="BW27" s="3"/>
       <c r="BX27" s="3"/>
@@ -4409,23 +4409,23 @@
       <c r="CG27" s="3"/>
       <c r="CH27" s="3"/>
       <c r="CI27" s="3"/>
-      <c r="CJ27" s="8"/>
+      <c r="CJ27" s="6"/>
     </row>
     <row r="28" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="45"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="29" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="14"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="14"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -4454,8 +4454,8 @@
       <c r="AL28" s="3"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="8"/>
-      <c r="AP28" s="14"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="11"/>
       <c r="AQ28" s="3"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
@@ -4485,8 +4485,8 @@
       <c r="BQ28" s="3"/>
       <c r="BR28" s="3"/>
       <c r="BS28" s="3"/>
-      <c r="BT28" s="8"/>
-      <c r="BU28" s="14"/>
+      <c r="BT28" s="6"/>
+      <c r="BU28" s="11"/>
       <c r="BV28" s="3"/>
       <c r="BW28" s="3"/>
       <c r="BX28" s="3"/>
@@ -4501,25 +4501,25 @@
       <c r="CG28" s="3"/>
       <c r="CH28" s="3"/>
       <c r="CI28" s="3"/>
-      <c r="CJ28" s="8"/>
+      <c r="CJ28" s="6"/>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A29" s="45"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="39" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="52"/>
-      <c r="E29" s="29" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="14"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="14"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -4548,8 +4548,8 @@
       <c r="AL29" s="3"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="3"/>
-      <c r="AO29" s="8"/>
-      <c r="AP29" s="14"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="11"/>
       <c r="AQ29" s="3"/>
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
@@ -4579,8 +4579,8 @@
       <c r="BQ29" s="3"/>
       <c r="BR29" s="3"/>
       <c r="BS29" s="3"/>
-      <c r="BT29" s="8"/>
-      <c r="BU29" s="14"/>
+      <c r="BT29" s="6"/>
+      <c r="BU29" s="11"/>
       <c r="BV29" s="3"/>
       <c r="BW29" s="3"/>
       <c r="BX29" s="3"/>
@@ -4595,23 +4595,23 @@
       <c r="CG29" s="3"/>
       <c r="CH29" s="3"/>
       <c r="CI29" s="3"/>
-      <c r="CJ29" s="8"/>
+      <c r="CJ29" s="6"/>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A30" s="45"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="29" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="14"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="14"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -4640,8 +4640,8 @@
       <c r="AL30" s="3"/>
       <c r="AM30" s="3"/>
       <c r="AN30" s="3"/>
-      <c r="AO30" s="8"/>
-      <c r="AP30" s="14"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="11"/>
       <c r="AQ30" s="3"/>
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
@@ -4671,8 +4671,8 @@
       <c r="BQ30" s="3"/>
       <c r="BR30" s="3"/>
       <c r="BS30" s="3"/>
-      <c r="BT30" s="8"/>
-      <c r="BU30" s="14"/>
+      <c r="BT30" s="6"/>
+      <c r="BU30" s="11"/>
       <c r="BV30" s="3"/>
       <c r="BW30" s="3"/>
       <c r="BX30" s="3"/>
@@ -4687,23 +4687,23 @@
       <c r="CG30" s="3"/>
       <c r="CH30" s="3"/>
       <c r="CI30" s="3"/>
-      <c r="CJ30" s="8"/>
+      <c r="CJ30" s="6"/>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A31" s="45"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="29" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="14"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="14"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -4732,8 +4732,8 @@
       <c r="AL31" s="3"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="8"/>
-      <c r="AP31" s="14"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="11"/>
       <c r="AQ31" s="3"/>
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
@@ -4763,8 +4763,8 @@
       <c r="BQ31" s="3"/>
       <c r="BR31" s="3"/>
       <c r="BS31" s="3"/>
-      <c r="BT31" s="8"/>
-      <c r="BU31" s="14"/>
+      <c r="BT31" s="6"/>
+      <c r="BU31" s="11"/>
       <c r="BV31" s="3"/>
       <c r="BW31" s="3"/>
       <c r="BX31" s="3"/>
@@ -4779,23 +4779,23 @@
       <c r="CG31" s="3"/>
       <c r="CH31" s="3"/>
       <c r="CI31" s="3"/>
-      <c r="CJ31" s="8"/>
+      <c r="CJ31" s="6"/>
     </row>
     <row r="32" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="45"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="29" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="30"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="14"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="14"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -4824,8 +4824,8 @@
       <c r="AL32" s="3"/>
       <c r="AM32" s="3"/>
       <c r="AN32" s="3"/>
-      <c r="AO32" s="8"/>
-      <c r="AP32" s="14"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="11"/>
       <c r="AQ32" s="3"/>
       <c r="AR32" s="3"/>
       <c r="AS32" s="3"/>
@@ -4855,8 +4855,8 @@
       <c r="BQ32" s="3"/>
       <c r="BR32" s="3"/>
       <c r="BS32" s="3"/>
-      <c r="BT32" s="8"/>
-      <c r="BU32" s="14"/>
+      <c r="BT32" s="6"/>
+      <c r="BU32" s="11"/>
       <c r="BV32" s="3"/>
       <c r="BW32" s="3"/>
       <c r="BX32" s="3"/>
@@ -4871,25 +4871,25 @@
       <c r="CG32" s="3"/>
       <c r="CH32" s="3"/>
       <c r="CI32" s="3"/>
-      <c r="CJ32" s="8"/>
+      <c r="CJ32" s="6"/>
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A33" s="45"/>
-      <c r="B33" s="39" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="29" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="14"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="14"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -4918,8 +4918,8 @@
       <c r="AL33" s="3"/>
       <c r="AM33" s="3"/>
       <c r="AN33" s="3"/>
-      <c r="AO33" s="8"/>
-      <c r="AP33" s="14"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="11"/>
       <c r="AQ33" s="3"/>
       <c r="AR33" s="3"/>
       <c r="AS33" s="3"/>
@@ -4949,8 +4949,8 @@
       <c r="BQ33" s="3"/>
       <c r="BR33" s="3"/>
       <c r="BS33" s="3"/>
-      <c r="BT33" s="8"/>
-      <c r="BU33" s="14"/>
+      <c r="BT33" s="6"/>
+      <c r="BU33" s="11"/>
       <c r="BV33" s="3"/>
       <c r="BW33" s="3"/>
       <c r="BX33" s="3"/>
@@ -4965,23 +4965,23 @@
       <c r="CG33" s="3"/>
       <c r="CH33" s="3"/>
       <c r="CI33" s="3"/>
-      <c r="CJ33" s="8"/>
+      <c r="CJ33" s="6"/>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A34" s="45"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="29" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="30"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="14"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="14"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -5010,8 +5010,8 @@
       <c r="AL34" s="3"/>
       <c r="AM34" s="3"/>
       <c r="AN34" s="3"/>
-      <c r="AO34" s="8"/>
-      <c r="AP34" s="14"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="11"/>
       <c r="AQ34" s="3"/>
       <c r="AR34" s="3"/>
       <c r="AS34" s="3"/>
@@ -5041,8 +5041,8 @@
       <c r="BQ34" s="3"/>
       <c r="BR34" s="3"/>
       <c r="BS34" s="3"/>
-      <c r="BT34" s="8"/>
-      <c r="BU34" s="14"/>
+      <c r="BT34" s="6"/>
+      <c r="BU34" s="11"/>
       <c r="BV34" s="3"/>
       <c r="BW34" s="3"/>
       <c r="BX34" s="3"/>
@@ -5057,23 +5057,23 @@
       <c r="CG34" s="3"/>
       <c r="CH34" s="3"/>
       <c r="CI34" s="3"/>
-      <c r="CJ34" s="8"/>
+      <c r="CJ34" s="6"/>
     </row>
     <row r="35" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="45"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="29" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="30"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="14"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="14"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="11"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -5102,8 +5102,8 @@
       <c r="AL35" s="3"/>
       <c r="AM35" s="3"/>
       <c r="AN35" s="3"/>
-      <c r="AO35" s="8"/>
-      <c r="AP35" s="14"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="11"/>
       <c r="AQ35" s="3"/>
       <c r="AR35" s="3"/>
       <c r="AS35" s="3"/>
@@ -5133,8 +5133,8 @@
       <c r="BQ35" s="3"/>
       <c r="BR35" s="3"/>
       <c r="BS35" s="3"/>
-      <c r="BT35" s="8"/>
-      <c r="BU35" s="14"/>
+      <c r="BT35" s="6"/>
+      <c r="BU35" s="11"/>
       <c r="BV35" s="3"/>
       <c r="BW35" s="3"/>
       <c r="BX35" s="3"/>
@@ -5149,25 +5149,25 @@
       <c r="CG35" s="3"/>
       <c r="CH35" s="3"/>
       <c r="CI35" s="3"/>
-      <c r="CJ35" s="8"/>
+      <c r="CJ35" s="6"/>
     </row>
     <row r="36" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="45"/>
-      <c r="B36" s="48" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="29" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="14"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="14"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -5196,8 +5196,8 @@
       <c r="AL36" s="3"/>
       <c r="AM36" s="3"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="8"/>
-      <c r="AP36" s="14"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="11"/>
       <c r="AQ36" s="3"/>
       <c r="AR36" s="3"/>
       <c r="AS36" s="3"/>
@@ -5227,8 +5227,8 @@
       <c r="BQ36" s="3"/>
       <c r="BR36" s="3"/>
       <c r="BS36" s="3"/>
-      <c r="BT36" s="8"/>
-      <c r="BU36" s="14"/>
+      <c r="BT36" s="6"/>
+      <c r="BU36" s="11"/>
       <c r="BV36" s="3"/>
       <c r="BW36" s="3"/>
       <c r="BX36" s="3"/>
@@ -5243,25 +5243,25 @@
       <c r="CG36" s="3"/>
       <c r="CH36" s="3"/>
       <c r="CI36" s="3"/>
-      <c r="CJ36" s="8"/>
+      <c r="CJ36" s="6"/>
     </row>
     <row r="37" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="45"/>
-      <c r="B37" s="48" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="29" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="14"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="14"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -5290,8 +5290,8 @@
       <c r="AL37" s="3"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
-      <c r="AO37" s="8"/>
-      <c r="AP37" s="14"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="11"/>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="3"/>
       <c r="AS37" s="3"/>
@@ -5321,8 +5321,8 @@
       <c r="BQ37" s="3"/>
       <c r="BR37" s="3"/>
       <c r="BS37" s="3"/>
-      <c r="BT37" s="8"/>
-      <c r="BU37" s="14"/>
+      <c r="BT37" s="6"/>
+      <c r="BU37" s="11"/>
       <c r="BV37" s="3"/>
       <c r="BW37" s="3"/>
       <c r="BX37" s="3"/>
@@ -5337,29 +5337,29 @@
       <c r="CG37" s="3"/>
       <c r="CH37" s="3"/>
       <c r="CI37" s="3"/>
-      <c r="CJ37" s="8"/>
+      <c r="CJ37" s="6"/>
     </row>
     <row r="38" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="37" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="14"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="14"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -5388,8 +5388,8 @@
       <c r="AL38" s="3"/>
       <c r="AM38" s="3"/>
       <c r="AN38" s="3"/>
-      <c r="AO38" s="8"/>
-      <c r="AP38" s="14"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="11"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3"/>
@@ -5419,8 +5419,8 @@
       <c r="BQ38" s="3"/>
       <c r="BR38" s="3"/>
       <c r="BS38" s="3"/>
-      <c r="BT38" s="8"/>
-      <c r="BU38" s="14"/>
+      <c r="BT38" s="6"/>
+      <c r="BU38" s="11"/>
       <c r="BV38" s="3"/>
       <c r="BW38" s="3"/>
       <c r="BX38" s="3"/>
@@ -5435,27 +5435,27 @@
       <c r="CG38" s="3"/>
       <c r="CH38" s="3"/>
       <c r="CI38" s="3"/>
-      <c r="CJ38" s="8"/>
+      <c r="CJ38" s="6"/>
     </row>
     <row r="39" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="45"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="52" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="14"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="14"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="11"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -5484,8 +5484,8 @@
       <c r="AL39" s="3"/>
       <c r="AM39" s="3"/>
       <c r="AN39" s="3"/>
-      <c r="AO39" s="8"/>
-      <c r="AP39" s="14"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="11"/>
       <c r="AQ39" s="3"/>
       <c r="AR39" s="3"/>
       <c r="AS39" s="3"/>
@@ -5515,8 +5515,8 @@
       <c r="BQ39" s="3"/>
       <c r="BR39" s="3"/>
       <c r="BS39" s="3"/>
-      <c r="BT39" s="8"/>
-      <c r="BU39" s="14"/>
+      <c r="BT39" s="6"/>
+      <c r="BU39" s="11"/>
       <c r="BV39" s="3"/>
       <c r="BW39" s="3"/>
       <c r="BX39" s="3"/>
@@ -5531,25 +5531,25 @@
       <c r="CG39" s="3"/>
       <c r="CH39" s="3"/>
       <c r="CI39" s="3"/>
-      <c r="CJ39" s="8"/>
+      <c r="CJ39" s="6"/>
     </row>
     <row r="40" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="45"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="48" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="20"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="14"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="11"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="14"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -5578,8 +5578,8 @@
       <c r="AL40" s="3"/>
       <c r="AM40" s="3"/>
       <c r="AN40" s="3"/>
-      <c r="AO40" s="8"/>
-      <c r="AP40" s="14"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="11"/>
       <c r="AQ40" s="3"/>
       <c r="AR40" s="3"/>
       <c r="AS40" s="3"/>
@@ -5609,8 +5609,8 @@
       <c r="BQ40" s="3"/>
       <c r="BR40" s="3"/>
       <c r="BS40" s="3"/>
-      <c r="BT40" s="8"/>
-      <c r="BU40" s="14"/>
+      <c r="BT40" s="6"/>
+      <c r="BU40" s="11"/>
       <c r="BV40" s="3"/>
       <c r="BW40" s="3"/>
       <c r="BX40" s="3"/>
@@ -5625,29 +5625,29 @@
       <c r="CG40" s="3"/>
       <c r="CH40" s="3"/>
       <c r="CI40" s="3"/>
-      <c r="CJ40" s="8"/>
+      <c r="CJ40" s="6"/>
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A41" s="45"/>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="14"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="11"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="14"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="11"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -5676,8 +5676,8 @@
       <c r="AL41" s="3"/>
       <c r="AM41" s="3"/>
       <c r="AN41" s="3"/>
-      <c r="AO41" s="8"/>
-      <c r="AP41" s="14"/>
+      <c r="AO41" s="6"/>
+      <c r="AP41" s="11"/>
       <c r="AQ41" s="3"/>
       <c r="AR41" s="3"/>
       <c r="AS41" s="3"/>
@@ -5707,8 +5707,8 @@
       <c r="BQ41" s="3"/>
       <c r="BR41" s="3"/>
       <c r="BS41" s="3"/>
-      <c r="BT41" s="8"/>
-      <c r="BU41" s="14"/>
+      <c r="BT41" s="6"/>
+      <c r="BU41" s="11"/>
       <c r="BV41" s="3"/>
       <c r="BW41" s="3"/>
       <c r="BX41" s="3"/>
@@ -5723,23 +5723,23 @@
       <c r="CG41" s="3"/>
       <c r="CH41" s="3"/>
       <c r="CI41" s="3"/>
-      <c r="CJ41" s="8"/>
+      <c r="CJ41" s="6"/>
     </row>
     <row r="42" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A42" s="45"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="37" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="14"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="11"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="14"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="11"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -5768,8 +5768,8 @@
       <c r="AL42" s="3"/>
       <c r="AM42" s="3"/>
       <c r="AN42" s="3"/>
-      <c r="AO42" s="8"/>
-      <c r="AP42" s="14"/>
+      <c r="AO42" s="6"/>
+      <c r="AP42" s="11"/>
       <c r="AQ42" s="3"/>
       <c r="AR42" s="3"/>
       <c r="AS42" s="3"/>
@@ -5799,8 +5799,8 @@
       <c r="BQ42" s="3"/>
       <c r="BR42" s="3"/>
       <c r="BS42" s="3"/>
-      <c r="BT42" s="8"/>
-      <c r="BU42" s="14"/>
+      <c r="BT42" s="6"/>
+      <c r="BU42" s="11"/>
       <c r="BV42" s="3"/>
       <c r="BW42" s="3"/>
       <c r="BX42" s="3"/>
@@ -5815,23 +5815,23 @@
       <c r="CG42" s="3"/>
       <c r="CH42" s="3"/>
       <c r="CI42" s="3"/>
-      <c r="CJ42" s="8"/>
+      <c r="CJ42" s="6"/>
     </row>
     <row r="43" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="45"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="37" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="14"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="11"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="14"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="11"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -5860,8 +5860,8 @@
       <c r="AL43" s="3"/>
       <c r="AM43" s="3"/>
       <c r="AN43" s="3"/>
-      <c r="AO43" s="8"/>
-      <c r="AP43" s="14"/>
+      <c r="AO43" s="6"/>
+      <c r="AP43" s="11"/>
       <c r="AQ43" s="3"/>
       <c r="AR43" s="3"/>
       <c r="AS43" s="3"/>
@@ -5891,8 +5891,8 @@
       <c r="BQ43" s="3"/>
       <c r="BR43" s="3"/>
       <c r="BS43" s="3"/>
-      <c r="BT43" s="8"/>
-      <c r="BU43" s="14"/>
+      <c r="BT43" s="6"/>
+      <c r="BU43" s="11"/>
       <c r="BV43" s="3"/>
       <c r="BW43" s="3"/>
       <c r="BX43" s="3"/>
@@ -5907,25 +5907,25 @@
       <c r="CG43" s="3"/>
       <c r="CH43" s="3"/>
       <c r="CI43" s="3"/>
-      <c r="CJ43" s="8"/>
+      <c r="CJ43" s="6"/>
     </row>
     <row r="44" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A44" s="45"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="20"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="14"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="11"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="14"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -5954,8 +5954,8 @@
       <c r="AL44" s="3"/>
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
-      <c r="AO44" s="8"/>
-      <c r="AP44" s="14"/>
+      <c r="AO44" s="6"/>
+      <c r="AP44" s="11"/>
       <c r="AQ44" s="3"/>
       <c r="AR44" s="3"/>
       <c r="AS44" s="3"/>
@@ -5985,8 +5985,8 @@
       <c r="BQ44" s="3"/>
       <c r="BR44" s="3"/>
       <c r="BS44" s="3"/>
-      <c r="BT44" s="8"/>
-      <c r="BU44" s="14"/>
+      <c r="BT44" s="6"/>
+      <c r="BU44" s="11"/>
       <c r="BV44" s="3"/>
       <c r="BW44" s="3"/>
       <c r="BX44" s="3"/>
@@ -6001,23 +6001,23 @@
       <c r="CG44" s="3"/>
       <c r="CH44" s="3"/>
       <c r="CI44" s="3"/>
-      <c r="CJ44" s="8"/>
+      <c r="CJ44" s="6"/>
     </row>
     <row r="45" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A45" s="45"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="19" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="14"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="14"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="11"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -6046,8 +6046,8 @@
       <c r="AL45" s="3"/>
       <c r="AM45" s="3"/>
       <c r="AN45" s="3"/>
-      <c r="AO45" s="8"/>
-      <c r="AP45" s="14"/>
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="11"/>
       <c r="AQ45" s="3"/>
       <c r="AR45" s="3"/>
       <c r="AS45" s="3"/>
@@ -6077,8 +6077,8 @@
       <c r="BQ45" s="3"/>
       <c r="BR45" s="3"/>
       <c r="BS45" s="3"/>
-      <c r="BT45" s="8"/>
-      <c r="BU45" s="14"/>
+      <c r="BT45" s="6"/>
+      <c r="BU45" s="11"/>
       <c r="BV45" s="3"/>
       <c r="BW45" s="3"/>
       <c r="BX45" s="3"/>
@@ -6093,23 +6093,23 @@
       <c r="CG45" s="3"/>
       <c r="CH45" s="3"/>
       <c r="CI45" s="3"/>
-      <c r="CJ45" s="8"/>
+      <c r="CJ45" s="6"/>
     </row>
     <row r="46" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A46" s="45"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="19" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="14"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="14"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="11"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -6138,8 +6138,8 @@
       <c r="AL46" s="3"/>
       <c r="AM46" s="3"/>
       <c r="AN46" s="3"/>
-      <c r="AO46" s="8"/>
-      <c r="AP46" s="14"/>
+      <c r="AO46" s="6"/>
+      <c r="AP46" s="11"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3"/>
       <c r="AS46" s="3"/>
@@ -6169,8 +6169,8 @@
       <c r="BQ46" s="3"/>
       <c r="BR46" s="3"/>
       <c r="BS46" s="3"/>
-      <c r="BT46" s="8"/>
-      <c r="BU46" s="14"/>
+      <c r="BT46" s="6"/>
+      <c r="BU46" s="11"/>
       <c r="BV46" s="3"/>
       <c r="BW46" s="3"/>
       <c r="BX46" s="3"/>
@@ -6185,23 +6185,23 @@
       <c r="CG46" s="3"/>
       <c r="CH46" s="3"/>
       <c r="CI46" s="3"/>
-      <c r="CJ46" s="8"/>
+      <c r="CJ46" s="6"/>
     </row>
     <row r="47" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="45"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="19" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="14"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="11"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="14"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="11"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -6230,8 +6230,8 @@
       <c r="AL47" s="3"/>
       <c r="AM47" s="3"/>
       <c r="AN47" s="3"/>
-      <c r="AO47" s="8"/>
-      <c r="AP47" s="14"/>
+      <c r="AO47" s="6"/>
+      <c r="AP47" s="11"/>
       <c r="AQ47" s="3"/>
       <c r="AR47" s="3"/>
       <c r="AS47" s="3"/>
@@ -6261,8 +6261,8 @@
       <c r="BQ47" s="3"/>
       <c r="BR47" s="3"/>
       <c r="BS47" s="3"/>
-      <c r="BT47" s="8"/>
-      <c r="BU47" s="14"/>
+      <c r="BT47" s="6"/>
+      <c r="BU47" s="11"/>
       <c r="BV47" s="3"/>
       <c r="BW47" s="3"/>
       <c r="BX47" s="3"/>
@@ -6277,25 +6277,25 @@
       <c r="CG47" s="3"/>
       <c r="CH47" s="3"/>
       <c r="CI47" s="3"/>
-      <c r="CJ47" s="8"/>
+      <c r="CJ47" s="6"/>
     </row>
     <row r="48" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="45"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="48" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="14"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="14"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="11"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -6324,8 +6324,8 @@
       <c r="AL48" s="3"/>
       <c r="AM48" s="3"/>
       <c r="AN48" s="3"/>
-      <c r="AO48" s="8"/>
-      <c r="AP48" s="14"/>
+      <c r="AO48" s="6"/>
+      <c r="AP48" s="11"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3"/>
       <c r="AS48" s="3"/>
@@ -6355,8 +6355,8 @@
       <c r="BQ48" s="3"/>
       <c r="BR48" s="3"/>
       <c r="BS48" s="3"/>
-      <c r="BT48" s="8"/>
-      <c r="BU48" s="14"/>
+      <c r="BT48" s="6"/>
+      <c r="BU48" s="11"/>
       <c r="BV48" s="3"/>
       <c r="BW48" s="3"/>
       <c r="BX48" s="3"/>
@@ -6371,25 +6371,25 @@
       <c r="CG48" s="3"/>
       <c r="CH48" s="3"/>
       <c r="CI48" s="3"/>
-      <c r="CJ48" s="8"/>
+      <c r="CJ48" s="6"/>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A49" s="45"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="20"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="14"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="11"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="14"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="11"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -6418,8 +6418,8 @@
       <c r="AL49" s="3"/>
       <c r="AM49" s="3"/>
       <c r="AN49" s="3"/>
-      <c r="AO49" s="8"/>
-      <c r="AP49" s="14"/>
+      <c r="AO49" s="6"/>
+      <c r="AP49" s="11"/>
       <c r="AQ49" s="3"/>
       <c r="AR49" s="3"/>
       <c r="AS49" s="3"/>
@@ -6449,8 +6449,8 @@
       <c r="BQ49" s="3"/>
       <c r="BR49" s="3"/>
       <c r="BS49" s="3"/>
-      <c r="BT49" s="8"/>
-      <c r="BU49" s="14"/>
+      <c r="BT49" s="6"/>
+      <c r="BU49" s="11"/>
       <c r="BV49" s="3"/>
       <c r="BW49" s="3"/>
       <c r="BX49" s="3"/>
@@ -6465,23 +6465,23 @@
       <c r="CG49" s="3"/>
       <c r="CH49" s="3"/>
       <c r="CI49" s="3"/>
-      <c r="CJ49" s="8"/>
+      <c r="CJ49" s="6"/>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A50" s="45"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="19" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="20"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="14"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="11"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="14"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="11"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -6510,8 +6510,8 @@
       <c r="AL50" s="3"/>
       <c r="AM50" s="3"/>
       <c r="AN50" s="3"/>
-      <c r="AO50" s="8"/>
-      <c r="AP50" s="14"/>
+      <c r="AO50" s="6"/>
+      <c r="AP50" s="11"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3"/>
       <c r="AS50" s="3"/>
@@ -6541,8 +6541,8 @@
       <c r="BQ50" s="3"/>
       <c r="BR50" s="3"/>
       <c r="BS50" s="3"/>
-      <c r="BT50" s="8"/>
-      <c r="BU50" s="14"/>
+      <c r="BT50" s="6"/>
+      <c r="BU50" s="11"/>
       <c r="BV50" s="3"/>
       <c r="BW50" s="3"/>
       <c r="BX50" s="3"/>
@@ -6557,23 +6557,23 @@
       <c r="CG50" s="3"/>
       <c r="CH50" s="3"/>
       <c r="CI50" s="3"/>
-      <c r="CJ50" s="8"/>
+      <c r="CJ50" s="6"/>
     </row>
     <row r="51" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="45"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="19" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="20"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="14"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="14"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="11"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -6602,8 +6602,8 @@
       <c r="AL51" s="3"/>
       <c r="AM51" s="3"/>
       <c r="AN51" s="3"/>
-      <c r="AO51" s="8"/>
-      <c r="AP51" s="14"/>
+      <c r="AO51" s="6"/>
+      <c r="AP51" s="11"/>
       <c r="AQ51" s="3"/>
       <c r="AR51" s="3"/>
       <c r="AS51" s="3"/>
@@ -6633,8 +6633,8 @@
       <c r="BQ51" s="3"/>
       <c r="BR51" s="3"/>
       <c r="BS51" s="3"/>
-      <c r="BT51" s="8"/>
-      <c r="BU51" s="14"/>
+      <c r="BT51" s="6"/>
+      <c r="BU51" s="11"/>
       <c r="BV51" s="3"/>
       <c r="BW51" s="3"/>
       <c r="BX51" s="3"/>
@@ -6649,27 +6649,27 @@
       <c r="CG51" s="3"/>
       <c r="CH51" s="3"/>
       <c r="CI51" s="3"/>
-      <c r="CJ51" s="8"/>
+      <c r="CJ51" s="6"/>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A52" s="45"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="52" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="14"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="11"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="14"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -6698,8 +6698,8 @@
       <c r="AL52" s="3"/>
       <c r="AM52" s="3"/>
       <c r="AN52" s="3"/>
-      <c r="AO52" s="8"/>
-      <c r="AP52" s="14"/>
+      <c r="AO52" s="6"/>
+      <c r="AP52" s="11"/>
       <c r="AQ52" s="3"/>
       <c r="AR52" s="3"/>
       <c r="AS52" s="3"/>
@@ -6729,8 +6729,8 @@
       <c r="BQ52" s="3"/>
       <c r="BR52" s="3"/>
       <c r="BS52" s="3"/>
-      <c r="BT52" s="8"/>
-      <c r="BU52" s="14"/>
+      <c r="BT52" s="6"/>
+      <c r="BU52" s="11"/>
       <c r="BV52" s="3"/>
       <c r="BW52" s="3"/>
       <c r="BX52" s="3"/>
@@ -6745,23 +6745,23 @@
       <c r="CG52" s="3"/>
       <c r="CH52" s="3"/>
       <c r="CI52" s="3"/>
-      <c r="CJ52" s="8"/>
+      <c r="CJ52" s="6"/>
     </row>
     <row r="53" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="45"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="19" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="20"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="14"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="11"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="14"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="11"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -6790,8 +6790,8 @@
       <c r="AL53" s="3"/>
       <c r="AM53" s="3"/>
       <c r="AN53" s="3"/>
-      <c r="AO53" s="8"/>
-      <c r="AP53" s="14"/>
+      <c r="AO53" s="6"/>
+      <c r="AP53" s="11"/>
       <c r="AQ53" s="3"/>
       <c r="AR53" s="3"/>
       <c r="AS53" s="3"/>
@@ -6821,8 +6821,8 @@
       <c r="BQ53" s="3"/>
       <c r="BR53" s="3"/>
       <c r="BS53" s="3"/>
-      <c r="BT53" s="8"/>
-      <c r="BU53" s="14"/>
+      <c r="BT53" s="6"/>
+      <c r="BU53" s="11"/>
       <c r="BV53" s="3"/>
       <c r="BW53" s="3"/>
       <c r="BX53" s="3"/>
@@ -6837,25 +6837,25 @@
       <c r="CG53" s="3"/>
       <c r="CH53" s="3"/>
       <c r="CI53" s="3"/>
-      <c r="CJ53" s="8"/>
+      <c r="CJ53" s="6"/>
     </row>
     <row r="54" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="45"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="48" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="20"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="14"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="11"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="14"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="11"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -6884,8 +6884,8 @@
       <c r="AL54" s="3"/>
       <c r="AM54" s="3"/>
       <c r="AN54" s="3"/>
-      <c r="AO54" s="8"/>
-      <c r="AP54" s="14"/>
+      <c r="AO54" s="6"/>
+      <c r="AP54" s="11"/>
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3"/>
       <c r="AS54" s="3"/>
@@ -6915,8 +6915,8 @@
       <c r="BQ54" s="3"/>
       <c r="BR54" s="3"/>
       <c r="BS54" s="3"/>
-      <c r="BT54" s="8"/>
-      <c r="BU54" s="14"/>
+      <c r="BT54" s="6"/>
+      <c r="BU54" s="11"/>
       <c r="BV54" s="3"/>
       <c r="BW54" s="3"/>
       <c r="BX54" s="3"/>
@@ -6931,25 +6931,25 @@
       <c r="CG54" s="3"/>
       <c r="CH54" s="3"/>
       <c r="CI54" s="3"/>
-      <c r="CJ54" s="8"/>
+      <c r="CJ54" s="6"/>
     </row>
     <row r="55" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="45"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="48" t="s">
+      <c r="A55" s="36"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="20"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="14"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="11"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="14"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="11"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -6978,8 +6978,8 @@
       <c r="AL55" s="3"/>
       <c r="AM55" s="3"/>
       <c r="AN55" s="3"/>
-      <c r="AO55" s="8"/>
-      <c r="AP55" s="14"/>
+      <c r="AO55" s="6"/>
+      <c r="AP55" s="11"/>
       <c r="AQ55" s="3"/>
       <c r="AR55" s="3"/>
       <c r="AS55" s="3"/>
@@ -7009,8 +7009,8 @@
       <c r="BQ55" s="3"/>
       <c r="BR55" s="3"/>
       <c r="BS55" s="3"/>
-      <c r="BT55" s="8"/>
-      <c r="BU55" s="14"/>
+      <c r="BT55" s="6"/>
+      <c r="BU55" s="11"/>
       <c r="BV55" s="3"/>
       <c r="BW55" s="3"/>
       <c r="BX55" s="3"/>
@@ -7025,25 +7025,25 @@
       <c r="CG55" s="3"/>
       <c r="CH55" s="3"/>
       <c r="CI55" s="3"/>
-      <c r="CJ55" s="8"/>
+      <c r="CJ55" s="6"/>
     </row>
     <row r="56" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="45"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="48" t="s">
+      <c r="A56" s="36"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="20"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="14"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="11"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="14"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="11"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -7072,8 +7072,8 @@
       <c r="AL56" s="3"/>
       <c r="AM56" s="3"/>
       <c r="AN56" s="3"/>
-      <c r="AO56" s="8"/>
-      <c r="AP56" s="14"/>
+      <c r="AO56" s="6"/>
+      <c r="AP56" s="11"/>
       <c r="AQ56" s="3"/>
       <c r="AR56" s="3"/>
       <c r="AS56" s="3"/>
@@ -7103,8 +7103,8 @@
       <c r="BQ56" s="3"/>
       <c r="BR56" s="3"/>
       <c r="BS56" s="3"/>
-      <c r="BT56" s="8"/>
-      <c r="BU56" s="14"/>
+      <c r="BT56" s="6"/>
+      <c r="BU56" s="11"/>
       <c r="BV56" s="3"/>
       <c r="BW56" s="3"/>
       <c r="BX56" s="3"/>
@@ -7119,25 +7119,25 @@
       <c r="CG56" s="3"/>
       <c r="CH56" s="3"/>
       <c r="CI56" s="3"/>
-      <c r="CJ56" s="8"/>
+      <c r="CJ56" s="6"/>
     </row>
     <row r="57" spans="1:88" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="45"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="48" t="s">
+      <c r="A57" s="36"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="14"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="11"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="14"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="11"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -7166,8 +7166,8 @@
       <c r="AL57" s="3"/>
       <c r="AM57" s="3"/>
       <c r="AN57" s="3"/>
-      <c r="AO57" s="8"/>
-      <c r="AP57" s="14"/>
+      <c r="AO57" s="6"/>
+      <c r="AP57" s="11"/>
       <c r="AQ57" s="3"/>
       <c r="AR57" s="3"/>
       <c r="AS57" s="3"/>
@@ -7197,8 +7197,8 @@
       <c r="BQ57" s="3"/>
       <c r="BR57" s="3"/>
       <c r="BS57" s="3"/>
-      <c r="BT57" s="8"/>
-      <c r="BU57" s="14"/>
+      <c r="BT57" s="6"/>
+      <c r="BU57" s="11"/>
       <c r="BV57" s="3"/>
       <c r="BW57" s="3"/>
       <c r="BX57" s="3"/>
@@ -7213,27 +7213,27 @@
       <c r="CG57" s="3"/>
       <c r="CH57" s="3"/>
       <c r="CI57" s="3"/>
-      <c r="CJ57" s="8"/>
+      <c r="CJ57" s="6"/>
     </row>
     <row r="58" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="45"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="52" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="14"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="11"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="14"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="11"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -7262,8 +7262,8 @@
       <c r="AL58" s="3"/>
       <c r="AM58" s="3"/>
       <c r="AN58" s="3"/>
-      <c r="AO58" s="8"/>
-      <c r="AP58" s="14"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="11"/>
       <c r="AQ58" s="3"/>
       <c r="AR58" s="3"/>
       <c r="AS58" s="3"/>
@@ -7293,8 +7293,8 @@
       <c r="BQ58" s="3"/>
       <c r="BR58" s="3"/>
       <c r="BS58" s="3"/>
-      <c r="BT58" s="8"/>
-      <c r="BU58" s="14"/>
+      <c r="BT58" s="6"/>
+      <c r="BU58" s="11"/>
       <c r="BV58" s="3"/>
       <c r="BW58" s="3"/>
       <c r="BX58" s="3"/>
@@ -7309,25 +7309,25 @@
       <c r="CG58" s="3"/>
       <c r="CH58" s="3"/>
       <c r="CI58" s="3"/>
-      <c r="CJ58" s="8"/>
+      <c r="CJ58" s="6"/>
     </row>
     <row r="59" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="45"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="48" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="20"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="14"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="11"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="14"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="11"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -7356,8 +7356,8 @@
       <c r="AL59" s="3"/>
       <c r="AM59" s="3"/>
       <c r="AN59" s="3"/>
-      <c r="AO59" s="8"/>
-      <c r="AP59" s="14"/>
+      <c r="AO59" s="6"/>
+      <c r="AP59" s="11"/>
       <c r="AQ59" s="3"/>
       <c r="AR59" s="3"/>
       <c r="AS59" s="3"/>
@@ -7387,8 +7387,8 @@
       <c r="BQ59" s="3"/>
       <c r="BR59" s="3"/>
       <c r="BS59" s="3"/>
-      <c r="BT59" s="8"/>
-      <c r="BU59" s="14"/>
+      <c r="BT59" s="6"/>
+      <c r="BU59" s="11"/>
       <c r="BV59" s="3"/>
       <c r="BW59" s="3"/>
       <c r="BX59" s="3"/>
@@ -7403,25 +7403,25 @@
       <c r="CG59" s="3"/>
       <c r="CH59" s="3"/>
       <c r="CI59" s="3"/>
-      <c r="CJ59" s="8"/>
+      <c r="CJ59" s="6"/>
     </row>
     <row r="60" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="45"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="48" t="s">
+      <c r="A60" s="36"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="14"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="11"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="14"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="11"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -7450,8 +7450,8 @@
       <c r="AL60" s="3"/>
       <c r="AM60" s="3"/>
       <c r="AN60" s="3"/>
-      <c r="AO60" s="8"/>
-      <c r="AP60" s="14"/>
+      <c r="AO60" s="6"/>
+      <c r="AP60" s="11"/>
       <c r="AQ60" s="3"/>
       <c r="AR60" s="3"/>
       <c r="AS60" s="3"/>
@@ -7481,8 +7481,8 @@
       <c r="BQ60" s="3"/>
       <c r="BR60" s="3"/>
       <c r="BS60" s="3"/>
-      <c r="BT60" s="8"/>
-      <c r="BU60" s="14"/>
+      <c r="BT60" s="6"/>
+      <c r="BU60" s="11"/>
       <c r="BV60" s="3"/>
       <c r="BW60" s="3"/>
       <c r="BX60" s="3"/>
@@ -7497,25 +7497,25 @@
       <c r="CG60" s="3"/>
       <c r="CH60" s="3"/>
       <c r="CI60" s="3"/>
-      <c r="CJ60" s="8"/>
+      <c r="CJ60" s="6"/>
     </row>
     <row r="61" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="45"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="48" t="s">
+      <c r="A61" s="36"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="14"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="11"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="14"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="11"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -7544,8 +7544,8 @@
       <c r="AL61" s="3"/>
       <c r="AM61" s="3"/>
       <c r="AN61" s="3"/>
-      <c r="AO61" s="8"/>
-      <c r="AP61" s="14"/>
+      <c r="AO61" s="6"/>
+      <c r="AP61" s="11"/>
       <c r="AQ61" s="3"/>
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
@@ -7575,8 +7575,8 @@
       <c r="BQ61" s="3"/>
       <c r="BR61" s="3"/>
       <c r="BS61" s="3"/>
-      <c r="BT61" s="8"/>
-      <c r="BU61" s="14"/>
+      <c r="BT61" s="6"/>
+      <c r="BU61" s="11"/>
       <c r="BV61" s="3"/>
       <c r="BW61" s="3"/>
       <c r="BX61" s="3"/>
@@ -7591,25 +7591,25 @@
       <c r="CG61" s="3"/>
       <c r="CH61" s="3"/>
       <c r="CI61" s="3"/>
-      <c r="CJ61" s="8"/>
+      <c r="CJ61" s="6"/>
     </row>
     <row r="62" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="45"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="50" t="s">
+      <c r="A62" s="36"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="19" t="s">
+      <c r="D62" s="20"/>
+      <c r="E62" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="14"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="11"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="14"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="11"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -7638,8 +7638,8 @@
       <c r="AL62" s="3"/>
       <c r="AM62" s="3"/>
       <c r="AN62" s="3"/>
-      <c r="AO62" s="8"/>
-      <c r="AP62" s="14"/>
+      <c r="AO62" s="6"/>
+      <c r="AP62" s="11"/>
       <c r="AQ62" s="3"/>
       <c r="AR62" s="3"/>
       <c r="AS62" s="3"/>
@@ -7669,8 +7669,8 @@
       <c r="BQ62" s="3"/>
       <c r="BR62" s="3"/>
       <c r="BS62" s="3"/>
-      <c r="BT62" s="8"/>
-      <c r="BU62" s="14"/>
+      <c r="BT62" s="6"/>
+      <c r="BU62" s="11"/>
       <c r="BV62" s="3"/>
       <c r="BW62" s="3"/>
       <c r="BX62" s="3"/>
@@ -7685,25 +7685,25 @@
       <c r="CG62" s="3"/>
       <c r="CH62" s="3"/>
       <c r="CI62" s="3"/>
-      <c r="CJ62" s="8"/>
+      <c r="CJ62" s="6"/>
     </row>
     <row r="63" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="45"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="50" t="s">
+      <c r="A63" s="36"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="19" t="s">
+      <c r="D63" s="20"/>
+      <c r="E63" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="14"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="14"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="11"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -7732,8 +7732,8 @@
       <c r="AL63" s="3"/>
       <c r="AM63" s="3"/>
       <c r="AN63" s="3"/>
-      <c r="AO63" s="8"/>
-      <c r="AP63" s="14"/>
+      <c r="AO63" s="6"/>
+      <c r="AP63" s="11"/>
       <c r="AQ63" s="3"/>
       <c r="AR63" s="3"/>
       <c r="AS63" s="3"/>
@@ -7763,8 +7763,8 @@
       <c r="BQ63" s="3"/>
       <c r="BR63" s="3"/>
       <c r="BS63" s="3"/>
-      <c r="BT63" s="8"/>
-      <c r="BU63" s="14"/>
+      <c r="BT63" s="6"/>
+      <c r="BU63" s="11"/>
       <c r="BV63" s="3"/>
       <c r="BW63" s="3"/>
       <c r="BX63" s="3"/>
@@ -7779,31 +7779,31 @@
       <c r="CG63" s="3"/>
       <c r="CH63" s="3"/>
       <c r="CI63" s="3"/>
-      <c r="CJ63" s="8"/>
+      <c r="CJ63" s="6"/>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A64" s="45" t="s">
+      <c r="A64" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="52" t="s">
+      <c r="C64" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="14"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="11"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="14"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="11"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -7832,8 +7832,8 @@
       <c r="AL64" s="3"/>
       <c r="AM64" s="3"/>
       <c r="AN64" s="3"/>
-      <c r="AO64" s="8"/>
-      <c r="AP64" s="14"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="11"/>
       <c r="AQ64" s="3"/>
       <c r="AR64" s="3"/>
       <c r="AS64" s="3"/>
@@ -7863,8 +7863,8 @@
       <c r="BQ64" s="3"/>
       <c r="BR64" s="3"/>
       <c r="BS64" s="3"/>
-      <c r="BT64" s="8"/>
-      <c r="BU64" s="14"/>
+      <c r="BT64" s="6"/>
+      <c r="BU64" s="11"/>
       <c r="BV64" s="3"/>
       <c r="BW64" s="3"/>
       <c r="BX64" s="3"/>
@@ -7879,23 +7879,23 @@
       <c r="CG64" s="3"/>
       <c r="CH64" s="3"/>
       <c r="CI64" s="3"/>
-      <c r="CJ64" s="8"/>
+      <c r="CJ64" s="6"/>
     </row>
     <row r="65" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A65" s="45"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="19" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="14"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="11"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="14"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="11"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -7924,8 +7924,8 @@
       <c r="AL65" s="3"/>
       <c r="AM65" s="3"/>
       <c r="AN65" s="3"/>
-      <c r="AO65" s="8"/>
-      <c r="AP65" s="14"/>
+      <c r="AO65" s="6"/>
+      <c r="AP65" s="11"/>
       <c r="AQ65" s="3"/>
       <c r="AR65" s="3"/>
       <c r="AS65" s="3"/>
@@ -7955,8 +7955,8 @@
       <c r="BQ65" s="3"/>
       <c r="BR65" s="3"/>
       <c r="BS65" s="3"/>
-      <c r="BT65" s="8"/>
-      <c r="BU65" s="14"/>
+      <c r="BT65" s="6"/>
+      <c r="BU65" s="11"/>
       <c r="BV65" s="3"/>
       <c r="BW65" s="3"/>
       <c r="BX65" s="3"/>
@@ -7971,23 +7971,23 @@
       <c r="CG65" s="3"/>
       <c r="CH65" s="3"/>
       <c r="CI65" s="3"/>
-      <c r="CJ65" s="8"/>
+      <c r="CJ65" s="6"/>
     </row>
     <row r="66" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A66" s="45"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="19" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="14"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="11"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="14"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="11"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -8016,8 +8016,8 @@
       <c r="AL66" s="3"/>
       <c r="AM66" s="3"/>
       <c r="AN66" s="3"/>
-      <c r="AO66" s="8"/>
-      <c r="AP66" s="14"/>
+      <c r="AO66" s="6"/>
+      <c r="AP66" s="11"/>
       <c r="AQ66" s="3"/>
       <c r="AR66" s="3"/>
       <c r="AS66" s="3"/>
@@ -8047,8 +8047,8 @@
       <c r="BQ66" s="3"/>
       <c r="BR66" s="3"/>
       <c r="BS66" s="3"/>
-      <c r="BT66" s="8"/>
-      <c r="BU66" s="14"/>
+      <c r="BT66" s="6"/>
+      <c r="BU66" s="11"/>
       <c r="BV66" s="3"/>
       <c r="BW66" s="3"/>
       <c r="BX66" s="3"/>
@@ -8063,23 +8063,23 @@
       <c r="CG66" s="3"/>
       <c r="CH66" s="3"/>
       <c r="CI66" s="3"/>
-      <c r="CJ66" s="8"/>
+      <c r="CJ66" s="6"/>
     </row>
     <row r="67" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A67" s="45"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="19" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="20"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="14"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="11"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="14"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="11"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -8108,8 +8108,8 @@
       <c r="AL67" s="3"/>
       <c r="AM67" s="3"/>
       <c r="AN67" s="3"/>
-      <c r="AO67" s="8"/>
-      <c r="AP67" s="14"/>
+      <c r="AO67" s="6"/>
+      <c r="AP67" s="11"/>
       <c r="AQ67" s="3"/>
       <c r="AR67" s="3"/>
       <c r="AS67" s="3"/>
@@ -8139,8 +8139,8 @@
       <c r="BQ67" s="3"/>
       <c r="BR67" s="3"/>
       <c r="BS67" s="3"/>
-      <c r="BT67" s="8"/>
-      <c r="BU67" s="14"/>
+      <c r="BT67" s="6"/>
+      <c r="BU67" s="11"/>
       <c r="BV67" s="3"/>
       <c r="BW67" s="3"/>
       <c r="BX67" s="3"/>
@@ -8155,23 +8155,23 @@
       <c r="CG67" s="3"/>
       <c r="CH67" s="3"/>
       <c r="CI67" s="3"/>
-      <c r="CJ67" s="8"/>
+      <c r="CJ67" s="6"/>
     </row>
     <row r="68" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A68" s="45"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="19" t="s">
+      <c r="A68" s="36"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="14"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="11"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="14"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="11"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -8200,8 +8200,8 @@
       <c r="AL68" s="3"/>
       <c r="AM68" s="3"/>
       <c r="AN68" s="3"/>
-      <c r="AO68" s="8"/>
-      <c r="AP68" s="14"/>
+      <c r="AO68" s="6"/>
+      <c r="AP68" s="11"/>
       <c r="AQ68" s="3"/>
       <c r="AR68" s="3"/>
       <c r="AS68" s="3"/>
@@ -8231,8 +8231,8 @@
       <c r="BQ68" s="3"/>
       <c r="BR68" s="3"/>
       <c r="BS68" s="3"/>
-      <c r="BT68" s="8"/>
-      <c r="BU68" s="14"/>
+      <c r="BT68" s="6"/>
+      <c r="BU68" s="11"/>
       <c r="BV68" s="3"/>
       <c r="BW68" s="3"/>
       <c r="BX68" s="3"/>
@@ -8247,23 +8247,23 @@
       <c r="CG68" s="3"/>
       <c r="CH68" s="3"/>
       <c r="CI68" s="3"/>
-      <c r="CJ68" s="8"/>
+      <c r="CJ68" s="6"/>
     </row>
     <row r="69" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A69" s="45"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="19" t="s">
+      <c r="A69" s="36"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="14"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="11"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="14"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="11"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -8292,8 +8292,8 @@
       <c r="AL69" s="3"/>
       <c r="AM69" s="3"/>
       <c r="AN69" s="3"/>
-      <c r="AO69" s="8"/>
-      <c r="AP69" s="14"/>
+      <c r="AO69" s="6"/>
+      <c r="AP69" s="11"/>
       <c r="AQ69" s="3"/>
       <c r="AR69" s="3"/>
       <c r="AS69" s="3"/>
@@ -8323,8 +8323,8 @@
       <c r="BQ69" s="3"/>
       <c r="BR69" s="3"/>
       <c r="BS69" s="3"/>
-      <c r="BT69" s="8"/>
-      <c r="BU69" s="14"/>
+      <c r="BT69" s="6"/>
+      <c r="BU69" s="11"/>
       <c r="BV69" s="3"/>
       <c r="BW69" s="3"/>
       <c r="BX69" s="3"/>
@@ -8339,23 +8339,23 @@
       <c r="CG69" s="3"/>
       <c r="CH69" s="3"/>
       <c r="CI69" s="3"/>
-      <c r="CJ69" s="8"/>
+      <c r="CJ69" s="6"/>
     </row>
     <row r="70" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A70" s="45"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="19" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="14"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="11"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="14"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="11"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -8384,8 +8384,8 @@
       <c r="AL70" s="3"/>
       <c r="AM70" s="3"/>
       <c r="AN70" s="3"/>
-      <c r="AO70" s="8"/>
-      <c r="AP70" s="14"/>
+      <c r="AO70" s="6"/>
+      <c r="AP70" s="11"/>
       <c r="AQ70" s="3"/>
       <c r="AR70" s="3"/>
       <c r="AS70" s="3"/>
@@ -8415,8 +8415,8 @@
       <c r="BQ70" s="3"/>
       <c r="BR70" s="3"/>
       <c r="BS70" s="3"/>
-      <c r="BT70" s="8"/>
-      <c r="BU70" s="14"/>
+      <c r="BT70" s="6"/>
+      <c r="BU70" s="11"/>
       <c r="BV70" s="3"/>
       <c r="BW70" s="3"/>
       <c r="BX70" s="3"/>
@@ -8431,23 +8431,23 @@
       <c r="CG70" s="3"/>
       <c r="CH70" s="3"/>
       <c r="CI70" s="3"/>
-      <c r="CJ70" s="8"/>
+      <c r="CJ70" s="6"/>
     </row>
     <row r="71" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A71" s="45"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="19" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="20"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="14"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="11"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="14"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="11"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -8476,8 +8476,8 @@
       <c r="AL71" s="3"/>
       <c r="AM71" s="3"/>
       <c r="AN71" s="3"/>
-      <c r="AO71" s="8"/>
-      <c r="AP71" s="14"/>
+      <c r="AO71" s="6"/>
+      <c r="AP71" s="11"/>
       <c r="AQ71" s="3"/>
       <c r="AR71" s="3"/>
       <c r="AS71" s="3"/>
@@ -8507,8 +8507,8 @@
       <c r="BQ71" s="3"/>
       <c r="BR71" s="3"/>
       <c r="BS71" s="3"/>
-      <c r="BT71" s="8"/>
-      <c r="BU71" s="14"/>
+      <c r="BT71" s="6"/>
+      <c r="BU71" s="11"/>
       <c r="BV71" s="3"/>
       <c r="BW71" s="3"/>
       <c r="BX71" s="3"/>
@@ -8523,23 +8523,23 @@
       <c r="CG71" s="3"/>
       <c r="CH71" s="3"/>
       <c r="CI71" s="3"/>
-      <c r="CJ71" s="8"/>
+      <c r="CJ71" s="6"/>
     </row>
     <row r="72" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A72" s="45"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="19" t="s">
+      <c r="A72" s="36"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="14"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="11"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="14"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -8568,8 +8568,8 @@
       <c r="AL72" s="3"/>
       <c r="AM72" s="3"/>
       <c r="AN72" s="3"/>
-      <c r="AO72" s="8"/>
-      <c r="AP72" s="14"/>
+      <c r="AO72" s="6"/>
+      <c r="AP72" s="11"/>
       <c r="AQ72" s="3"/>
       <c r="AR72" s="3"/>
       <c r="AS72" s="3"/>
@@ -8599,8 +8599,8 @@
       <c r="BQ72" s="3"/>
       <c r="BR72" s="3"/>
       <c r="BS72" s="3"/>
-      <c r="BT72" s="8"/>
-      <c r="BU72" s="14"/>
+      <c r="BT72" s="6"/>
+      <c r="BU72" s="11"/>
       <c r="BV72" s="3"/>
       <c r="BW72" s="3"/>
       <c r="BX72" s="3"/>
@@ -8615,23 +8615,23 @@
       <c r="CG72" s="3"/>
       <c r="CH72" s="3"/>
       <c r="CI72" s="3"/>
-      <c r="CJ72" s="8"/>
+      <c r="CJ72" s="6"/>
     </row>
     <row r="73" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A73" s="45"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="19" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="14"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="11"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="14"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -8660,8 +8660,8 @@
       <c r="AL73" s="3"/>
       <c r="AM73" s="3"/>
       <c r="AN73" s="3"/>
-      <c r="AO73" s="8"/>
-      <c r="AP73" s="14"/>
+      <c r="AO73" s="6"/>
+      <c r="AP73" s="11"/>
       <c r="AQ73" s="3"/>
       <c r="AR73" s="3"/>
       <c r="AS73" s="3"/>
@@ -8691,8 +8691,8 @@
       <c r="BQ73" s="3"/>
       <c r="BR73" s="3"/>
       <c r="BS73" s="3"/>
-      <c r="BT73" s="8"/>
-      <c r="BU73" s="14"/>
+      <c r="BT73" s="6"/>
+      <c r="BU73" s="11"/>
       <c r="BV73" s="3"/>
       <c r="BW73" s="3"/>
       <c r="BX73" s="3"/>
@@ -8707,23 +8707,23 @@
       <c r="CG73" s="3"/>
       <c r="CH73" s="3"/>
       <c r="CI73" s="3"/>
-      <c r="CJ73" s="8"/>
+      <c r="CJ73" s="6"/>
     </row>
     <row r="74" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A74" s="45"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="19" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="14"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="11"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="14"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -8752,8 +8752,8 @@
       <c r="AL74" s="3"/>
       <c r="AM74" s="3"/>
       <c r="AN74" s="3"/>
-      <c r="AO74" s="8"/>
-      <c r="AP74" s="14"/>
+      <c r="AO74" s="6"/>
+      <c r="AP74" s="11"/>
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
       <c r="AS74" s="3"/>
@@ -8783,8 +8783,8 @@
       <c r="BQ74" s="3"/>
       <c r="BR74" s="3"/>
       <c r="BS74" s="3"/>
-      <c r="BT74" s="8"/>
-      <c r="BU74" s="14"/>
+      <c r="BT74" s="6"/>
+      <c r="BU74" s="11"/>
       <c r="BV74" s="3"/>
       <c r="BW74" s="3"/>
       <c r="BX74" s="3"/>
@@ -8799,23 +8799,23 @@
       <c r="CG74" s="3"/>
       <c r="CH74" s="3"/>
       <c r="CI74" s="3"/>
-      <c r="CJ74" s="8"/>
+      <c r="CJ74" s="6"/>
     </row>
     <row r="75" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="45"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="19" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="14"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="11"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="14"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -8844,8 +8844,8 @@
       <c r="AL75" s="3"/>
       <c r="AM75" s="3"/>
       <c r="AN75" s="3"/>
-      <c r="AO75" s="8"/>
-      <c r="AP75" s="14"/>
+      <c r="AO75" s="6"/>
+      <c r="AP75" s="11"/>
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
       <c r="AS75" s="3"/>
@@ -8875,8 +8875,8 @@
       <c r="BQ75" s="3"/>
       <c r="BR75" s="3"/>
       <c r="BS75" s="3"/>
-      <c r="BT75" s="8"/>
-      <c r="BU75" s="14"/>
+      <c r="BT75" s="6"/>
+      <c r="BU75" s="11"/>
       <c r="BV75" s="3"/>
       <c r="BW75" s="3"/>
       <c r="BX75" s="3"/>
@@ -8891,25 +8891,25 @@
       <c r="CG75" s="3"/>
       <c r="CH75" s="3"/>
       <c r="CI75" s="3"/>
-      <c r="CJ75" s="8"/>
+      <c r="CJ75" s="6"/>
     </row>
     <row r="76" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A76" s="45"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="52" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="14"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="11"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="14"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="11"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -8938,8 +8938,8 @@
       <c r="AL76" s="3"/>
       <c r="AM76" s="3"/>
       <c r="AN76" s="3"/>
-      <c r="AO76" s="8"/>
-      <c r="AP76" s="14"/>
+      <c r="AO76" s="6"/>
+      <c r="AP76" s="11"/>
       <c r="AQ76" s="3"/>
       <c r="AR76" s="3"/>
       <c r="AS76" s="3"/>
@@ -8969,8 +8969,8 @@
       <c r="BQ76" s="3"/>
       <c r="BR76" s="3"/>
       <c r="BS76" s="3"/>
-      <c r="BT76" s="8"/>
-      <c r="BU76" s="14"/>
+      <c r="BT76" s="6"/>
+      <c r="BU76" s="11"/>
       <c r="BV76" s="3"/>
       <c r="BW76" s="3"/>
       <c r="BX76" s="3"/>
@@ -8985,23 +8985,23 @@
       <c r="CG76" s="3"/>
       <c r="CH76" s="3"/>
       <c r="CI76" s="3"/>
-      <c r="CJ76" s="8"/>
+      <c r="CJ76" s="6"/>
     </row>
     <row r="77" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A77" s="45"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="19" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="20"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="14"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="11"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="14"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -9030,8 +9030,8 @@
       <c r="AL77" s="3"/>
       <c r="AM77" s="3"/>
       <c r="AN77" s="3"/>
-      <c r="AO77" s="8"/>
-      <c r="AP77" s="14"/>
+      <c r="AO77" s="6"/>
+      <c r="AP77" s="11"/>
       <c r="AQ77" s="3"/>
       <c r="AR77" s="3"/>
       <c r="AS77" s="3"/>
@@ -9061,8 +9061,8 @@
       <c r="BQ77" s="3"/>
       <c r="BR77" s="3"/>
       <c r="BS77" s="3"/>
-      <c r="BT77" s="8"/>
-      <c r="BU77" s="14"/>
+      <c r="BT77" s="6"/>
+      <c r="BU77" s="11"/>
       <c r="BV77" s="3"/>
       <c r="BW77" s="3"/>
       <c r="BX77" s="3"/>
@@ -9077,23 +9077,23 @@
       <c r="CG77" s="3"/>
       <c r="CH77" s="3"/>
       <c r="CI77" s="3"/>
-      <c r="CJ77" s="8"/>
+      <c r="CJ77" s="6"/>
     </row>
     <row r="78" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A78" s="45"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="19" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="20"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="14"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="11"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="14"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -9122,8 +9122,8 @@
       <c r="AL78" s="3"/>
       <c r="AM78" s="3"/>
       <c r="AN78" s="3"/>
-      <c r="AO78" s="8"/>
-      <c r="AP78" s="14"/>
+      <c r="AO78" s="6"/>
+      <c r="AP78" s="11"/>
       <c r="AQ78" s="3"/>
       <c r="AR78" s="3"/>
       <c r="AS78" s="3"/>
@@ -9153,8 +9153,8 @@
       <c r="BQ78" s="3"/>
       <c r="BR78" s="3"/>
       <c r="BS78" s="3"/>
-      <c r="BT78" s="8"/>
-      <c r="BU78" s="14"/>
+      <c r="BT78" s="6"/>
+      <c r="BU78" s="11"/>
       <c r="BV78" s="3"/>
       <c r="BW78" s="3"/>
       <c r="BX78" s="3"/>
@@ -9169,23 +9169,23 @@
       <c r="CG78" s="3"/>
       <c r="CH78" s="3"/>
       <c r="CI78" s="3"/>
-      <c r="CJ78" s="8"/>
+      <c r="CJ78" s="6"/>
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A79" s="45"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="19" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="20"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="14"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="11"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="14"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -9214,8 +9214,8 @@
       <c r="AL79" s="3"/>
       <c r="AM79" s="3"/>
       <c r="AN79" s="3"/>
-      <c r="AO79" s="8"/>
-      <c r="AP79" s="14"/>
+      <c r="AO79" s="6"/>
+      <c r="AP79" s="11"/>
       <c r="AQ79" s="3"/>
       <c r="AR79" s="3"/>
       <c r="AS79" s="3"/>
@@ -9245,8 +9245,8 @@
       <c r="BQ79" s="3"/>
       <c r="BR79" s="3"/>
       <c r="BS79" s="3"/>
-      <c r="BT79" s="8"/>
-      <c r="BU79" s="14"/>
+      <c r="BT79" s="6"/>
+      <c r="BU79" s="11"/>
       <c r="BV79" s="3"/>
       <c r="BW79" s="3"/>
       <c r="BX79" s="3"/>
@@ -9261,23 +9261,23 @@
       <c r="CG79" s="3"/>
       <c r="CH79" s="3"/>
       <c r="CI79" s="3"/>
-      <c r="CJ79" s="8"/>
+      <c r="CJ79" s="6"/>
     </row>
     <row r="80" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A80" s="45"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="19" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="20"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="14"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="11"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="14"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="11"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -9306,8 +9306,8 @@
       <c r="AL80" s="3"/>
       <c r="AM80" s="3"/>
       <c r="AN80" s="3"/>
-      <c r="AO80" s="8"/>
-      <c r="AP80" s="14"/>
+      <c r="AO80" s="6"/>
+      <c r="AP80" s="11"/>
       <c r="AQ80" s="3"/>
       <c r="AR80" s="3"/>
       <c r="AS80" s="3"/>
@@ -9337,8 +9337,8 @@
       <c r="BQ80" s="3"/>
       <c r="BR80" s="3"/>
       <c r="BS80" s="3"/>
-      <c r="BT80" s="8"/>
-      <c r="BU80" s="14"/>
+      <c r="BT80" s="6"/>
+      <c r="BU80" s="11"/>
       <c r="BV80" s="3"/>
       <c r="BW80" s="3"/>
       <c r="BX80" s="3"/>
@@ -9353,23 +9353,23 @@
       <c r="CG80" s="3"/>
       <c r="CH80" s="3"/>
       <c r="CI80" s="3"/>
-      <c r="CJ80" s="8"/>
+      <c r="CJ80" s="6"/>
     </row>
     <row r="81" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A81" s="45"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="19" t="s">
+      <c r="A81" s="36"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="20"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="14"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="11"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="14"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="11"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -9398,8 +9398,8 @@
       <c r="AL81" s="3"/>
       <c r="AM81" s="3"/>
       <c r="AN81" s="3"/>
-      <c r="AO81" s="8"/>
-      <c r="AP81" s="14"/>
+      <c r="AO81" s="6"/>
+      <c r="AP81" s="11"/>
       <c r="AQ81" s="3"/>
       <c r="AR81" s="3"/>
       <c r="AS81" s="3"/>
@@ -9429,8 +9429,8 @@
       <c r="BQ81" s="3"/>
       <c r="BR81" s="3"/>
       <c r="BS81" s="3"/>
-      <c r="BT81" s="8"/>
-      <c r="BU81" s="14"/>
+      <c r="BT81" s="6"/>
+      <c r="BU81" s="11"/>
       <c r="BV81" s="3"/>
       <c r="BW81" s="3"/>
       <c r="BX81" s="3"/>
@@ -9445,23 +9445,23 @@
       <c r="CG81" s="3"/>
       <c r="CH81" s="3"/>
       <c r="CI81" s="3"/>
-      <c r="CJ81" s="8"/>
+      <c r="CJ81" s="6"/>
     </row>
     <row r="82" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="45"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="19" t="s">
+      <c r="A82" s="36"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="14"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="11"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="14"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="11"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -9490,8 +9490,8 @@
       <c r="AL82" s="3"/>
       <c r="AM82" s="3"/>
       <c r="AN82" s="3"/>
-      <c r="AO82" s="8"/>
-      <c r="AP82" s="14"/>
+      <c r="AO82" s="6"/>
+      <c r="AP82" s="11"/>
       <c r="AQ82" s="3"/>
       <c r="AR82" s="3"/>
       <c r="AS82" s="3"/>
@@ -9521,8 +9521,8 @@
       <c r="BQ82" s="3"/>
       <c r="BR82" s="3"/>
       <c r="BS82" s="3"/>
-      <c r="BT82" s="8"/>
-      <c r="BU82" s="14"/>
+      <c r="BT82" s="6"/>
+      <c r="BU82" s="11"/>
       <c r="BV82" s="3"/>
       <c r="BW82" s="3"/>
       <c r="BX82" s="3"/>
@@ -9537,25 +9537,25 @@
       <c r="CG82" s="3"/>
       <c r="CH82" s="3"/>
       <c r="CI82" s="3"/>
-      <c r="CJ82" s="8"/>
+      <c r="CJ82" s="6"/>
     </row>
     <row r="83" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A83" s="45"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51"/>
-      <c r="D83" s="52" t="s">
+      <c r="A83" s="36"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="14"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="11"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="14"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="11"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -9584,8 +9584,8 @@
       <c r="AL83" s="3"/>
       <c r="AM83" s="3"/>
       <c r="AN83" s="3"/>
-      <c r="AO83" s="8"/>
-      <c r="AP83" s="14"/>
+      <c r="AO83" s="6"/>
+      <c r="AP83" s="11"/>
       <c r="AQ83" s="3"/>
       <c r="AR83" s="3"/>
       <c r="AS83" s="3"/>
@@ -9615,8 +9615,8 @@
       <c r="BQ83" s="3"/>
       <c r="BR83" s="3"/>
       <c r="BS83" s="3"/>
-      <c r="BT83" s="8"/>
-      <c r="BU83" s="14"/>
+      <c r="BT83" s="6"/>
+      <c r="BU83" s="11"/>
       <c r="BV83" s="3"/>
       <c r="BW83" s="3"/>
       <c r="BX83" s="3"/>
@@ -9631,23 +9631,23 @@
       <c r="CG83" s="3"/>
       <c r="CH83" s="3"/>
       <c r="CI83" s="3"/>
-      <c r="CJ83" s="8"/>
+      <c r="CJ83" s="6"/>
     </row>
     <row r="84" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A84" s="45"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51"/>
-      <c r="E84" s="19" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="14"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="11"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="14"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="11"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -9676,8 +9676,8 @@
       <c r="AL84" s="3"/>
       <c r="AM84" s="3"/>
       <c r="AN84" s="3"/>
-      <c r="AO84" s="8"/>
-      <c r="AP84" s="14"/>
+      <c r="AO84" s="6"/>
+      <c r="AP84" s="11"/>
       <c r="AQ84" s="3"/>
       <c r="AR84" s="3"/>
       <c r="AS84" s="3"/>
@@ -9707,8 +9707,8 @@
       <c r="BQ84" s="3"/>
       <c r="BR84" s="3"/>
       <c r="BS84" s="3"/>
-      <c r="BT84" s="8"/>
-      <c r="BU84" s="14"/>
+      <c r="BT84" s="6"/>
+      <c r="BU84" s="11"/>
       <c r="BV84" s="3"/>
       <c r="BW84" s="3"/>
       <c r="BX84" s="3"/>
@@ -9723,23 +9723,23 @@
       <c r="CG84" s="3"/>
       <c r="CH84" s="3"/>
       <c r="CI84" s="3"/>
-      <c r="CJ84" s="8"/>
+      <c r="CJ84" s="6"/>
     </row>
     <row r="85" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A85" s="45"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="19" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="14"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="11"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="14"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="11"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -9768,8 +9768,8 @@
       <c r="AL85" s="3"/>
       <c r="AM85" s="3"/>
       <c r="AN85" s="3"/>
-      <c r="AO85" s="8"/>
-      <c r="AP85" s="14"/>
+      <c r="AO85" s="6"/>
+      <c r="AP85" s="11"/>
       <c r="AQ85" s="3"/>
       <c r="AR85" s="3"/>
       <c r="AS85" s="3"/>
@@ -9799,8 +9799,8 @@
       <c r="BQ85" s="3"/>
       <c r="BR85" s="3"/>
       <c r="BS85" s="3"/>
-      <c r="BT85" s="8"/>
-      <c r="BU85" s="14"/>
+      <c r="BT85" s="6"/>
+      <c r="BU85" s="11"/>
       <c r="BV85" s="3"/>
       <c r="BW85" s="3"/>
       <c r="BX85" s="3"/>
@@ -9815,23 +9815,23 @@
       <c r="CG85" s="3"/>
       <c r="CH85" s="3"/>
       <c r="CI85" s="3"/>
-      <c r="CJ85" s="8"/>
+      <c r="CJ85" s="6"/>
     </row>
     <row r="86" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A86" s="45"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="19" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="14"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="11"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="14"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="11"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -9860,8 +9860,8 @@
       <c r="AL86" s="3"/>
       <c r="AM86" s="3"/>
       <c r="AN86" s="3"/>
-      <c r="AO86" s="8"/>
-      <c r="AP86" s="14"/>
+      <c r="AO86" s="6"/>
+      <c r="AP86" s="11"/>
       <c r="AQ86" s="3"/>
       <c r="AR86" s="3"/>
       <c r="AS86" s="3"/>
@@ -9891,8 +9891,8 @@
       <c r="BQ86" s="3"/>
       <c r="BR86" s="3"/>
       <c r="BS86" s="3"/>
-      <c r="BT86" s="8"/>
-      <c r="BU86" s="14"/>
+      <c r="BT86" s="6"/>
+      <c r="BU86" s="11"/>
       <c r="BV86" s="3"/>
       <c r="BW86" s="3"/>
       <c r="BX86" s="3"/>
@@ -9907,23 +9907,23 @@
       <c r="CG86" s="3"/>
       <c r="CH86" s="3"/>
       <c r="CI86" s="3"/>
-      <c r="CJ86" s="8"/>
+      <c r="CJ86" s="6"/>
     </row>
     <row r="87" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A87" s="45"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51"/>
-      <c r="E87" s="19" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="14"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="14"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="11"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -9952,8 +9952,8 @@
       <c r="AL87" s="3"/>
       <c r="AM87" s="3"/>
       <c r="AN87" s="3"/>
-      <c r="AO87" s="8"/>
-      <c r="AP87" s="14"/>
+      <c r="AO87" s="6"/>
+      <c r="AP87" s="11"/>
       <c r="AQ87" s="3"/>
       <c r="AR87" s="3"/>
       <c r="AS87" s="3"/>
@@ -9983,8 +9983,8 @@
       <c r="BQ87" s="3"/>
       <c r="BR87" s="3"/>
       <c r="BS87" s="3"/>
-      <c r="BT87" s="8"/>
-      <c r="BU87" s="14"/>
+      <c r="BT87" s="6"/>
+      <c r="BU87" s="11"/>
       <c r="BV87" s="3"/>
       <c r="BW87" s="3"/>
       <c r="BX87" s="3"/>
@@ -9999,23 +9999,23 @@
       <c r="CG87" s="3"/>
       <c r="CH87" s="3"/>
       <c r="CI87" s="3"/>
-      <c r="CJ87" s="8"/>
+      <c r="CJ87" s="6"/>
     </row>
     <row r="88" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="45"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="E88" s="19" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="20"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="14"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="14"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="11"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -10044,8 +10044,8 @@
       <c r="AL88" s="3"/>
       <c r="AM88" s="3"/>
       <c r="AN88" s="3"/>
-      <c r="AO88" s="8"/>
-      <c r="AP88" s="14"/>
+      <c r="AO88" s="6"/>
+      <c r="AP88" s="11"/>
       <c r="AQ88" s="3"/>
       <c r="AR88" s="3"/>
       <c r="AS88" s="3"/>
@@ -10075,8 +10075,8 @@
       <c r="BQ88" s="3"/>
       <c r="BR88" s="3"/>
       <c r="BS88" s="3"/>
-      <c r="BT88" s="8"/>
-      <c r="BU88" s="14"/>
+      <c r="BT88" s="6"/>
+      <c r="BU88" s="11"/>
       <c r="BV88" s="3"/>
       <c r="BW88" s="3"/>
       <c r="BX88" s="3"/>
@@ -10091,25 +10091,25 @@
       <c r="CG88" s="3"/>
       <c r="CH88" s="3"/>
       <c r="CI88" s="3"/>
-      <c r="CJ88" s="8"/>
+      <c r="CJ88" s="6"/>
     </row>
     <row r="89" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A89" s="45"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="52" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="52"/>
-      <c r="E89" s="29" t="s">
+      <c r="D89" s="29"/>
+      <c r="E89" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="30"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="14"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="11"/>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="14"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="11"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -10138,8 +10138,8 @@
       <c r="AL89" s="3"/>
       <c r="AM89" s="3"/>
       <c r="AN89" s="3"/>
-      <c r="AO89" s="8"/>
-      <c r="AP89" s="14"/>
+      <c r="AO89" s="6"/>
+      <c r="AP89" s="11"/>
       <c r="AQ89" s="3"/>
       <c r="AR89" s="3"/>
       <c r="AS89" s="3"/>
@@ -10169,8 +10169,8 @@
       <c r="BQ89" s="3"/>
       <c r="BR89" s="3"/>
       <c r="BS89" s="3"/>
-      <c r="BT89" s="8"/>
-      <c r="BU89" s="14"/>
+      <c r="BT89" s="6"/>
+      <c r="BU89" s="11"/>
       <c r="BV89" s="3"/>
       <c r="BW89" s="3"/>
       <c r="BX89" s="3"/>
@@ -10185,23 +10185,23 @@
       <c r="CG89" s="3"/>
       <c r="CH89" s="3"/>
       <c r="CI89" s="3"/>
-      <c r="CJ89" s="8"/>
+      <c r="CJ89" s="6"/>
     </row>
     <row r="90" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A90" s="45"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="29" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="30"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="14"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="11"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="14"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="11"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -10230,8 +10230,8 @@
       <c r="AL90" s="3"/>
       <c r="AM90" s="3"/>
       <c r="AN90" s="3"/>
-      <c r="AO90" s="8"/>
-      <c r="AP90" s="14"/>
+      <c r="AO90" s="6"/>
+      <c r="AP90" s="11"/>
       <c r="AQ90" s="3"/>
       <c r="AR90" s="3"/>
       <c r="AS90" s="3"/>
@@ -10261,8 +10261,8 @@
       <c r="BQ90" s="3"/>
       <c r="BR90" s="3"/>
       <c r="BS90" s="3"/>
-      <c r="BT90" s="8"/>
-      <c r="BU90" s="14"/>
+      <c r="BT90" s="6"/>
+      <c r="BU90" s="11"/>
       <c r="BV90" s="3"/>
       <c r="BW90" s="3"/>
       <c r="BX90" s="3"/>
@@ -10277,23 +10277,23 @@
       <c r="CG90" s="3"/>
       <c r="CH90" s="3"/>
       <c r="CI90" s="3"/>
-      <c r="CJ90" s="8"/>
+      <c r="CJ90" s="6"/>
     </row>
     <row r="91" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A91" s="45"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="29" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="30"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="14"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="11"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="14"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="11"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -10322,8 +10322,8 @@
       <c r="AL91" s="3"/>
       <c r="AM91" s="3"/>
       <c r="AN91" s="3"/>
-      <c r="AO91" s="8"/>
-      <c r="AP91" s="14"/>
+      <c r="AO91" s="6"/>
+      <c r="AP91" s="11"/>
       <c r="AQ91" s="3"/>
       <c r="AR91" s="3"/>
       <c r="AS91" s="3"/>
@@ -10353,8 +10353,8 @@
       <c r="BQ91" s="3"/>
       <c r="BR91" s="3"/>
       <c r="BS91" s="3"/>
-      <c r="BT91" s="8"/>
-      <c r="BU91" s="14"/>
+      <c r="BT91" s="6"/>
+      <c r="BU91" s="11"/>
       <c r="BV91" s="3"/>
       <c r="BW91" s="3"/>
       <c r="BX91" s="3"/>
@@ -10369,23 +10369,23 @@
       <c r="CG91" s="3"/>
       <c r="CH91" s="3"/>
       <c r="CI91" s="3"/>
-      <c r="CJ91" s="8"/>
+      <c r="CJ91" s="6"/>
     </row>
     <row r="92" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A92" s="45"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51"/>
-      <c r="E92" s="29" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="30"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="14"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="11"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="8"/>
-      <c r="L92" s="14"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="11"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -10414,8 +10414,8 @@
       <c r="AL92" s="3"/>
       <c r="AM92" s="3"/>
       <c r="AN92" s="3"/>
-      <c r="AO92" s="8"/>
-      <c r="AP92" s="14"/>
+      <c r="AO92" s="6"/>
+      <c r="AP92" s="11"/>
       <c r="AQ92" s="3"/>
       <c r="AR92" s="3"/>
       <c r="AS92" s="3"/>
@@ -10445,8 +10445,8 @@
       <c r="BQ92" s="3"/>
       <c r="BR92" s="3"/>
       <c r="BS92" s="3"/>
-      <c r="BT92" s="8"/>
-      <c r="BU92" s="14"/>
+      <c r="BT92" s="6"/>
+      <c r="BU92" s="11"/>
       <c r="BV92" s="3"/>
       <c r="BW92" s="3"/>
       <c r="BX92" s="3"/>
@@ -10461,23 +10461,23 @@
       <c r="CG92" s="3"/>
       <c r="CH92" s="3"/>
       <c r="CI92" s="3"/>
-      <c r="CJ92" s="8"/>
+      <c r="CJ92" s="6"/>
     </row>
     <row r="93" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="45"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="51"/>
-      <c r="D93" s="53"/>
-      <c r="E93" s="29" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="30"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="14"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="11"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="14"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="11"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -10506,8 +10506,8 @@
       <c r="AL93" s="3"/>
       <c r="AM93" s="3"/>
       <c r="AN93" s="3"/>
-      <c r="AO93" s="8"/>
-      <c r="AP93" s="14"/>
+      <c r="AO93" s="6"/>
+      <c r="AP93" s="11"/>
       <c r="AQ93" s="3"/>
       <c r="AR93" s="3"/>
       <c r="AS93" s="3"/>
@@ -10537,8 +10537,8 @@
       <c r="BQ93" s="3"/>
       <c r="BR93" s="3"/>
       <c r="BS93" s="3"/>
-      <c r="BT93" s="8"/>
-      <c r="BU93" s="14"/>
+      <c r="BT93" s="6"/>
+      <c r="BU93" s="11"/>
       <c r="BV93" s="3"/>
       <c r="BW93" s="3"/>
       <c r="BX93" s="3"/>
@@ -10553,25 +10553,25 @@
       <c r="CG93" s="3"/>
       <c r="CH93" s="3"/>
       <c r="CI93" s="3"/>
-      <c r="CJ93" s="8"/>
+      <c r="CJ93" s="6"/>
     </row>
     <row r="94" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="45"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="49" t="s">
+      <c r="A94" s="36"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="29" t="s">
+      <c r="E94" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="14"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="11"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="14"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="11"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -10600,8 +10600,8 @@
       <c r="AL94" s="3"/>
       <c r="AM94" s="3"/>
       <c r="AN94" s="3"/>
-      <c r="AO94" s="8"/>
-      <c r="AP94" s="14"/>
+      <c r="AO94" s="6"/>
+      <c r="AP94" s="11"/>
       <c r="AQ94" s="3"/>
       <c r="AR94" s="3"/>
       <c r="AS94" s="3"/>
@@ -10631,8 +10631,8 @@
       <c r="BQ94" s="3"/>
       <c r="BR94" s="3"/>
       <c r="BS94" s="3"/>
-      <c r="BT94" s="8"/>
-      <c r="BU94" s="14"/>
+      <c r="BT94" s="6"/>
+      <c r="BU94" s="11"/>
       <c r="BV94" s="3"/>
       <c r="BW94" s="3"/>
       <c r="BX94" s="3"/>
@@ -10647,25 +10647,25 @@
       <c r="CG94" s="3"/>
       <c r="CH94" s="3"/>
       <c r="CI94" s="3"/>
-      <c r="CJ94" s="8"/>
+      <c r="CJ94" s="6"/>
     </row>
     <row r="95" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A95" s="45"/>
-      <c r="B95" s="51"/>
-      <c r="C95" s="52" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="29" t="s">
+      <c r="D95" s="29"/>
+      <c r="E95" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="30"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="14"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="11"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="14"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="11"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -10694,8 +10694,8 @@
       <c r="AL95" s="3"/>
       <c r="AM95" s="3"/>
       <c r="AN95" s="3"/>
-      <c r="AO95" s="8"/>
-      <c r="AP95" s="14"/>
+      <c r="AO95" s="6"/>
+      <c r="AP95" s="11"/>
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
       <c r="AS95" s="3"/>
@@ -10725,8 +10725,8 @@
       <c r="BQ95" s="3"/>
       <c r="BR95" s="3"/>
       <c r="BS95" s="3"/>
-      <c r="BT95" s="8"/>
-      <c r="BU95" s="14"/>
+      <c r="BT95" s="6"/>
+      <c r="BU95" s="11"/>
       <c r="BV95" s="3"/>
       <c r="BW95" s="3"/>
       <c r="BX95" s="3"/>
@@ -10741,23 +10741,23 @@
       <c r="CG95" s="3"/>
       <c r="CH95" s="3"/>
       <c r="CI95" s="3"/>
-      <c r="CJ95" s="8"/>
+      <c r="CJ95" s="6"/>
     </row>
     <row r="96" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A96" s="45"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="19" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="14"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="11"/>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="14"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="11"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -10786,8 +10786,8 @@
       <c r="AL96" s="3"/>
       <c r="AM96" s="3"/>
       <c r="AN96" s="3"/>
-      <c r="AO96" s="8"/>
-      <c r="AP96" s="14"/>
+      <c r="AO96" s="6"/>
+      <c r="AP96" s="11"/>
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
       <c r="AS96" s="3"/>
@@ -10817,8 +10817,8 @@
       <c r="BQ96" s="3"/>
       <c r="BR96" s="3"/>
       <c r="BS96" s="3"/>
-      <c r="BT96" s="8"/>
-      <c r="BU96" s="14"/>
+      <c r="BT96" s="6"/>
+      <c r="BU96" s="11"/>
       <c r="BV96" s="3"/>
       <c r="BW96" s="3"/>
       <c r="BX96" s="3"/>
@@ -10833,23 +10833,23 @@
       <c r="CG96" s="3"/>
       <c r="CH96" s="3"/>
       <c r="CI96" s="3"/>
-      <c r="CJ96" s="8"/>
+      <c r="CJ96" s="6"/>
     </row>
     <row r="97" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A97" s="45"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="19" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="14"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="11"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="14"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="11"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -10878,8 +10878,8 @@
       <c r="AL97" s="3"/>
       <c r="AM97" s="3"/>
       <c r="AN97" s="3"/>
-      <c r="AO97" s="8"/>
-      <c r="AP97" s="14"/>
+      <c r="AO97" s="6"/>
+      <c r="AP97" s="11"/>
       <c r="AQ97" s="3"/>
       <c r="AR97" s="3"/>
       <c r="AS97" s="3"/>
@@ -10909,8 +10909,8 @@
       <c r="BQ97" s="3"/>
       <c r="BR97" s="3"/>
       <c r="BS97" s="3"/>
-      <c r="BT97" s="8"/>
-      <c r="BU97" s="14"/>
+      <c r="BT97" s="6"/>
+      <c r="BU97" s="11"/>
       <c r="BV97" s="3"/>
       <c r="BW97" s="3"/>
       <c r="BX97" s="3"/>
@@ -10925,23 +10925,23 @@
       <c r="CG97" s="3"/>
       <c r="CH97" s="3"/>
       <c r="CI97" s="3"/>
-      <c r="CJ97" s="8"/>
+      <c r="CJ97" s="6"/>
     </row>
     <row r="98" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="45"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="29" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="30"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="14"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="11"/>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
-      <c r="K98" s="8"/>
-      <c r="L98" s="14"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="11"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -10970,8 +10970,8 @@
       <c r="AL98" s="3"/>
       <c r="AM98" s="3"/>
       <c r="AN98" s="3"/>
-      <c r="AO98" s="8"/>
-      <c r="AP98" s="14"/>
+      <c r="AO98" s="6"/>
+      <c r="AP98" s="11"/>
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
       <c r="AS98" s="3"/>
@@ -11001,8 +11001,8 @@
       <c r="BQ98" s="3"/>
       <c r="BR98" s="3"/>
       <c r="BS98" s="3"/>
-      <c r="BT98" s="8"/>
-      <c r="BU98" s="14"/>
+      <c r="BT98" s="6"/>
+      <c r="BU98" s="11"/>
       <c r="BV98" s="3"/>
       <c r="BW98" s="3"/>
       <c r="BX98" s="3"/>
@@ -11017,29 +11017,29 @@
       <c r="CG98" s="3"/>
       <c r="CH98" s="3"/>
       <c r="CI98" s="3"/>
-      <c r="CJ98" s="8"/>
+      <c r="CJ98" s="6"/>
     </row>
     <row r="99" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A99" s="45"/>
-      <c r="B99" s="47" t="s">
+      <c r="A99" s="36"/>
+      <c r="B99" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="52" t="s">
+      <c r="C99" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="54" t="s">
+      <c r="D99" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="29" t="s">
+      <c r="E99" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="30"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="14"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="11"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="14"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="11"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -11068,8 +11068,8 @@
       <c r="AL99" s="3"/>
       <c r="AM99" s="3"/>
       <c r="AN99" s="3"/>
-      <c r="AO99" s="8"/>
-      <c r="AP99" s="14"/>
+      <c r="AO99" s="6"/>
+      <c r="AP99" s="11"/>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
       <c r="AS99" s="3"/>
@@ -11099,8 +11099,8 @@
       <c r="BQ99" s="3"/>
       <c r="BR99" s="3"/>
       <c r="BS99" s="3"/>
-      <c r="BT99" s="8"/>
-      <c r="BU99" s="14"/>
+      <c r="BT99" s="6"/>
+      <c r="BU99" s="11"/>
       <c r="BV99" s="3"/>
       <c r="BW99" s="3"/>
       <c r="BX99" s="3"/>
@@ -11115,23 +11115,23 @@
       <c r="CG99" s="3"/>
       <c r="CH99" s="3"/>
       <c r="CI99" s="3"/>
-      <c r="CJ99" s="8"/>
+      <c r="CJ99" s="6"/>
     </row>
     <row r="100" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A100" s="45"/>
-      <c r="B100" s="40"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="29" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="30"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="14"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="11"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
-      <c r="K100" s="8"/>
-      <c r="L100" s="14"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="11"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -11160,8 +11160,8 @@
       <c r="AL100" s="3"/>
       <c r="AM100" s="3"/>
       <c r="AN100" s="3"/>
-      <c r="AO100" s="8"/>
-      <c r="AP100" s="14"/>
+      <c r="AO100" s="6"/>
+      <c r="AP100" s="11"/>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
       <c r="AS100" s="3"/>
@@ -11191,8 +11191,8 @@
       <c r="BQ100" s="3"/>
       <c r="BR100" s="3"/>
       <c r="BS100" s="3"/>
-      <c r="BT100" s="8"/>
-      <c r="BU100" s="14"/>
+      <c r="BT100" s="6"/>
+      <c r="BU100" s="11"/>
       <c r="BV100" s="3"/>
       <c r="BW100" s="3"/>
       <c r="BX100" s="3"/>
@@ -11207,23 +11207,23 @@
       <c r="CG100" s="3"/>
       <c r="CH100" s="3"/>
       <c r="CI100" s="3"/>
-      <c r="CJ100" s="8"/>
+      <c r="CJ100" s="6"/>
     </row>
     <row r="101" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="45"/>
-      <c r="B101" s="40"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="19" t="s">
+      <c r="A101" s="36"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="20"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="14"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="11"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="8"/>
-      <c r="L101" s="14"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="11"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -11252,8 +11252,8 @@
       <c r="AL101" s="3"/>
       <c r="AM101" s="3"/>
       <c r="AN101" s="3"/>
-      <c r="AO101" s="8"/>
-      <c r="AP101" s="14"/>
+      <c r="AO101" s="6"/>
+      <c r="AP101" s="11"/>
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
       <c r="AS101" s="3"/>
@@ -11283,8 +11283,8 @@
       <c r="BQ101" s="3"/>
       <c r="BR101" s="3"/>
       <c r="BS101" s="3"/>
-      <c r="BT101" s="8"/>
-      <c r="BU101" s="14"/>
+      <c r="BT101" s="6"/>
+      <c r="BU101" s="11"/>
       <c r="BV101" s="3"/>
       <c r="BW101" s="3"/>
       <c r="BX101" s="3"/>
@@ -11299,25 +11299,25 @@
       <c r="CG101" s="3"/>
       <c r="CH101" s="3"/>
       <c r="CI101" s="3"/>
-      <c r="CJ101" s="8"/>
+      <c r="CJ101" s="6"/>
     </row>
     <row r="102" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A102" s="45"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="52" t="s">
+      <c r="A102" s="36"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="29"/>
+      <c r="E102" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D102" s="52"/>
-      <c r="E102" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F102" s="20"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="14"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="11"/>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="14"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="11"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -11346,8 +11346,8 @@
       <c r="AL102" s="3"/>
       <c r="AM102" s="3"/>
       <c r="AN102" s="3"/>
-      <c r="AO102" s="8"/>
-      <c r="AP102" s="14"/>
+      <c r="AO102" s="6"/>
+      <c r="AP102" s="11"/>
       <c r="AQ102" s="3"/>
       <c r="AR102" s="3"/>
       <c r="AS102" s="3"/>
@@ -11377,8 +11377,8 @@
       <c r="BQ102" s="3"/>
       <c r="BR102" s="3"/>
       <c r="BS102" s="3"/>
-      <c r="BT102" s="8"/>
-      <c r="BU102" s="14"/>
+      <c r="BT102" s="6"/>
+      <c r="BU102" s="11"/>
       <c r="BV102" s="3"/>
       <c r="BW102" s="3"/>
       <c r="BX102" s="3"/>
@@ -11393,23 +11393,23 @@
       <c r="CG102" s="3"/>
       <c r="CH102" s="3"/>
       <c r="CI102" s="3"/>
-      <c r="CJ102" s="8"/>
+      <c r="CJ102" s="6"/>
     </row>
     <row r="103" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="45"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53"/>
-      <c r="E103" s="19" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="20"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="14"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="11"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
-      <c r="K103" s="8"/>
-      <c r="L103" s="14"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="11"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
@@ -11438,8 +11438,8 @@
       <c r="AL103" s="3"/>
       <c r="AM103" s="3"/>
       <c r="AN103" s="3"/>
-      <c r="AO103" s="8"/>
-      <c r="AP103" s="14"/>
+      <c r="AO103" s="6"/>
+      <c r="AP103" s="11"/>
       <c r="AQ103" s="3"/>
       <c r="AR103" s="3"/>
       <c r="AS103" s="3"/>
@@ -11469,8 +11469,8 @@
       <c r="BQ103" s="3"/>
       <c r="BR103" s="3"/>
       <c r="BS103" s="3"/>
-      <c r="BT103" s="8"/>
-      <c r="BU103" s="14"/>
+      <c r="BT103" s="6"/>
+      <c r="BU103" s="11"/>
       <c r="BV103" s="3"/>
       <c r="BW103" s="3"/>
       <c r="BX103" s="3"/>
@@ -11485,25 +11485,25 @@
       <c r="CG103" s="3"/>
       <c r="CH103" s="3"/>
       <c r="CI103" s="3"/>
-      <c r="CJ103" s="8"/>
+      <c r="CJ103" s="6"/>
     </row>
     <row r="104" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A104" s="45"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="54" t="s">
+      <c r="A104" s="36"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="52"/>
-      <c r="E104" s="29" t="s">
+      <c r="D104" s="29"/>
+      <c r="E104" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="30"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="14"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="11"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
-      <c r="K104" s="8"/>
-      <c r="L104" s="14"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="11"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
@@ -11532,8 +11532,8 @@
       <c r="AL104" s="3"/>
       <c r="AM104" s="3"/>
       <c r="AN104" s="3"/>
-      <c r="AO104" s="8"/>
-      <c r="AP104" s="14"/>
+      <c r="AO104" s="6"/>
+      <c r="AP104" s="11"/>
       <c r="AQ104" s="3"/>
       <c r="AR104" s="3"/>
       <c r="AS104" s="3"/>
@@ -11563,8 +11563,8 @@
       <c r="BQ104" s="3"/>
       <c r="BR104" s="3"/>
       <c r="BS104" s="3"/>
-      <c r="BT104" s="8"/>
-      <c r="BU104" s="14"/>
+      <c r="BT104" s="6"/>
+      <c r="BU104" s="11"/>
       <c r="BV104" s="3"/>
       <c r="BW104" s="3"/>
       <c r="BX104" s="3"/>
@@ -11579,23 +11579,23 @@
       <c r="CG104" s="3"/>
       <c r="CH104" s="3"/>
       <c r="CI104" s="3"/>
-      <c r="CJ104" s="8"/>
+      <c r="CJ104" s="6"/>
     </row>
     <row r="105" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="45"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="53"/>
-      <c r="E105" s="29" t="s">
+      <c r="A105" s="36"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="57"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="30"/>
-      <c r="G105" s="24"/>
-      <c r="H105" s="14"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="11"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
-      <c r="K105" s="8"/>
-      <c r="L105" s="14"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="11"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
@@ -11624,8 +11624,8 @@
       <c r="AL105" s="3"/>
       <c r="AM105" s="3"/>
       <c r="AN105" s="3"/>
-      <c r="AO105" s="8"/>
-      <c r="AP105" s="14"/>
+      <c r="AO105" s="6"/>
+      <c r="AP105" s="11"/>
       <c r="AQ105" s="3"/>
       <c r="AR105" s="3"/>
       <c r="AS105" s="3"/>
@@ -11655,8 +11655,8 @@
       <c r="BQ105" s="3"/>
       <c r="BR105" s="3"/>
       <c r="BS105" s="3"/>
-      <c r="BT105" s="8"/>
-      <c r="BU105" s="14"/>
+      <c r="BT105" s="6"/>
+      <c r="BU105" s="11"/>
       <c r="BV105" s="3"/>
       <c r="BW105" s="3"/>
       <c r="BX105" s="3"/>
@@ -11671,25 +11671,25 @@
       <c r="CG105" s="3"/>
       <c r="CH105" s="3"/>
       <c r="CI105" s="3"/>
-      <c r="CJ105" s="8"/>
+      <c r="CJ105" s="6"/>
     </row>
     <row r="106" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="45"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="50" t="s">
+      <c r="A106" s="36"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D106" s="50"/>
-      <c r="E106" s="19" t="s">
+      <c r="D106" s="20"/>
+      <c r="E106" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="20"/>
-      <c r="G106" s="24"/>
-      <c r="H106" s="14"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="11"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="14"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="11"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -11718,8 +11718,8 @@
       <c r="AL106" s="3"/>
       <c r="AM106" s="3"/>
       <c r="AN106" s="3"/>
-      <c r="AO106" s="8"/>
-      <c r="AP106" s="14"/>
+      <c r="AO106" s="6"/>
+      <c r="AP106" s="11"/>
       <c r="AQ106" s="3"/>
       <c r="AR106" s="3"/>
       <c r="AS106" s="3"/>
@@ -11749,8 +11749,8 @@
       <c r="BQ106" s="3"/>
       <c r="BR106" s="3"/>
       <c r="BS106" s="3"/>
-      <c r="BT106" s="8"/>
-      <c r="BU106" s="14"/>
+      <c r="BT106" s="6"/>
+      <c r="BU106" s="11"/>
       <c r="BV106" s="3"/>
       <c r="BW106" s="3"/>
       <c r="BX106" s="3"/>
@@ -11765,104 +11765,234 @@
       <c r="CG106" s="3"/>
       <c r="CH106" s="3"/>
       <c r="CI106" s="3"/>
-      <c r="CJ106" s="8"/>
+      <c r="CJ106" s="6"/>
     </row>
     <row r="107" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="46"/>
-      <c r="B107" s="41"/>
-      <c r="C107" s="50" t="s">
+      <c r="A107" s="52"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="50"/>
-      <c r="E107" s="21" t="s">
+      <c r="D107" s="20"/>
+      <c r="E107" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="22"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="10"/>
-      <c r="R107" s="10"/>
-      <c r="S107" s="10"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="10"/>
-      <c r="W107" s="10"/>
-      <c r="X107" s="10"/>
-      <c r="Y107" s="10"/>
-      <c r="Z107" s="10"/>
-      <c r="AA107" s="10"/>
-      <c r="AB107" s="10"/>
-      <c r="AC107" s="10"/>
-      <c r="AD107" s="10"/>
-      <c r="AE107" s="10"/>
-      <c r="AF107" s="10"/>
-      <c r="AG107" s="10"/>
-      <c r="AH107" s="10"/>
-      <c r="AI107" s="10"/>
-      <c r="AJ107" s="10"/>
-      <c r="AK107" s="10"/>
-      <c r="AL107" s="10"/>
-      <c r="AM107" s="10"/>
-      <c r="AN107" s="10"/>
-      <c r="AO107" s="11"/>
-      <c r="AP107" s="16"/>
-      <c r="AQ107" s="10"/>
-      <c r="AR107" s="10"/>
-      <c r="AS107" s="10"/>
-      <c r="AT107" s="10"/>
-      <c r="AU107" s="10"/>
-      <c r="AV107" s="10"/>
-      <c r="AW107" s="10"/>
-      <c r="AX107" s="10"/>
-      <c r="AY107" s="10"/>
-      <c r="AZ107" s="10"/>
-      <c r="BA107" s="10"/>
-      <c r="BB107" s="10"/>
-      <c r="BC107" s="10"/>
-      <c r="BD107" s="10"/>
-      <c r="BE107" s="10"/>
-      <c r="BF107" s="10"/>
-      <c r="BG107" s="10"/>
-      <c r="BH107" s="10"/>
-      <c r="BI107" s="10"/>
-      <c r="BJ107" s="10"/>
-      <c r="BK107" s="10"/>
-      <c r="BL107" s="10"/>
-      <c r="BM107" s="10"/>
-      <c r="BN107" s="10"/>
-      <c r="BO107" s="10"/>
-      <c r="BP107" s="10"/>
-      <c r="BQ107" s="10"/>
-      <c r="BR107" s="10"/>
-      <c r="BS107" s="10"/>
-      <c r="BT107" s="11"/>
-      <c r="BU107" s="16"/>
-      <c r="BV107" s="10"/>
-      <c r="BW107" s="10"/>
-      <c r="BX107" s="10"/>
-      <c r="BY107" s="10"/>
-      <c r="BZ107" s="10"/>
-      <c r="CA107" s="10"/>
-      <c r="CB107" s="10"/>
-      <c r="CC107" s="10"/>
-      <c r="CD107" s="10"/>
-      <c r="CE107" s="10"/>
-      <c r="CF107" s="10"/>
-      <c r="CG107" s="10"/>
-      <c r="CH107" s="10"/>
-      <c r="CI107" s="10"/>
-      <c r="CJ107" s="11"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8"/>
+      <c r="Q107" s="8"/>
+      <c r="R107" s="8"/>
+      <c r="S107" s="8"/>
+      <c r="T107" s="8"/>
+      <c r="U107" s="8"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="8"/>
+      <c r="X107" s="8"/>
+      <c r="Y107" s="8"/>
+      <c r="Z107" s="8"/>
+      <c r="AA107" s="8"/>
+      <c r="AB107" s="8"/>
+      <c r="AC107" s="8"/>
+      <c r="AD107" s="8"/>
+      <c r="AE107" s="8"/>
+      <c r="AF107" s="8"/>
+      <c r="AG107" s="8"/>
+      <c r="AH107" s="8"/>
+      <c r="AI107" s="8"/>
+      <c r="AJ107" s="8"/>
+      <c r="AK107" s="8"/>
+      <c r="AL107" s="8"/>
+      <c r="AM107" s="8"/>
+      <c r="AN107" s="8"/>
+      <c r="AO107" s="9"/>
+      <c r="AP107" s="13"/>
+      <c r="AQ107" s="8"/>
+      <c r="AR107" s="8"/>
+      <c r="AS107" s="8"/>
+      <c r="AT107" s="8"/>
+      <c r="AU107" s="8"/>
+      <c r="AV107" s="8"/>
+      <c r="AW107" s="8"/>
+      <c r="AX107" s="8"/>
+      <c r="AY107" s="8"/>
+      <c r="AZ107" s="8"/>
+      <c r="BA107" s="8"/>
+      <c r="BB107" s="8"/>
+      <c r="BC107" s="8"/>
+      <c r="BD107" s="8"/>
+      <c r="BE107" s="8"/>
+      <c r="BF107" s="8"/>
+      <c r="BG107" s="8"/>
+      <c r="BH107" s="8"/>
+      <c r="BI107" s="8"/>
+      <c r="BJ107" s="8"/>
+      <c r="BK107" s="8"/>
+      <c r="BL107" s="8"/>
+      <c r="BM107" s="8"/>
+      <c r="BN107" s="8"/>
+      <c r="BO107" s="8"/>
+      <c r="BP107" s="8"/>
+      <c r="BQ107" s="8"/>
+      <c r="BR107" s="8"/>
+      <c r="BS107" s="8"/>
+      <c r="BT107" s="9"/>
+      <c r="BU107" s="13"/>
+      <c r="BV107" s="8"/>
+      <c r="BW107" s="8"/>
+      <c r="BX107" s="8"/>
+      <c r="BY107" s="8"/>
+      <c r="BZ107" s="8"/>
+      <c r="CA107" s="8"/>
+      <c r="CB107" s="8"/>
+      <c r="CC107" s="8"/>
+      <c r="CD107" s="8"/>
+      <c r="CE107" s="8"/>
+      <c r="CF107" s="8"/>
+      <c r="CG107" s="8"/>
+      <c r="CH107" s="8"/>
+      <c r="CI107" s="8"/>
+      <c r="CJ107" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C64:C88"/>
+    <mergeCell ref="D64:D75"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A38:A63"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B63"/>
+    <mergeCell ref="B64:B98"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A64:A107"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:AO1"/>
+    <mergeCell ref="BU1:CJ1"/>
+    <mergeCell ref="AP1:BT1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
     <mergeCell ref="E106:F106"/>
     <mergeCell ref="E107:F107"/>
     <mergeCell ref="A1:F1"/>
@@ -11887,136 +12017,6 @@
     <mergeCell ref="E95:F95"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:AO1"/>
-    <mergeCell ref="BU1:CJ1"/>
-    <mergeCell ref="AP1:BT1"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A64:A107"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C64:C88"/>
-    <mergeCell ref="D64:D75"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="C2:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A38:A63"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B63"/>
-    <mergeCell ref="B64:B98"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B99:B107"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="4">
@@ -835,6 +835,14 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1308,25 +1316,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1338,21 +1334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,23 +1343,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1398,28 +1394,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1726,124 +1734,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="26" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="26" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="44"/>
-      <c r="BR1" s="44"/>
-      <c r="BS1" s="44"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="26" t="s">
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="38"/>
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="39"/>
+      <c r="BU1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="44"/>
-      <c r="BW1" s="44"/>
-      <c r="BX1" s="44"/>
-      <c r="BY1" s="44"/>
-      <c r="BZ1" s="44"/>
-      <c r="CA1" s="44"/>
-      <c r="CB1" s="44"/>
-      <c r="CC1" s="44"/>
-      <c r="CD1" s="44"/>
-      <c r="CE1" s="44"/>
-      <c r="CF1" s="44"/>
-      <c r="CG1" s="44"/>
-      <c r="CH1" s="44"/>
-      <c r="CI1" s="44"/>
-      <c r="CJ1" s="45"/>
+      <c r="BV1" s="38"/>
+      <c r="BW1" s="38"/>
+      <c r="BX1" s="38"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="38"/>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="38"/>
+      <c r="CI1" s="38"/>
+      <c r="CJ1" s="39"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="14"/>
       <c r="H2" s="10">
         <v>44862</v>
@@ -2090,14 +2098,14 @@
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="22" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="15"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
@@ -2182,14 +2190,14 @@
       <c r="CJ3" s="6"/>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="22" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="15"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
@@ -2274,14 +2282,14 @@
       <c r="CJ4" s="6"/>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="22" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="15"/>
       <c r="H5" s="11"/>
       <c r="I5" s="3"/>
@@ -2366,14 +2374,14 @@
       <c r="CJ5" s="6"/>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="22" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="15"/>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
@@ -2458,14 +2466,14 @@
       <c r="CJ6" s="6"/>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="22" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="15"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
@@ -2550,14 +2558,14 @@
       <c r="CJ7" s="6"/>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="22" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="15"/>
       <c r="H8" s="11"/>
       <c r="I8" s="3"/>
@@ -2642,14 +2650,14 @@
       <c r="CJ8" s="6"/>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A9" s="36"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="22" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="3"/>
@@ -2734,14 +2742,14 @@
       <c r="CJ9" s="6"/>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A10" s="36"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="22" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
@@ -2826,14 +2834,14 @@
       <c r="CJ10" s="6"/>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A11" s="36"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="22" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="3"/>
@@ -2918,14 +2926,14 @@
       <c r="CJ11" s="6"/>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A12" s="36"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="22" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11"/>
       <c r="I12" s="3"/>
@@ -3010,14 +3018,14 @@
       <c r="CJ12" s="6"/>
     </row>
     <row r="13" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="36"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="24" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11"/>
       <c r="I13" s="3"/>
@@ -3102,16 +3110,16 @@
       <c r="CJ13" s="6"/>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A14" s="36"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="53" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="15"/>
       <c r="H14" s="11"/>
       <c r="I14" s="3"/>
@@ -3196,14 +3204,14 @@
       <c r="CJ14" s="6"/>
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="32" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11"/>
       <c r="I15" s="3"/>
@@ -3288,14 +3296,14 @@
       <c r="CJ15" s="6"/>
     </row>
     <row r="16" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="46" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="16"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
@@ -3380,16 +3388,16 @@
       <c r="CJ16" s="7"/>
     </row>
     <row r="17" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="16"/>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
@@ -3474,16 +3482,16 @@
       <c r="CJ17" s="7"/>
     </row>
     <row r="18" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="16"/>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
@@ -3568,18 +3576,18 @@
       <c r="CJ18" s="7"/>
     </row>
     <row r="19" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="3"/>
@@ -3664,16 +3672,16 @@
       <c r="CJ19" s="6"/>
     </row>
     <row r="20" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="15"/>
       <c r="H20" s="11"/>
       <c r="I20" s="3"/>
@@ -3758,16 +3766,16 @@
       <c r="CJ20" s="6"/>
     </row>
     <row r="21" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="15"/>
       <c r="H21" s="11"/>
       <c r="I21" s="3"/>
@@ -3852,16 +3860,16 @@
       <c r="CJ21" s="6"/>
     </row>
     <row r="22" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="36"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="15"/>
       <c r="H22" s="11"/>
       <c r="I22" s="3"/>
@@ -3946,16 +3954,16 @@
       <c r="CJ22" s="6"/>
     </row>
     <row r="23" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="36"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="15"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3"/>
@@ -4040,16 +4048,16 @@
       <c r="CJ23" s="6"/>
     </row>
     <row r="24" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="36"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="15"/>
       <c r="H24" s="11"/>
       <c r="I24" s="3"/>
@@ -4134,16 +4142,16 @@
       <c r="CJ24" s="6"/>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="15"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3"/>
@@ -4228,14 +4236,14 @@
       <c r="CJ25" s="6"/>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A26" s="36"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="22" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="15"/>
       <c r="H26" s="11"/>
       <c r="I26" s="3"/>
@@ -4320,14 +4328,14 @@
       <c r="CJ26" s="6"/>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="22" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="15"/>
       <c r="H27" s="11"/>
       <c r="I27" s="3"/>
@@ -4412,14 +4420,14 @@
       <c r="CJ27" s="6"/>
     </row>
     <row r="28" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="36"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="15"/>
       <c r="H28" s="11"/>
       <c r="I28" s="3"/>
@@ -4504,16 +4512,16 @@
       <c r="CJ28" s="6"/>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A29" s="36"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="37" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="32" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="33"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="15"/>
       <c r="H29" s="11"/>
       <c r="I29" s="3"/>
@@ -4598,14 +4606,14 @@
       <c r="CJ29" s="6"/>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A30" s="36"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="15"/>
       <c r="H30" s="11"/>
       <c r="I30" s="3"/>
@@ -4690,14 +4698,14 @@
       <c r="CJ30" s="6"/>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A31" s="36"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="32" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="I31" s="3"/>
@@ -4782,14 +4790,14 @@
       <c r="CJ31" s="6"/>
     </row>
     <row r="32" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="36"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="15"/>
       <c r="H32" s="11"/>
       <c r="I32" s="3"/>
@@ -4874,16 +4882,16 @@
       <c r="CJ32" s="6"/>
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="32" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="15"/>
       <c r="H33" s="11"/>
       <c r="I33" s="3"/>
@@ -4968,14 +4976,14 @@
       <c r="CJ33" s="6"/>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A34" s="36"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="32" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="15"/>
       <c r="H34" s="11"/>
       <c r="I34" s="3"/>
@@ -5060,14 +5068,14 @@
       <c r="CJ34" s="6"/>
     </row>
     <row r="35" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="33"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="15"/>
       <c r="H35" s="11"/>
       <c r="I35" s="3"/>
@@ -5152,16 +5160,16 @@
       <c r="CJ35" s="6"/>
     </row>
     <row r="36" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="36"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="32" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="33"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="15"/>
       <c r="H36" s="11"/>
       <c r="I36" s="3"/>
@@ -5246,16 +5254,16 @@
       <c r="CJ36" s="6"/>
     </row>
     <row r="37" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="36"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="15"/>
       <c r="H37" s="11"/>
       <c r="I37" s="3"/>
@@ -5340,20 +5348,20 @@
       <c r="CJ37" s="6"/>
     </row>
     <row r="38" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="35"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="15"/>
       <c r="H38" s="11"/>
       <c r="I38" s="3"/>
@@ -5438,18 +5446,18 @@
       <c r="CJ38" s="6"/>
     </row>
     <row r="39" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="36"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="15"/>
       <c r="H39" s="11"/>
       <c r="I39" s="3"/>
@@ -5534,16 +5542,16 @@
       <c r="CJ39" s="6"/>
     </row>
     <row r="40" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="36"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="15"/>
       <c r="H40" s="11"/>
       <c r="I40" s="3"/>
@@ -5628,20 +5636,20 @@
       <c r="CJ40" s="6"/>
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="35"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="15"/>
       <c r="H41" s="11"/>
       <c r="I41" s="3"/>
@@ -5726,14 +5734,14 @@
       <c r="CJ41" s="6"/>
     </row>
     <row r="42" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A42" s="36"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="34" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="35"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="15"/>
       <c r="H42" s="11"/>
       <c r="I42" s="3"/>
@@ -5818,14 +5826,14 @@
       <c r="CJ42" s="6"/>
     </row>
     <row r="43" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="34" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="35"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="15"/>
       <c r="H43" s="11"/>
       <c r="I43" s="3"/>
@@ -5910,16 +5918,16 @@
       <c r="CJ43" s="6"/>
     </row>
     <row r="44" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A44" s="36"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="29" t="s">
+      <c r="A44" s="31"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="23"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="15"/>
       <c r="H44" s="11"/>
       <c r="I44" s="3"/>
@@ -6004,14 +6012,14 @@
       <c r="CJ44" s="6"/>
     </row>
     <row r="45" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A45" s="36"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="22" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="15"/>
       <c r="H45" s="11"/>
       <c r="I45" s="3"/>
@@ -6096,14 +6104,14 @@
       <c r="CJ45" s="6"/>
     </row>
     <row r="46" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A46" s="36"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="22" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="51"/>
       <c r="G46" s="15"/>
       <c r="H46" s="11"/>
       <c r="I46" s="3"/>
@@ -6188,14 +6196,14 @@
       <c r="CJ46" s="6"/>
     </row>
     <row r="47" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="36"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="22" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="23"/>
+      <c r="F47" s="51"/>
       <c r="G47" s="15"/>
       <c r="H47" s="11"/>
       <c r="I47" s="3"/>
@@ -6280,16 +6288,16 @@
       <c r="CJ47" s="6"/>
     </row>
     <row r="48" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="36"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="30"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="51"/>
       <c r="G48" s="15"/>
       <c r="H48" s="11"/>
       <c r="I48" s="3"/>
@@ -6374,16 +6382,16 @@
       <c r="CJ48" s="6"/>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A49" s="36"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="29" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="15"/>
       <c r="H49" s="11"/>
       <c r="I49" s="3"/>
@@ -6468,14 +6476,14 @@
       <c r="CJ49" s="6"/>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A50" s="36"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="22" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="15"/>
       <c r="H50" s="11"/>
       <c r="I50" s="3"/>
@@ -6560,14 +6568,14 @@
       <c r="CJ50" s="6"/>
     </row>
     <row r="51" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="36"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="22" t="s">
+      <c r="A51" s="31"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="23"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="15"/>
       <c r="H51" s="11"/>
       <c r="I51" s="3"/>
@@ -6652,18 +6660,18 @@
       <c r="CJ51" s="6"/>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A52" s="36"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="29" t="s">
+      <c r="A52" s="31"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="23"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="15"/>
       <c r="H52" s="11"/>
       <c r="I52" s="3"/>
@@ -6748,14 +6756,14 @@
       <c r="CJ52" s="6"/>
     </row>
     <row r="53" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="36"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="22" t="s">
+      <c r="A53" s="31"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="15"/>
       <c r="H53" s="11"/>
       <c r="I53" s="3"/>
@@ -6840,16 +6848,16 @@
       <c r="CJ53" s="6"/>
     </row>
     <row r="54" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="36"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="30"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="23"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="15"/>
       <c r="H54" s="11"/>
       <c r="I54" s="3"/>
@@ -6934,16 +6942,16 @@
       <c r="CJ54" s="6"/>
     </row>
     <row r="55" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="36"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="30"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="51"/>
       <c r="G55" s="15"/>
       <c r="H55" s="11"/>
       <c r="I55" s="3"/>
@@ -7028,16 +7036,16 @@
       <c r="CJ55" s="6"/>
     </row>
     <row r="56" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="36"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="30"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="51"/>
       <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="3"/>
@@ -7122,16 +7130,16 @@
       <c r="CJ56" s="6"/>
     </row>
     <row r="57" spans="1:88" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="36"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="31"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="51"/>
       <c r="G57" s="15"/>
       <c r="H57" s="11"/>
       <c r="I57" s="3"/>
@@ -7216,18 +7224,18 @@
       <c r="CJ57" s="6"/>
     </row>
     <row r="58" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="36"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="29" t="s">
+      <c r="A58" s="31"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="51"/>
       <c r="G58" s="15"/>
       <c r="H58" s="11"/>
       <c r="I58" s="3"/>
@@ -7312,16 +7320,16 @@
       <c r="CJ58" s="6"/>
     </row>
     <row r="59" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="36"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="51"/>
       <c r="G59" s="15"/>
       <c r="H59" s="11"/>
       <c r="I59" s="3"/>
@@ -7406,16 +7414,16 @@
       <c r="CJ59" s="6"/>
     </row>
     <row r="60" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="36"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="30"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="51"/>
       <c r="G60" s="15"/>
       <c r="H60" s="11"/>
       <c r="I60" s="3"/>
@@ -7500,16 +7508,16 @@
       <c r="CJ60" s="6"/>
     </row>
     <row r="61" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="36"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="31"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="51"/>
       <c r="G61" s="15"/>
       <c r="H61" s="11"/>
       <c r="I61" s="3"/>
@@ -7594,16 +7602,16 @@
       <c r="CJ61" s="6"/>
     </row>
     <row r="62" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="36"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="20"/>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="51"/>
       <c r="G62" s="15"/>
       <c r="H62" s="11"/>
       <c r="I62" s="3"/>
@@ -7688,16 +7696,16 @@
       <c r="CJ62" s="6"/>
     </row>
     <row r="63" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="36"/>
-      <c r="B63" s="39"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="23"/>
+      <c r="F63" s="51"/>
       <c r="G63" s="15"/>
       <c r="H63" s="11"/>
       <c r="I63" s="3"/>
@@ -7782,22 +7790,22 @@
       <c r="CJ63" s="6"/>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="23"/>
+      <c r="F64" s="51"/>
       <c r="G64" s="15"/>
       <c r="H64" s="11"/>
       <c r="I64" s="3"/>
@@ -7882,14 +7890,14 @@
       <c r="CJ64" s="6"/>
     </row>
     <row r="65" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A65" s="36"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="22" t="s">
+      <c r="A65" s="31"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="23"/>
+      <c r="F65" s="51"/>
       <c r="G65" s="15"/>
       <c r="H65" s="11"/>
       <c r="I65" s="3"/>
@@ -7974,14 +7982,14 @@
       <c r="CJ65" s="6"/>
     </row>
     <row r="66" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A66" s="36"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="22" t="s">
+      <c r="A66" s="31"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="51"/>
       <c r="G66" s="15"/>
       <c r="H66" s="11"/>
       <c r="I66" s="3"/>
@@ -8066,14 +8074,14 @@
       <c r="CJ66" s="6"/>
     </row>
     <row r="67" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A67" s="36"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="23"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="51"/>
       <c r="G67" s="15"/>
       <c r="H67" s="11"/>
       <c r="I67" s="3"/>
@@ -8158,14 +8166,14 @@
       <c r="CJ67" s="6"/>
     </row>
     <row r="68" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A68" s="36"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="23"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="51"/>
       <c r="G68" s="15"/>
       <c r="H68" s="11"/>
       <c r="I68" s="3"/>
@@ -8250,14 +8258,14 @@
       <c r="CJ68" s="6"/>
     </row>
     <row r="69" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A69" s="36"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="22" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="51"/>
       <c r="G69" s="15"/>
       <c r="H69" s="11"/>
       <c r="I69" s="3"/>
@@ -8342,14 +8350,14 @@
       <c r="CJ69" s="6"/>
     </row>
     <row r="70" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A70" s="36"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="22" t="s">
+      <c r="A70" s="31"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="23"/>
+      <c r="F70" s="51"/>
       <c r="G70" s="15"/>
       <c r="H70" s="11"/>
       <c r="I70" s="3"/>
@@ -8434,14 +8442,14 @@
       <c r="CJ70" s="6"/>
     </row>
     <row r="71" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A71" s="36"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="22" t="s">
+      <c r="A71" s="31"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="23"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="15"/>
       <c r="H71" s="11"/>
       <c r="I71" s="3"/>
@@ -8526,14 +8534,14 @@
       <c r="CJ71" s="6"/>
     </row>
     <row r="72" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A72" s="36"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="22" t="s">
+      <c r="A72" s="31"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="23"/>
+      <c r="F72" s="51"/>
       <c r="G72" s="15"/>
       <c r="H72" s="11"/>
       <c r="I72" s="3"/>
@@ -8618,14 +8626,14 @@
       <c r="CJ72" s="6"/>
     </row>
     <row r="73" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A73" s="36"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="22" t="s">
+      <c r="A73" s="31"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="51"/>
       <c r="G73" s="15"/>
       <c r="H73" s="11"/>
       <c r="I73" s="3"/>
@@ -8710,14 +8718,14 @@
       <c r="CJ73" s="6"/>
     </row>
     <row r="74" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A74" s="36"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="22" t="s">
+      <c r="A74" s="31"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="23"/>
+      <c r="F74" s="51"/>
       <c r="G74" s="15"/>
       <c r="H74" s="11"/>
       <c r="I74" s="3"/>
@@ -8802,14 +8810,14 @@
       <c r="CJ74" s="6"/>
     </row>
     <row r="75" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="36"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="22" t="s">
+      <c r="A75" s="31"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="23"/>
+      <c r="F75" s="51"/>
       <c r="G75" s="15"/>
       <c r="H75" s="11"/>
       <c r="I75" s="3"/>
@@ -8894,16 +8902,16 @@
       <c r="CJ75" s="6"/>
     </row>
     <row r="76" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A76" s="36"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="29" t="s">
+      <c r="A76" s="31"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="23"/>
+      <c r="F76" s="51"/>
       <c r="G76" s="15"/>
       <c r="H76" s="11"/>
       <c r="I76" s="3"/>
@@ -8988,14 +8996,14 @@
       <c r="CJ76" s="6"/>
     </row>
     <row r="77" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A77" s="36"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="22" t="s">
+      <c r="A77" s="31"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="23"/>
+      <c r="F77" s="51"/>
       <c r="G77" s="15"/>
       <c r="H77" s="11"/>
       <c r="I77" s="3"/>
@@ -9080,14 +9088,14 @@
       <c r="CJ77" s="6"/>
     </row>
     <row r="78" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A78" s="36"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="22" t="s">
+      <c r="A78" s="31"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="51"/>
       <c r="G78" s="15"/>
       <c r="H78" s="11"/>
       <c r="I78" s="3"/>
@@ -9172,14 +9180,14 @@
       <c r="CJ78" s="6"/>
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A79" s="36"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="22" t="s">
+      <c r="A79" s="31"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="23"/>
+      <c r="F79" s="51"/>
       <c r="G79" s="15"/>
       <c r="H79" s="11"/>
       <c r="I79" s="3"/>
@@ -9264,14 +9272,14 @@
       <c r="CJ79" s="6"/>
     </row>
     <row r="80" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A80" s="36"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="22" t="s">
+      <c r="A80" s="31"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="23"/>
+      <c r="F80" s="51"/>
       <c r="G80" s="15"/>
       <c r="H80" s="11"/>
       <c r="I80" s="3"/>
@@ -9356,14 +9364,14 @@
       <c r="CJ80" s="6"/>
     </row>
     <row r="81" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A81" s="36"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="22" t="s">
+      <c r="A81" s="31"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="23"/>
+      <c r="F81" s="51"/>
       <c r="G81" s="15"/>
       <c r="H81" s="11"/>
       <c r="I81" s="3"/>
@@ -9448,14 +9456,14 @@
       <c r="CJ81" s="6"/>
     </row>
     <row r="82" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="36"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="22" t="s">
+      <c r="A82" s="31"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="23"/>
+      <c r="F82" s="51"/>
       <c r="G82" s="15"/>
       <c r="H82" s="11"/>
       <c r="I82" s="3"/>
@@ -9540,16 +9548,16 @@
       <c r="CJ82" s="6"/>
     </row>
     <row r="83" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A83" s="36"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="29" t="s">
+      <c r="A83" s="31"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="23"/>
+      <c r="F83" s="51"/>
       <c r="G83" s="15"/>
       <c r="H83" s="11"/>
       <c r="I83" s="3"/>
@@ -9634,14 +9642,14 @@
       <c r="CJ83" s="6"/>
     </row>
     <row r="84" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A84" s="36"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="22" t="s">
+      <c r="A84" s="31"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="23"/>
+      <c r="F84" s="51"/>
       <c r="G84" s="15"/>
       <c r="H84" s="11"/>
       <c r="I84" s="3"/>
@@ -9726,14 +9734,14 @@
       <c r="CJ84" s="6"/>
     </row>
     <row r="85" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A85" s="36"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="22" t="s">
+      <c r="A85" s="31"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="23"/>
+      <c r="F85" s="51"/>
       <c r="G85" s="15"/>
       <c r="H85" s="11"/>
       <c r="I85" s="3"/>
@@ -9818,14 +9826,14 @@
       <c r="CJ85" s="6"/>
     </row>
     <row r="86" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A86" s="36"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="22" t="s">
+      <c r="A86" s="31"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="23"/>
+      <c r="F86" s="51"/>
       <c r="G86" s="15"/>
       <c r="H86" s="11"/>
       <c r="I86" s="3"/>
@@ -9910,14 +9918,14 @@
       <c r="CJ86" s="6"/>
     </row>
     <row r="87" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A87" s="36"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="22" t="s">
+      <c r="A87" s="31"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="23"/>
+      <c r="F87" s="51"/>
       <c r="G87" s="15"/>
       <c r="H87" s="11"/>
       <c r="I87" s="3"/>
@@ -10002,14 +10010,14 @@
       <c r="CJ87" s="6"/>
     </row>
     <row r="88" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="36"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="22" t="s">
+      <c r="A88" s="31"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="23"/>
+      <c r="F88" s="51"/>
       <c r="G88" s="15"/>
       <c r="H88" s="11"/>
       <c r="I88" s="3"/>
@@ -10094,16 +10102,16 @@
       <c r="CJ88" s="6"/>
     </row>
     <row r="89" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A89" s="36"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="29" t="s">
+      <c r="A89" s="31"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="32" t="s">
+      <c r="D89" s="25"/>
+      <c r="E89" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="33"/>
+      <c r="F89" s="41"/>
       <c r="G89" s="15"/>
       <c r="H89" s="11"/>
       <c r="I89" s="3"/>
@@ -10188,14 +10196,14 @@
       <c r="CJ89" s="6"/>
     </row>
     <row r="90" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A90" s="36"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="32" t="s">
+      <c r="A90" s="31"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="33"/>
+      <c r="F90" s="41"/>
       <c r="G90" s="15"/>
       <c r="H90" s="11"/>
       <c r="I90" s="3"/>
@@ -10280,14 +10288,14 @@
       <c r="CJ90" s="6"/>
     </row>
     <row r="91" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A91" s="36"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="32" t="s">
+      <c r="A91" s="31"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="33"/>
+      <c r="F91" s="41"/>
       <c r="G91" s="15"/>
       <c r="H91" s="11"/>
       <c r="I91" s="3"/>
@@ -10372,14 +10380,14 @@
       <c r="CJ91" s="6"/>
     </row>
     <row r="92" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A92" s="36"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="32" t="s">
+      <c r="A92" s="31"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="33"/>
+      <c r="F92" s="41"/>
       <c r="G92" s="15"/>
       <c r="H92" s="11"/>
       <c r="I92" s="3"/>
@@ -10464,14 +10472,14 @@
       <c r="CJ92" s="6"/>
     </row>
     <row r="93" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="36"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="32" t="s">
+      <c r="A93" s="31"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="33"/>
+      <c r="F93" s="41"/>
       <c r="G93" s="15"/>
       <c r="H93" s="11"/>
       <c r="I93" s="3"/>
@@ -10556,16 +10564,16 @@
       <c r="CJ93" s="6"/>
     </row>
     <row r="94" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="36"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
       <c r="D94" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="33"/>
+      <c r="F94" s="41"/>
       <c r="G94" s="15"/>
       <c r="H94" s="11"/>
       <c r="I94" s="3"/>
@@ -10650,16 +10658,16 @@
       <c r="CJ94" s="6"/>
     </row>
     <row r="95" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A95" s="36"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="29" t="s">
+      <c r="A95" s="31"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="32" t="s">
+      <c r="D95" s="25"/>
+      <c r="E95" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="33"/>
+      <c r="F95" s="41"/>
       <c r="G95" s="15"/>
       <c r="H95" s="11"/>
       <c r="I95" s="3"/>
@@ -10744,14 +10752,14 @@
       <c r="CJ95" s="6"/>
     </row>
     <row r="96" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A96" s="36"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="22" t="s">
+      <c r="A96" s="31"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="23"/>
+      <c r="F96" s="51"/>
       <c r="G96" s="15"/>
       <c r="H96" s="11"/>
       <c r="I96" s="3"/>
@@ -10836,14 +10844,14 @@
       <c r="CJ96" s="6"/>
     </row>
     <row r="97" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A97" s="36"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="22" t="s">
+      <c r="A97" s="31"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="23"/>
+      <c r="F97" s="51"/>
       <c r="G97" s="15"/>
       <c r="H97" s="11"/>
       <c r="I97" s="3"/>
@@ -10928,14 +10936,14 @@
       <c r="CJ97" s="6"/>
     </row>
     <row r="98" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="36"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="32" t="s">
+      <c r="A98" s="31"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="33"/>
+      <c r="F98" s="41"/>
       <c r="G98" s="15"/>
       <c r="H98" s="11"/>
       <c r="I98" s="3"/>
@@ -11020,20 +11028,20 @@
       <c r="CJ98" s="6"/>
     </row>
     <row r="99" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A99" s="36"/>
-      <c r="B99" s="58" t="s">
+      <c r="A99" s="31"/>
+      <c r="B99" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="56" t="s">
+      <c r="D99" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="32" t="s">
+      <c r="E99" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="33"/>
+      <c r="F99" s="41"/>
       <c r="G99" s="15"/>
       <c r="H99" s="11"/>
       <c r="I99" s="3"/>
@@ -11118,14 +11126,14 @@
       <c r="CJ99" s="6"/>
     </row>
     <row r="100" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A100" s="36"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="32" t="s">
+      <c r="A100" s="31"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="33"/>
+      <c r="F100" s="41"/>
       <c r="G100" s="15"/>
       <c r="H100" s="11"/>
       <c r="I100" s="3"/>
@@ -11210,14 +11218,14 @@
       <c r="CJ100" s="6"/>
     </row>
     <row r="101" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="36"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="22" t="s">
+      <c r="A101" s="31"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="23"/>
+      <c r="F101" s="51"/>
       <c r="G101" s="15"/>
       <c r="H101" s="11"/>
       <c r="I101" s="3"/>
@@ -11302,16 +11310,16 @@
       <c r="CJ101" s="6"/>
     </row>
     <row r="102" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A102" s="36"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="29" t="s">
+      <c r="A102" s="31"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="22" t="s">
+      <c r="D102" s="25"/>
+      <c r="E102" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="23"/>
+      <c r="F102" s="51"/>
       <c r="G102" s="15"/>
       <c r="H102" s="11"/>
       <c r="I102" s="3"/>
@@ -11396,14 +11404,14 @@
       <c r="CJ102" s="6"/>
     </row>
     <row r="103" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="36"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="22" t="s">
+      <c r="A103" s="31"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="23"/>
+      <c r="F103" s="51"/>
       <c r="G103" s="15"/>
       <c r="H103" s="11"/>
       <c r="I103" s="3"/>
@@ -11488,16 +11496,16 @@
       <c r="CJ103" s="6"/>
     </row>
     <row r="104" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A104" s="36"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="56" t="s">
+      <c r="A104" s="31"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="32" t="s">
+      <c r="D104" s="25"/>
+      <c r="E104" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="33"/>
+      <c r="F104" s="41"/>
       <c r="G104" s="15"/>
       <c r="H104" s="11"/>
       <c r="I104" s="3"/>
@@ -11582,14 +11590,14 @@
       <c r="CJ104" s="6"/>
     </row>
     <row r="105" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="36"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="57"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="32" t="s">
+      <c r="A105" s="31"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="33"/>
+      <c r="F105" s="41"/>
       <c r="G105" s="15"/>
       <c r="H105" s="11"/>
       <c r="I105" s="3"/>
@@ -11674,16 +11682,16 @@
       <c r="CJ105" s="6"/>
     </row>
     <row r="106" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="36"/>
-      <c r="B106" s="38"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="20"/>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="23"/>
+      <c r="F106" s="51"/>
       <c r="G106" s="15"/>
       <c r="H106" s="11"/>
       <c r="I106" s="3"/>
@@ -11768,16 +11776,16 @@
       <c r="CJ106" s="6"/>
     </row>
     <row r="107" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="52"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="20"/>
-      <c r="E107" s="24" t="s">
+      <c r="E107" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="25"/>
+      <c r="F107" s="53"/>
       <c r="G107" s="17"/>
       <c r="H107" s="13"/>
       <c r="I107" s="8"/>
@@ -11863,6 +11871,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:AO1"/>
+    <mergeCell ref="BU1:CJ1"/>
+    <mergeCell ref="AP1:BT1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="C64:C88"/>
     <mergeCell ref="D64:D75"/>
@@ -11887,136 +12025,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A64:A107"/>
     <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B99:B107"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:AO1"/>
-    <mergeCell ref="BU1:CJ1"/>
-    <mergeCell ref="AP1:BT1"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="4">
@@ -843,6 +843,13 @@
     <t>ジャンプ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>倒れ</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1316,13 +1323,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1334,6 +1353,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,38 +1377,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1394,40 +1413,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,8 +1719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67:F67"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69:F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1734,124 +1741,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
       <c r="G1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="37" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="37" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
-      <c r="BN1" s="38"/>
-      <c r="BO1" s="38"/>
-      <c r="BP1" s="38"/>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
-      <c r="BS1" s="38"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="37" t="s">
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="44"/>
+      <c r="BR1" s="44"/>
+      <c r="BS1" s="44"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="38"/>
-      <c r="BW1" s="38"/>
-      <c r="BX1" s="38"/>
-      <c r="BY1" s="38"/>
-      <c r="BZ1" s="38"/>
-      <c r="CA1" s="38"/>
-      <c r="CB1" s="38"/>
-      <c r="CC1" s="38"/>
-      <c r="CD1" s="38"/>
-      <c r="CE1" s="38"/>
-      <c r="CF1" s="38"/>
-      <c r="CG1" s="38"/>
-      <c r="CH1" s="38"/>
-      <c r="CI1" s="38"/>
-      <c r="CJ1" s="39"/>
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="44"/>
+      <c r="BX1" s="44"/>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="44"/>
+      <c r="CA1" s="44"/>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="44"/>
+      <c r="CD1" s="44"/>
+      <c r="CE1" s="44"/>
+      <c r="CF1" s="44"/>
+      <c r="CG1" s="44"/>
+      <c r="CH1" s="44"/>
+      <c r="CI1" s="44"/>
+      <c r="CJ1" s="45"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="14"/>
       <c r="H2" s="10">
         <v>44862</v>
@@ -2098,14 +2105,14 @@
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="50" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="15"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
@@ -2190,14 +2197,14 @@
       <c r="CJ3" s="6"/>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="50" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="15"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
@@ -2282,14 +2289,14 @@
       <c r="CJ4" s="6"/>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="50" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="15"/>
       <c r="H5" s="11"/>
       <c r="I5" s="3"/>
@@ -2374,14 +2381,14 @@
       <c r="CJ5" s="6"/>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A6" s="31"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="50" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="15"/>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
@@ -2466,14 +2473,14 @@
       <c r="CJ6" s="6"/>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="50" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="15"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
@@ -2558,14 +2565,14 @@
       <c r="CJ7" s="6"/>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="50" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="15"/>
       <c r="H8" s="11"/>
       <c r="I8" s="3"/>
@@ -2650,14 +2657,14 @@
       <c r="CJ8" s="6"/>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="50" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="3"/>
@@ -2742,14 +2749,14 @@
       <c r="CJ9" s="6"/>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A10" s="31"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="50" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
@@ -2834,14 +2841,14 @@
       <c r="CJ10" s="6"/>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="50" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="3"/>
@@ -2926,14 +2933,14 @@
       <c r="CJ11" s="6"/>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="50" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="51"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11"/>
       <c r="I12" s="3"/>
@@ -3018,14 +3025,14 @@
       <c r="CJ12" s="6"/>
     </row>
     <row r="13" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="31"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="52" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11"/>
       <c r="I13" s="3"/>
@@ -3110,16 +3117,16 @@
       <c r="CJ13" s="6"/>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A14" s="31"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="22" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="15"/>
       <c r="H14" s="11"/>
       <c r="I14" s="3"/>
@@ -3204,14 +3211,14 @@
       <c r="CJ14" s="6"/>
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="40" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11"/>
       <c r="I15" s="3"/>
@@ -3296,14 +3303,14 @@
       <c r="CJ15" s="6"/>
     </row>
     <row r="16" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="31"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="42" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="16"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
@@ -3388,16 +3395,16 @@
       <c r="CJ16" s="7"/>
     </row>
     <row r="17" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="16"/>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
@@ -3482,16 +3489,16 @@
       <c r="CJ17" s="7"/>
     </row>
     <row r="18" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="31"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="49"/>
       <c r="G18" s="16"/>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
@@ -3576,18 +3583,18 @@
       <c r="CJ18" s="7"/>
     </row>
     <row r="19" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="37" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="51"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="3"/>
@@ -3672,16 +3679,16 @@
       <c r="CJ19" s="6"/>
     </row>
     <row r="20" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="31"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="15"/>
       <c r="H20" s="11"/>
       <c r="I20" s="3"/>
@@ -3766,16 +3773,16 @@
       <c r="CJ20" s="6"/>
     </row>
     <row r="21" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="31"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="33"/>
       <c r="G21" s="15"/>
       <c r="H21" s="11"/>
       <c r="I21" s="3"/>
@@ -3860,16 +3867,16 @@
       <c r="CJ21" s="6"/>
     </row>
     <row r="22" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="31"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="15"/>
       <c r="H22" s="11"/>
       <c r="I22" s="3"/>
@@ -3954,16 +3961,16 @@
       <c r="CJ22" s="6"/>
     </row>
     <row r="23" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="15"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3"/>
@@ -4048,16 +4055,16 @@
       <c r="CJ23" s="6"/>
     </row>
     <row r="24" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="31"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
       <c r="D24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="33"/>
       <c r="G24" s="15"/>
       <c r="H24" s="11"/>
       <c r="I24" s="3"/>
@@ -4142,16 +4149,16 @@
       <c r="CJ24" s="6"/>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A25" s="31"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="15"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3"/>
@@ -4236,14 +4243,14 @@
       <c r="CJ25" s="6"/>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A26" s="31"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="50" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="15"/>
       <c r="H26" s="11"/>
       <c r="I26" s="3"/>
@@ -4328,14 +4335,14 @@
       <c r="CJ26" s="6"/>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A27" s="31"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="50" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="51"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="15"/>
       <c r="H27" s="11"/>
       <c r="I27" s="3"/>
@@ -4420,14 +4427,14 @@
       <c r="CJ27" s="6"/>
     </row>
     <row r="28" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="31"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="40" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="15"/>
       <c r="H28" s="11"/>
       <c r="I28" s="3"/>
@@ -4512,16 +4519,16 @@
       <c r="CJ28" s="6"/>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A29" s="31"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="28" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="40" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="33"/>
       <c r="G29" s="15"/>
       <c r="H29" s="11"/>
       <c r="I29" s="3"/>
@@ -4606,14 +4613,14 @@
       <c r="CJ29" s="6"/>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A30" s="31"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="40" t="s">
+      <c r="A30" s="36"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="33"/>
       <c r="G30" s="15"/>
       <c r="H30" s="11"/>
       <c r="I30" s="3"/>
@@ -4698,14 +4705,14 @@
       <c r="CJ30" s="6"/>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A31" s="31"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="40" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="33"/>
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="I31" s="3"/>
@@ -4790,14 +4797,14 @@
       <c r="CJ31" s="6"/>
     </row>
     <row r="32" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="31"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="40" t="s">
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="33"/>
       <c r="G32" s="15"/>
       <c r="H32" s="11"/>
       <c r="I32" s="3"/>
@@ -4882,16 +4889,16 @@
       <c r="CJ32" s="6"/>
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A33" s="31"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="40" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="15"/>
       <c r="H33" s="11"/>
       <c r="I33" s="3"/>
@@ -4976,14 +4983,14 @@
       <c r="CJ33" s="6"/>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A34" s="31"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="40" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="15"/>
       <c r="H34" s="11"/>
       <c r="I34" s="3"/>
@@ -5068,14 +5075,14 @@
       <c r="CJ34" s="6"/>
     </row>
     <row r="35" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="40" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="15"/>
       <c r="H35" s="11"/>
       <c r="I35" s="3"/>
@@ -5160,16 +5167,16 @@
       <c r="CJ35" s="6"/>
     </row>
     <row r="36" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="31"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="40" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="15"/>
       <c r="H36" s="11"/>
       <c r="I36" s="3"/>
@@ -5254,16 +5261,16 @@
       <c r="CJ36" s="6"/>
     </row>
     <row r="37" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="31"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="40" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="15"/>
       <c r="H37" s="11"/>
       <c r="I37" s="3"/>
@@ -5348,20 +5355,20 @@
       <c r="CJ37" s="6"/>
     </row>
     <row r="38" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="37" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="F38" s="35"/>
       <c r="G38" s="15"/>
       <c r="H38" s="11"/>
       <c r="I38" s="3"/>
@@ -5446,18 +5453,18 @@
       <c r="CJ38" s="6"/>
     </row>
     <row r="39" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="31"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="29" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="51"/>
+      <c r="F39" s="23"/>
       <c r="G39" s="15"/>
       <c r="H39" s="11"/>
       <c r="I39" s="3"/>
@@ -5542,16 +5549,16 @@
       <c r="CJ39" s="6"/>
     </row>
     <row r="40" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="31"/>
       <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="15"/>
       <c r="H40" s="11"/>
       <c r="I40" s="3"/>
@@ -5636,20 +5643,20 @@
       <c r="CJ40" s="6"/>
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A41" s="31"/>
-      <c r="B41" s="28" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="35"/>
       <c r="G41" s="15"/>
       <c r="H41" s="11"/>
       <c r="I41" s="3"/>
@@ -5734,14 +5741,14 @@
       <c r="CJ41" s="6"/>
     </row>
     <row r="42" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A42" s="31"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="56" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="15"/>
       <c r="H42" s="11"/>
       <c r="I42" s="3"/>
@@ -5826,14 +5833,14 @@
       <c r="CJ42" s="6"/>
     </row>
     <row r="43" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="31"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="56" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="15"/>
       <c r="H43" s="11"/>
       <c r="I43" s="3"/>
@@ -5918,16 +5925,16 @@
       <c r="CJ43" s="6"/>
     </row>
     <row r="44" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A44" s="31"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="25" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="51"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="15"/>
       <c r="H44" s="11"/>
       <c r="I44" s="3"/>
@@ -6012,14 +6019,14 @@
       <c r="CJ44" s="6"/>
     </row>
     <row r="45" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A45" s="31"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="50" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="51"/>
+      <c r="F45" s="23"/>
       <c r="G45" s="15"/>
       <c r="H45" s="11"/>
       <c r="I45" s="3"/>
@@ -6104,14 +6111,14 @@
       <c r="CJ45" s="6"/>
     </row>
     <row r="46" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A46" s="31"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="50" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="51"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="15"/>
       <c r="H46" s="11"/>
       <c r="I46" s="3"/>
@@ -6196,14 +6203,14 @@
       <c r="CJ46" s="6"/>
     </row>
     <row r="47" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="31"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="50" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="51"/>
+      <c r="F47" s="23"/>
       <c r="G47" s="15"/>
       <c r="H47" s="11"/>
       <c r="I47" s="3"/>
@@ -6288,16 +6295,16 @@
       <c r="CJ47" s="6"/>
     </row>
     <row r="48" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="31"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="30"/>
       <c r="D48" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="15"/>
       <c r="H48" s="11"/>
       <c r="I48" s="3"/>
@@ -6382,16 +6389,16 @@
       <c r="CJ48" s="6"/>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A49" s="31"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="15"/>
       <c r="H49" s="11"/>
       <c r="I49" s="3"/>
@@ -6476,14 +6483,14 @@
       <c r="CJ49" s="6"/>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A50" s="31"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="50" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="51"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="15"/>
       <c r="H50" s="11"/>
       <c r="I50" s="3"/>
@@ -6568,14 +6575,14 @@
       <c r="CJ50" s="6"/>
     </row>
     <row r="51" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="31"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="50" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="51"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="15"/>
       <c r="H51" s="11"/>
       <c r="I51" s="3"/>
@@ -6660,18 +6667,18 @@
       <c r="CJ51" s="6"/>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A52" s="31"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="51"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="15"/>
       <c r="H52" s="11"/>
       <c r="I52" s="3"/>
@@ -6756,14 +6763,14 @@
       <c r="CJ52" s="6"/>
     </row>
     <row r="53" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="31"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="50" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="51"/>
+      <c r="F53" s="23"/>
       <c r="G53" s="15"/>
       <c r="H53" s="11"/>
       <c r="I53" s="3"/>
@@ -6848,16 +6855,16 @@
       <c r="CJ53" s="6"/>
     </row>
     <row r="54" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="31"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="30"/>
       <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="51"/>
+      <c r="F54" s="23"/>
       <c r="G54" s="15"/>
       <c r="H54" s="11"/>
       <c r="I54" s="3"/>
@@ -6942,16 +6949,16 @@
       <c r="CJ54" s="6"/>
     </row>
     <row r="55" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="31"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="30"/>
       <c r="D55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="51"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="15"/>
       <c r="H55" s="11"/>
       <c r="I55" s="3"/>
@@ -7036,16 +7043,16 @@
       <c r="CJ55" s="6"/>
     </row>
     <row r="56" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="31"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="30"/>
       <c r="D56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="51"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="3"/>
@@ -7130,16 +7137,16 @@
       <c r="CJ56" s="6"/>
     </row>
     <row r="57" spans="1:88" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="51"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="15"/>
       <c r="H57" s="11"/>
       <c r="I57" s="3"/>
@@ -7224,18 +7231,18 @@
       <c r="CJ57" s="6"/>
     </row>
     <row r="58" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="31"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="25" t="s">
+      <c r="A58" s="36"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="51"/>
+      <c r="F58" s="23"/>
       <c r="G58" s="15"/>
       <c r="H58" s="11"/>
       <c r="I58" s="3"/>
@@ -7320,16 +7327,16 @@
       <c r="CJ58" s="6"/>
     </row>
     <row r="59" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="31"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="51"/>
+      <c r="F59" s="23"/>
       <c r="G59" s="15"/>
       <c r="H59" s="11"/>
       <c r="I59" s="3"/>
@@ -7414,16 +7421,16 @@
       <c r="CJ59" s="6"/>
     </row>
     <row r="60" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="31"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="30"/>
       <c r="D60" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="51"/>
+      <c r="F60" s="23"/>
       <c r="G60" s="15"/>
       <c r="H60" s="11"/>
       <c r="I60" s="3"/>
@@ -7508,16 +7515,16 @@
       <c r="CJ60" s="6"/>
     </row>
     <row r="61" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="31"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="31"/>
       <c r="D61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="51"/>
+      <c r="F61" s="23"/>
       <c r="G61" s="15"/>
       <c r="H61" s="11"/>
       <c r="I61" s="3"/>
@@ -7602,16 +7609,16 @@
       <c r="CJ61" s="6"/>
     </row>
     <row r="62" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="31"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="20"/>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="51"/>
+      <c r="F62" s="23"/>
       <c r="G62" s="15"/>
       <c r="H62" s="11"/>
       <c r="I62" s="3"/>
@@ -7696,16 +7703,16 @@
       <c r="CJ62" s="6"/>
     </row>
     <row r="63" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="31"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="51"/>
+      <c r="F63" s="23"/>
       <c r="G63" s="15"/>
       <c r="H63" s="11"/>
       <c r="I63" s="3"/>
@@ -7790,22 +7797,22 @@
       <c r="CJ63" s="6"/>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="51"/>
+      <c r="F64" s="23"/>
       <c r="G64" s="15"/>
       <c r="H64" s="11"/>
       <c r="I64" s="3"/>
@@ -7890,14 +7897,14 @@
       <c r="CJ64" s="6"/>
     </row>
     <row r="65" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A65" s="31"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="50" t="s">
+      <c r="A65" s="36"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="51"/>
+      <c r="F65" s="23"/>
       <c r="G65" s="15"/>
       <c r="H65" s="11"/>
       <c r="I65" s="3"/>
@@ -7982,14 +7989,14 @@
       <c r="CJ65" s="6"/>
     </row>
     <row r="66" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A66" s="31"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="50" t="s">
+      <c r="A66" s="36"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="51"/>
+      <c r="F66" s="23"/>
       <c r="G66" s="15"/>
       <c r="H66" s="11"/>
       <c r="I66" s="3"/>
@@ -8074,14 +8081,14 @@
       <c r="CJ66" s="6"/>
     </row>
     <row r="67" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A67" s="31"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="50" t="s">
+      <c r="A67" s="36"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="51"/>
+      <c r="F67" s="23"/>
       <c r="G67" s="15"/>
       <c r="H67" s="11"/>
       <c r="I67" s="3"/>
@@ -8166,14 +8173,14 @@
       <c r="CJ67" s="6"/>
     </row>
     <row r="68" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A68" s="31"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="50" t="s">
+      <c r="A68" s="36"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="51"/>
+      <c r="F68" s="23"/>
       <c r="G68" s="15"/>
       <c r="H68" s="11"/>
       <c r="I68" s="3"/>
@@ -8258,14 +8265,14 @@
       <c r="CJ68" s="6"/>
     </row>
     <row r="69" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A69" s="31"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="51"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" s="23"/>
       <c r="G69" s="15"/>
       <c r="H69" s="11"/>
       <c r="I69" s="3"/>
@@ -8350,14 +8357,14 @@
       <c r="CJ69" s="6"/>
     </row>
     <row r="70" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A70" s="31"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="50" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="51"/>
+      <c r="F70" s="23"/>
       <c r="G70" s="15"/>
       <c r="H70" s="11"/>
       <c r="I70" s="3"/>
@@ -8442,14 +8449,14 @@
       <c r="CJ70" s="6"/>
     </row>
     <row r="71" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A71" s="31"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="50" t="s">
+      <c r="A71" s="36"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="51"/>
+      <c r="F71" s="23"/>
       <c r="G71" s="15"/>
       <c r="H71" s="11"/>
       <c r="I71" s="3"/>
@@ -8534,14 +8541,14 @@
       <c r="CJ71" s="6"/>
     </row>
     <row r="72" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A72" s="31"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="50" t="s">
+      <c r="A72" s="36"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="51"/>
+      <c r="F72" s="23"/>
       <c r="G72" s="15"/>
       <c r="H72" s="11"/>
       <c r="I72" s="3"/>
@@ -8626,14 +8633,14 @@
       <c r="CJ72" s="6"/>
     </row>
     <row r="73" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A73" s="31"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="50" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="51"/>
+      <c r="F73" s="23"/>
       <c r="G73" s="15"/>
       <c r="H73" s="11"/>
       <c r="I73" s="3"/>
@@ -8718,14 +8725,14 @@
       <c r="CJ73" s="6"/>
     </row>
     <row r="74" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A74" s="31"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="50" t="s">
+      <c r="A74" s="36"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="51"/>
+      <c r="F74" s="23"/>
       <c r="G74" s="15"/>
       <c r="H74" s="11"/>
       <c r="I74" s="3"/>
@@ -8810,14 +8817,14 @@
       <c r="CJ74" s="6"/>
     </row>
     <row r="75" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="31"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="50" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="51"/>
+      <c r="F75" s="23"/>
       <c r="G75" s="15"/>
       <c r="H75" s="11"/>
       <c r="I75" s="3"/>
@@ -8902,16 +8909,16 @@
       <c r="CJ75" s="6"/>
     </row>
     <row r="76" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A76" s="31"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="25" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="51"/>
+      <c r="F76" s="23"/>
       <c r="G76" s="15"/>
       <c r="H76" s="11"/>
       <c r="I76" s="3"/>
@@ -8996,14 +9003,14 @@
       <c r="CJ76" s="6"/>
     </row>
     <row r="77" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A77" s="31"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="50" t="s">
+      <c r="A77" s="36"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="51"/>
+      <c r="F77" s="23"/>
       <c r="G77" s="15"/>
       <c r="H77" s="11"/>
       <c r="I77" s="3"/>
@@ -9088,14 +9095,14 @@
       <c r="CJ77" s="6"/>
     </row>
     <row r="78" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A78" s="31"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="50" t="s">
+      <c r="A78" s="36"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="51"/>
+      <c r="F78" s="23"/>
       <c r="G78" s="15"/>
       <c r="H78" s="11"/>
       <c r="I78" s="3"/>
@@ -9180,14 +9187,14 @@
       <c r="CJ78" s="6"/>
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A79" s="31"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="50" t="s">
+      <c r="A79" s="36"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="51"/>
+      <c r="F79" s="23"/>
       <c r="G79" s="15"/>
       <c r="H79" s="11"/>
       <c r="I79" s="3"/>
@@ -9272,14 +9279,14 @@
       <c r="CJ79" s="6"/>
     </row>
     <row r="80" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A80" s="31"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="50" t="s">
+      <c r="A80" s="36"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="51"/>
+      <c r="F80" s="23"/>
       <c r="G80" s="15"/>
       <c r="H80" s="11"/>
       <c r="I80" s="3"/>
@@ -9364,14 +9371,14 @@
       <c r="CJ80" s="6"/>
     </row>
     <row r="81" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A81" s="31"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="50" t="s">
+      <c r="A81" s="36"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="51"/>
+      <c r="F81" s="23"/>
       <c r="G81" s="15"/>
       <c r="H81" s="11"/>
       <c r="I81" s="3"/>
@@ -9456,14 +9463,14 @@
       <c r="CJ81" s="6"/>
     </row>
     <row r="82" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="31"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="50" t="s">
+      <c r="A82" s="36"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="51"/>
+      <c r="F82" s="23"/>
       <c r="G82" s="15"/>
       <c r="H82" s="11"/>
       <c r="I82" s="3"/>
@@ -9548,16 +9555,16 @@
       <c r="CJ82" s="6"/>
     </row>
     <row r="83" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A83" s="31"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="25" t="s">
+      <c r="A83" s="36"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="50" t="s">
+      <c r="E83" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="51"/>
+      <c r="F83" s="23"/>
       <c r="G83" s="15"/>
       <c r="H83" s="11"/>
       <c r="I83" s="3"/>
@@ -9642,14 +9649,14 @@
       <c r="CJ83" s="6"/>
     </row>
     <row r="84" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A84" s="31"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="50" t="s">
+      <c r="A84" s="36"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="51"/>
+      <c r="F84" s="23"/>
       <c r="G84" s="15"/>
       <c r="H84" s="11"/>
       <c r="I84" s="3"/>
@@ -9734,14 +9741,14 @@
       <c r="CJ84" s="6"/>
     </row>
     <row r="85" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A85" s="31"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="50" t="s">
+      <c r="A85" s="36"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="51"/>
+      <c r="F85" s="23"/>
       <c r="G85" s="15"/>
       <c r="H85" s="11"/>
       <c r="I85" s="3"/>
@@ -9826,14 +9833,14 @@
       <c r="CJ85" s="6"/>
     </row>
     <row r="86" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A86" s="31"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="50" t="s">
+      <c r="A86" s="36"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="51"/>
+      <c r="F86" s="23"/>
       <c r="G86" s="15"/>
       <c r="H86" s="11"/>
       <c r="I86" s="3"/>
@@ -9918,14 +9925,14 @@
       <c r="CJ86" s="6"/>
     </row>
     <row r="87" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A87" s="31"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="50" t="s">
+      <c r="A87" s="36"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="51"/>
+      <c r="F87" s="23"/>
       <c r="G87" s="15"/>
       <c r="H87" s="11"/>
       <c r="I87" s="3"/>
@@ -10010,14 +10017,14 @@
       <c r="CJ87" s="6"/>
     </row>
     <row r="88" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="31"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="50" t="s">
+      <c r="A88" s="36"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="51"/>
+      <c r="F88" s="23"/>
       <c r="G88" s="15"/>
       <c r="H88" s="11"/>
       <c r="I88" s="3"/>
@@ -10102,16 +10109,16 @@
       <c r="CJ88" s="6"/>
     </row>
     <row r="89" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A89" s="31"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="36"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="40" t="s">
+      <c r="D89" s="29"/>
+      <c r="E89" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="41"/>
+      <c r="F89" s="33"/>
       <c r="G89" s="15"/>
       <c r="H89" s="11"/>
       <c r="I89" s="3"/>
@@ -10196,14 +10203,14 @@
       <c r="CJ89" s="6"/>
     </row>
     <row r="90" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A90" s="31"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="40" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="41"/>
+      <c r="F90" s="33"/>
       <c r="G90" s="15"/>
       <c r="H90" s="11"/>
       <c r="I90" s="3"/>
@@ -10288,14 +10295,14 @@
       <c r="CJ90" s="6"/>
     </row>
     <row r="91" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A91" s="31"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="40" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="41"/>
+      <c r="F91" s="33"/>
       <c r="G91" s="15"/>
       <c r="H91" s="11"/>
       <c r="I91" s="3"/>
@@ -10380,14 +10387,14 @@
       <c r="CJ91" s="6"/>
     </row>
     <row r="92" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A92" s="31"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="40" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="41"/>
+      <c r="F92" s="33"/>
       <c r="G92" s="15"/>
       <c r="H92" s="11"/>
       <c r="I92" s="3"/>
@@ -10472,14 +10479,14 @@
       <c r="CJ92" s="6"/>
     </row>
     <row r="93" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="31"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="40" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="41"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="15"/>
       <c r="H93" s="11"/>
       <c r="I93" s="3"/>
@@ -10564,16 +10571,16 @@
       <c r="CJ93" s="6"/>
     </row>
     <row r="94" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="31"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="40" t="s">
+      <c r="E94" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="41"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="15"/>
       <c r="H94" s="11"/>
       <c r="I94" s="3"/>
@@ -10658,16 +10665,16 @@
       <c r="CJ94" s="6"/>
     </row>
     <row r="95" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A95" s="31"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="25" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="40" t="s">
+      <c r="D95" s="29"/>
+      <c r="E95" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="41"/>
+      <c r="F95" s="33"/>
       <c r="G95" s="15"/>
       <c r="H95" s="11"/>
       <c r="I95" s="3"/>
@@ -10752,14 +10759,14 @@
       <c r="CJ95" s="6"/>
     </row>
     <row r="96" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A96" s="31"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="50" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="51"/>
+      <c r="F96" s="23"/>
       <c r="G96" s="15"/>
       <c r="H96" s="11"/>
       <c r="I96" s="3"/>
@@ -10844,14 +10851,14 @@
       <c r="CJ96" s="6"/>
     </row>
     <row r="97" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A97" s="31"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="50" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="51"/>
+      <c r="F97" s="23"/>
       <c r="G97" s="15"/>
       <c r="H97" s="11"/>
       <c r="I97" s="3"/>
@@ -10936,14 +10943,14 @@
       <c r="CJ97" s="6"/>
     </row>
     <row r="98" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="31"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="40" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="41"/>
+      <c r="F98" s="33"/>
       <c r="G98" s="15"/>
       <c r="H98" s="11"/>
       <c r="I98" s="3"/>
@@ -11028,20 +11035,20 @@
       <c r="CJ98" s="6"/>
     </row>
     <row r="99" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A99" s="31"/>
-      <c r="B99" s="35" t="s">
+      <c r="A99" s="36"/>
+      <c r="B99" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D99" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="41"/>
+      <c r="F99" s="33"/>
       <c r="G99" s="15"/>
       <c r="H99" s="11"/>
       <c r="I99" s="3"/>
@@ -11126,14 +11133,14 @@
       <c r="CJ99" s="6"/>
     </row>
     <row r="100" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A100" s="31"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="40" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" s="38"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="41"/>
+      <c r="F100" s="33"/>
       <c r="G100" s="15"/>
       <c r="H100" s="11"/>
       <c r="I100" s="3"/>
@@ -11218,14 +11225,14 @@
       <c r="CJ100" s="6"/>
     </row>
     <row r="101" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="31"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="50" t="s">
+      <c r="A101" s="36"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="51"/>
+      <c r="F101" s="23"/>
       <c r="G101" s="15"/>
       <c r="H101" s="11"/>
       <c r="I101" s="3"/>
@@ -11310,16 +11317,16 @@
       <c r="CJ101" s="6"/>
     </row>
     <row r="102" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A102" s="31"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="25" t="s">
+      <c r="A102" s="36"/>
+      <c r="B102" s="38"/>
+      <c r="C102" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="50" t="s">
+      <c r="D102" s="29"/>
+      <c r="E102" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="51"/>
+      <c r="F102" s="23"/>
       <c r="G102" s="15"/>
       <c r="H102" s="11"/>
       <c r="I102" s="3"/>
@@ -11404,14 +11411,14 @@
       <c r="CJ102" s="6"/>
     </row>
     <row r="103" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="31"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="50" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" s="38"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="51"/>
+      <c r="F103" s="23"/>
       <c r="G103" s="15"/>
       <c r="H103" s="11"/>
       <c r="I103" s="3"/>
@@ -11496,16 +11503,16 @@
       <c r="CJ103" s="6"/>
     </row>
     <row r="104" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A104" s="31"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="33" t="s">
+      <c r="A104" s="36"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="40" t="s">
+      <c r="D104" s="29"/>
+      <c r="E104" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="41"/>
+      <c r="F104" s="33"/>
       <c r="G104" s="15"/>
       <c r="H104" s="11"/>
       <c r="I104" s="3"/>
@@ -11590,14 +11597,14 @@
       <c r="CJ104" s="6"/>
     </row>
     <row r="105" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="31"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="40" t="s">
+      <c r="A105" s="36"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="41"/>
+      <c r="F105" s="33"/>
       <c r="G105" s="15"/>
       <c r="H105" s="11"/>
       <c r="I105" s="3"/>
@@ -11682,16 +11689,16 @@
       <c r="CJ105" s="6"/>
     </row>
     <row r="106" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="31"/>
-      <c r="B106" s="29"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="38"/>
       <c r="C106" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="20"/>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="51"/>
+      <c r="F106" s="23"/>
       <c r="G106" s="15"/>
       <c r="H106" s="11"/>
       <c r="I106" s="3"/>
@@ -11776,16 +11783,16 @@
       <c r="CJ106" s="6"/>
     </row>
     <row r="107" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="32"/>
-      <c r="B107" s="30"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="20"/>
-      <c r="E107" s="52" t="s">
+      <c r="E107" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="53"/>
+      <c r="F107" s="25"/>
       <c r="G107" s="17"/>
       <c r="H107" s="13"/>
       <c r="I107" s="8"/>
@@ -11871,6 +11878,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C64:C88"/>
+    <mergeCell ref="D64:D75"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A38:A63"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B63"/>
+    <mergeCell ref="B64:B98"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A64:A107"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:AO1"/>
+    <mergeCell ref="BU1:CJ1"/>
+    <mergeCell ref="AP1:BT1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
     <mergeCell ref="E106:F106"/>
     <mergeCell ref="E107:F107"/>
     <mergeCell ref="A1:F1"/>
@@ -11895,136 +12032,6 @@
     <mergeCell ref="E95:F95"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:AO1"/>
-    <mergeCell ref="BU1:CJ1"/>
-    <mergeCell ref="AP1:BT1"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B99:B107"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C64:C88"/>
-    <mergeCell ref="D64:D75"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="C2:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A38:A63"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B63"/>
-    <mergeCell ref="B64:B98"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A64:A107"/>
-    <mergeCell ref="C58:C61"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -883,12 +883,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="26">
@@ -1256,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,25 +1329,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1353,21 +1347,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1377,23 +1356,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1413,29 +1407,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1719,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69:F69"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1741,124 +1750,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="26" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="26" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-      <c r="AX1" s="44"/>
-      <c r="AY1" s="44"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
-      <c r="BF1" s="44"/>
-      <c r="BG1" s="44"/>
-      <c r="BH1" s="44"/>
-      <c r="BI1" s="44"/>
-      <c r="BJ1" s="44"/>
-      <c r="BK1" s="44"/>
-      <c r="BL1" s="44"/>
-      <c r="BM1" s="44"/>
-      <c r="BN1" s="44"/>
-      <c r="BO1" s="44"/>
-      <c r="BP1" s="44"/>
-      <c r="BQ1" s="44"/>
-      <c r="BR1" s="44"/>
-      <c r="BS1" s="44"/>
-      <c r="BT1" s="45"/>
-      <c r="BU1" s="26" t="s">
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38"/>
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="38"/>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38"/>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38"/>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38"/>
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="38"/>
+      <c r="BO1" s="38"/>
+      <c r="BP1" s="38"/>
+      <c r="BQ1" s="38"/>
+      <c r="BR1" s="38"/>
+      <c r="BS1" s="38"/>
+      <c r="BT1" s="39"/>
+      <c r="BU1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="44"/>
-      <c r="BW1" s="44"/>
-      <c r="BX1" s="44"/>
-      <c r="BY1" s="44"/>
-      <c r="BZ1" s="44"/>
-      <c r="CA1" s="44"/>
-      <c r="CB1" s="44"/>
-      <c r="CC1" s="44"/>
-      <c r="CD1" s="44"/>
-      <c r="CE1" s="44"/>
-      <c r="CF1" s="44"/>
-      <c r="CG1" s="44"/>
-      <c r="CH1" s="44"/>
-      <c r="CI1" s="44"/>
-      <c r="CJ1" s="45"/>
+      <c r="BV1" s="38"/>
+      <c r="BW1" s="38"/>
+      <c r="BX1" s="38"/>
+      <c r="BY1" s="38"/>
+      <c r="BZ1" s="38"/>
+      <c r="CA1" s="38"/>
+      <c r="CB1" s="38"/>
+      <c r="CC1" s="38"/>
+      <c r="CD1" s="38"/>
+      <c r="CE1" s="38"/>
+      <c r="CF1" s="38"/>
+      <c r="CG1" s="38"/>
+      <c r="CH1" s="38"/>
+      <c r="CI1" s="38"/>
+      <c r="CJ1" s="39"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="41"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="14"/>
       <c r="H2" s="10">
         <v>44862</v>
@@ -2105,14 +2114,14 @@
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A3" s="36"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="22" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="15"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
@@ -2197,14 +2206,14 @@
       <c r="CJ3" s="6"/>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A4" s="36"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="22" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="51"/>
       <c r="G4" s="15"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
@@ -2289,14 +2298,14 @@
       <c r="CJ4" s="6"/>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A5" s="36"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="22" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="15"/>
       <c r="H5" s="11"/>
       <c r="I5" s="3"/>
@@ -2381,14 +2390,14 @@
       <c r="CJ5" s="6"/>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="22" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="15"/>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
@@ -2473,14 +2482,14 @@
       <c r="CJ6" s="6"/>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="22" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="15"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
@@ -2565,14 +2574,14 @@
       <c r="CJ7" s="6"/>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A8" s="36"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="22" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="15"/>
       <c r="H8" s="11"/>
       <c r="I8" s="3"/>
@@ -2657,14 +2666,14 @@
       <c r="CJ8" s="6"/>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A9" s="36"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="22" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="3"/>
@@ -2749,14 +2758,14 @@
       <c r="CJ9" s="6"/>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A10" s="36"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="22" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
@@ -2841,14 +2850,14 @@
       <c r="CJ10" s="6"/>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A11" s="36"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="22" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="3"/>
@@ -2933,14 +2942,14 @@
       <c r="CJ11" s="6"/>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A12" s="36"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="22" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="51"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11"/>
       <c r="I12" s="3"/>
@@ -3025,14 +3034,14 @@
       <c r="CJ12" s="6"/>
     </row>
     <row r="13" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="36"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="24" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11"/>
       <c r="I13" s="3"/>
@@ -3117,16 +3126,16 @@
       <c r="CJ13" s="6"/>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A14" s="36"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="56" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="15"/>
       <c r="H14" s="11"/>
       <c r="I14" s="3"/>
@@ -3211,14 +3220,14 @@
       <c r="CJ14" s="6"/>
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A15" s="36"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="32" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="33"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11"/>
       <c r="I15" s="3"/>
@@ -3303,14 +3312,14 @@
       <c r="CJ15" s="6"/>
     </row>
     <row r="16" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="46" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="16"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
@@ -3395,16 +3404,16 @@
       <c r="CJ16" s="7"/>
     </row>
     <row r="17" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="36"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="16"/>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
@@ -3489,16 +3498,16 @@
       <c r="CJ17" s="7"/>
     </row>
     <row r="18" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="49"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="16"/>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
@@ -3583,18 +3592,18 @@
       <c r="CJ18" s="7"/>
     </row>
     <row r="19" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="37" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="51"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="3"/>
@@ -3679,16 +3688,16 @@
       <c r="CJ19" s="6"/>
     </row>
     <row r="20" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="36"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="15"/>
       <c r="H20" s="11"/>
       <c r="I20" s="3"/>
@@ -3773,16 +3782,16 @@
       <c r="CJ20" s="6"/>
     </row>
     <row r="21" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="36"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="33"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="15"/>
       <c r="H21" s="11"/>
       <c r="I21" s="3"/>
@@ -3867,16 +3876,16 @@
       <c r="CJ21" s="6"/>
     </row>
     <row r="22" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="36"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="33"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="15"/>
       <c r="H22" s="11"/>
       <c r="I22" s="3"/>
@@ -3961,16 +3970,16 @@
       <c r="CJ22" s="6"/>
     </row>
     <row r="23" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="36"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="33"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="15"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3"/>
@@ -4055,16 +4064,16 @@
       <c r="CJ23" s="6"/>
     </row>
     <row r="24" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="36"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="33"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="15"/>
       <c r="H24" s="11"/>
       <c r="I24" s="3"/>
@@ -4149,16 +4158,16 @@
       <c r="CJ24" s="6"/>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A25" s="36"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="32" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="33"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="15"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3"/>
@@ -4243,14 +4252,14 @@
       <c r="CJ25" s="6"/>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A26" s="36"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="22" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="23"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="15"/>
       <c r="H26" s="11"/>
       <c r="I26" s="3"/>
@@ -4335,14 +4344,14 @@
       <c r="CJ26" s="6"/>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A27" s="36"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="22" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="23"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="15"/>
       <c r="H27" s="11"/>
       <c r="I27" s="3"/>
@@ -4427,14 +4436,14 @@
       <c r="CJ27" s="6"/>
     </row>
     <row r="28" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="36"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="33"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="15"/>
       <c r="H28" s="11"/>
       <c r="I28" s="3"/>
@@ -4519,16 +4528,16 @@
       <c r="CJ28" s="6"/>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A29" s="36"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="37" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="32" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="33"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="15"/>
       <c r="H29" s="11"/>
       <c r="I29" s="3"/>
@@ -4613,14 +4622,14 @@
       <c r="CJ29" s="6"/>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A30" s="36"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="32" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="33"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="15"/>
       <c r="H30" s="11"/>
       <c r="I30" s="3"/>
@@ -4705,14 +4714,14 @@
       <c r="CJ30" s="6"/>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A31" s="36"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="32" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="I31" s="3"/>
@@ -4797,14 +4806,14 @@
       <c r="CJ31" s="6"/>
     </row>
     <row r="32" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="36"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="33"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="15"/>
       <c r="H32" s="11"/>
       <c r="I32" s="3"/>
@@ -4889,16 +4898,16 @@
       <c r="CJ32" s="6"/>
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="32" t="s">
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="33"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="15"/>
       <c r="H33" s="11"/>
       <c r="I33" s="3"/>
@@ -4983,14 +4992,14 @@
       <c r="CJ33" s="6"/>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A34" s="36"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="32" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="15"/>
       <c r="H34" s="11"/>
       <c r="I34" s="3"/>
@@ -5075,14 +5084,14 @@
       <c r="CJ34" s="6"/>
     </row>
     <row r="35" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="36"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="32" t="s">
+      <c r="A35" s="31"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="33"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="15"/>
       <c r="H35" s="11"/>
       <c r="I35" s="3"/>
@@ -5167,16 +5176,16 @@
       <c r="CJ35" s="6"/>
     </row>
     <row r="36" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="36"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="32" t="s">
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="33"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="15"/>
       <c r="H36" s="11"/>
       <c r="I36" s="3"/>
@@ -5261,16 +5270,16 @@
       <c r="CJ36" s="6"/>
     </row>
     <row r="37" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="36"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="32" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="15"/>
       <c r="H37" s="11"/>
       <c r="I37" s="3"/>
@@ -5355,20 +5364,20 @@
       <c r="CJ37" s="6"/>
     </row>
     <row r="38" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="28" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="35"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="15"/>
       <c r="H38" s="11"/>
       <c r="I38" s="3"/>
@@ -5453,18 +5462,18 @@
       <c r="CJ38" s="6"/>
     </row>
     <row r="39" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="36"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="25" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="15"/>
       <c r="H39" s="11"/>
       <c r="I39" s="3"/>
@@ -5549,16 +5558,16 @@
       <c r="CJ39" s="6"/>
     </row>
     <row r="40" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="36"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="51"/>
       <c r="G40" s="15"/>
       <c r="H40" s="11"/>
       <c r="I40" s="3"/>
@@ -5643,20 +5652,20 @@
       <c r="CJ40" s="6"/>
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A41" s="36"/>
-      <c r="B41" s="37" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="35"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="15"/>
       <c r="H41" s="11"/>
       <c r="I41" s="3"/>
@@ -5741,14 +5750,14 @@
       <c r="CJ41" s="6"/>
     </row>
     <row r="42" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A42" s="36"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="34" t="s">
+      <c r="A42" s="31"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="35"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="15"/>
       <c r="H42" s="11"/>
       <c r="I42" s="3"/>
@@ -5833,14 +5842,14 @@
       <c r="CJ42" s="6"/>
     </row>
     <row r="43" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="34" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="35"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="15"/>
       <c r="H43" s="11"/>
       <c r="I43" s="3"/>
@@ -5925,16 +5934,16 @@
       <c r="CJ43" s="6"/>
     </row>
     <row r="44" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A44" s="36"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="29" t="s">
+      <c r="A44" s="31"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="23"/>
+      <c r="F44" s="51"/>
       <c r="G44" s="15"/>
       <c r="H44" s="11"/>
       <c r="I44" s="3"/>
@@ -6019,14 +6028,14 @@
       <c r="CJ44" s="6"/>
     </row>
     <row r="45" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A45" s="36"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="22" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="23"/>
+      <c r="F45" s="51"/>
       <c r="G45" s="15"/>
       <c r="H45" s="11"/>
       <c r="I45" s="3"/>
@@ -6111,14 +6120,14 @@
       <c r="CJ45" s="6"/>
     </row>
     <row r="46" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A46" s="36"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="22" t="s">
+      <c r="A46" s="31"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="23"/>
+      <c r="F46" s="51"/>
       <c r="G46" s="15"/>
       <c r="H46" s="11"/>
       <c r="I46" s="3"/>
@@ -6203,14 +6212,14 @@
       <c r="CJ46" s="6"/>
     </row>
     <row r="47" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="36"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="22" t="s">
+      <c r="A47" s="31"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="23"/>
+      <c r="F47" s="51"/>
       <c r="G47" s="15"/>
       <c r="H47" s="11"/>
       <c r="I47" s="3"/>
@@ -6295,16 +6304,16 @@
       <c r="CJ47" s="6"/>
     </row>
     <row r="48" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="36"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="30"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="51"/>
       <c r="G48" s="15"/>
       <c r="H48" s="11"/>
       <c r="I48" s="3"/>
@@ -6389,16 +6398,16 @@
       <c r="CJ48" s="6"/>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A49" s="36"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="29" t="s">
+      <c r="A49" s="31"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="23"/>
+      <c r="F49" s="51"/>
       <c r="G49" s="15"/>
       <c r="H49" s="11"/>
       <c r="I49" s="3"/>
@@ -6483,14 +6492,14 @@
       <c r="CJ49" s="6"/>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A50" s="36"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="22" t="s">
+      <c r="A50" s="31"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="51"/>
       <c r="G50" s="15"/>
       <c r="H50" s="11"/>
       <c r="I50" s="3"/>
@@ -6575,14 +6584,14 @@
       <c r="CJ50" s="6"/>
     </row>
     <row r="51" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="36"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="22" t="s">
+      <c r="A51" s="31"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="23"/>
+      <c r="F51" s="51"/>
       <c r="G51" s="15"/>
       <c r="H51" s="11"/>
       <c r="I51" s="3"/>
@@ -6667,18 +6676,18 @@
       <c r="CJ51" s="6"/>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A52" s="36"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="29" t="s">
+      <c r="A52" s="31"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="23"/>
+      <c r="F52" s="51"/>
       <c r="G52" s="15"/>
       <c r="H52" s="11"/>
       <c r="I52" s="3"/>
@@ -6763,14 +6772,14 @@
       <c r="CJ52" s="6"/>
     </row>
     <row r="53" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="36"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="22" t="s">
+      <c r="A53" s="31"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="15"/>
       <c r="H53" s="11"/>
       <c r="I53" s="3"/>
@@ -6855,16 +6864,16 @@
       <c r="CJ53" s="6"/>
     </row>
     <row r="54" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="36"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="30"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="23"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="15"/>
       <c r="H54" s="11"/>
       <c r="I54" s="3"/>
@@ -6949,16 +6958,16 @@
       <c r="CJ54" s="6"/>
     </row>
     <row r="55" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="36"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="30"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="51"/>
       <c r="G55" s="15"/>
       <c r="H55" s="11"/>
       <c r="I55" s="3"/>
@@ -7043,16 +7052,16 @@
       <c r="CJ55" s="6"/>
     </row>
     <row r="56" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="36"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="30"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="51"/>
       <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="3"/>
@@ -7137,16 +7146,16 @@
       <c r="CJ56" s="6"/>
     </row>
     <row r="57" spans="1:88" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="36"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="31"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="27"/>
       <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="51"/>
       <c r="G57" s="15"/>
       <c r="H57" s="11"/>
       <c r="I57" s="3"/>
@@ -7231,18 +7240,18 @@
       <c r="CJ57" s="6"/>
     </row>
     <row r="58" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="36"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="29" t="s">
+      <c r="A58" s="31"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="22" t="s">
+      <c r="E58" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="51"/>
       <c r="G58" s="15"/>
       <c r="H58" s="11"/>
       <c r="I58" s="3"/>
@@ -7327,16 +7336,16 @@
       <c r="CJ58" s="6"/>
     </row>
     <row r="59" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="36"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="51"/>
       <c r="G59" s="15"/>
       <c r="H59" s="11"/>
       <c r="I59" s="3"/>
@@ -7421,16 +7430,16 @@
       <c r="CJ59" s="6"/>
     </row>
     <row r="60" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="36"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="30"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="51"/>
       <c r="G60" s="15"/>
       <c r="H60" s="11"/>
       <c r="I60" s="3"/>
@@ -7515,16 +7524,16 @@
       <c r="CJ60" s="6"/>
     </row>
     <row r="61" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="36"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="31"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="23"/>
+      <c r="F61" s="51"/>
       <c r="G61" s="15"/>
       <c r="H61" s="11"/>
       <c r="I61" s="3"/>
@@ -7609,16 +7618,16 @@
       <c r="CJ61" s="6"/>
     </row>
     <row r="62" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="36"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="20"/>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="51"/>
       <c r="G62" s="15"/>
       <c r="H62" s="11"/>
       <c r="I62" s="3"/>
@@ -7703,16 +7712,16 @@
       <c r="CJ62" s="6"/>
     </row>
     <row r="63" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="36"/>
-      <c r="B63" s="39"/>
+      <c r="A63" s="31"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="23"/>
+      <c r="F63" s="51"/>
       <c r="G63" s="15"/>
       <c r="H63" s="11"/>
       <c r="I63" s="3"/>
@@ -7797,22 +7806,22 @@
       <c r="CJ63" s="6"/>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="23"/>
+      <c r="F64" s="51"/>
       <c r="G64" s="15"/>
       <c r="H64" s="11"/>
       <c r="I64" s="3"/>
@@ -7821,7 +7830,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
+      <c r="O64" s="60"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -7897,14 +7906,14 @@
       <c r="CJ64" s="6"/>
     </row>
     <row r="65" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A65" s="36"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="22" t="s">
+      <c r="A65" s="31"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="23"/>
+      <c r="F65" s="51"/>
       <c r="G65" s="15"/>
       <c r="H65" s="11"/>
       <c r="I65" s="3"/>
@@ -7913,7 +7922,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
+      <c r="O65" s="60"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -7989,14 +7998,14 @@
       <c r="CJ65" s="6"/>
     </row>
     <row r="66" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A66" s="36"/>
-      <c r="B66" s="30"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="22" t="s">
+      <c r="A66" s="31"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="51"/>
       <c r="G66" s="15"/>
       <c r="H66" s="11"/>
       <c r="I66" s="3"/>
@@ -8005,7 +8014,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
+      <c r="O66" s="60"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -8081,14 +8090,14 @@
       <c r="CJ66" s="6"/>
     </row>
     <row r="67" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A67" s="36"/>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="22" t="s">
+      <c r="A67" s="31"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="23"/>
+      <c r="F67" s="51"/>
       <c r="G67" s="15"/>
       <c r="H67" s="11"/>
       <c r="I67" s="3"/>
@@ -8097,7 +8106,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
+      <c r="O67" s="60"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
@@ -8173,14 +8182,14 @@
       <c r="CJ67" s="6"/>
     </row>
     <row r="68" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A68" s="36"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="22" t="s">
+      <c r="A68" s="31"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="51"/>
       <c r="G68" s="15"/>
       <c r="H68" s="11"/>
       <c r="I68" s="3"/>
@@ -8189,7 +8198,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
+      <c r="O68" s="60"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
@@ -8265,14 +8274,14 @@
       <c r="CJ68" s="6"/>
     </row>
     <row r="69" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A69" s="36"/>
-      <c r="B69" s="30"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="22" t="s">
+      <c r="A69" s="31"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="51"/>
       <c r="G69" s="15"/>
       <c r="H69" s="11"/>
       <c r="I69" s="3"/>
@@ -8281,7 +8290,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
+      <c r="O69" s="60"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
@@ -8357,14 +8366,14 @@
       <c r="CJ69" s="6"/>
     </row>
     <row r="70" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A70" s="36"/>
-      <c r="B70" s="30"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="22" t="s">
+      <c r="A70" s="31"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="23"/>
+      <c r="F70" s="51"/>
       <c r="G70" s="15"/>
       <c r="H70" s="11"/>
       <c r="I70" s="3"/>
@@ -8449,14 +8458,14 @@
       <c r="CJ70" s="6"/>
     </row>
     <row r="71" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A71" s="36"/>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="22" t="s">
+      <c r="A71" s="31"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="23"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="15"/>
       <c r="H71" s="11"/>
       <c r="I71" s="3"/>
@@ -8541,14 +8550,14 @@
       <c r="CJ71" s="6"/>
     </row>
     <row r="72" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A72" s="36"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="22" t="s">
+      <c r="A72" s="31"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="23"/>
+      <c r="F72" s="51"/>
       <c r="G72" s="15"/>
       <c r="H72" s="11"/>
       <c r="I72" s="3"/>
@@ -8633,14 +8642,14 @@
       <c r="CJ72" s="6"/>
     </row>
     <row r="73" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A73" s="36"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="22" t="s">
+      <c r="A73" s="31"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="23"/>
+      <c r="F73" s="51"/>
       <c r="G73" s="15"/>
       <c r="H73" s="11"/>
       <c r="I73" s="3"/>
@@ -8725,14 +8734,14 @@
       <c r="CJ73" s="6"/>
     </row>
     <row r="74" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A74" s="36"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="22" t="s">
+      <c r="A74" s="31"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="23"/>
+      <c r="F74" s="51"/>
       <c r="G74" s="15"/>
       <c r="H74" s="11"/>
       <c r="I74" s="3"/>
@@ -8817,14 +8826,14 @@
       <c r="CJ74" s="6"/>
     </row>
     <row r="75" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="36"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="22" t="s">
+      <c r="A75" s="31"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="23"/>
+      <c r="F75" s="51"/>
       <c r="G75" s="15"/>
       <c r="H75" s="11"/>
       <c r="I75" s="3"/>
@@ -8909,16 +8918,16 @@
       <c r="CJ75" s="6"/>
     </row>
     <row r="76" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A76" s="36"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="29" t="s">
+      <c r="A76" s="31"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="23"/>
+      <c r="F76" s="51"/>
       <c r="G76" s="15"/>
       <c r="H76" s="11"/>
       <c r="I76" s="3"/>
@@ -9003,14 +9012,14 @@
       <c r="CJ76" s="6"/>
     </row>
     <row r="77" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A77" s="36"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="22" t="s">
+      <c r="A77" s="31"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="23"/>
+      <c r="F77" s="51"/>
       <c r="G77" s="15"/>
       <c r="H77" s="11"/>
       <c r="I77" s="3"/>
@@ -9095,14 +9104,14 @@
       <c r="CJ77" s="6"/>
     </row>
     <row r="78" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A78" s="36"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="22" t="s">
+      <c r="A78" s="31"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="51"/>
       <c r="G78" s="15"/>
       <c r="H78" s="11"/>
       <c r="I78" s="3"/>
@@ -9187,14 +9196,14 @@
       <c r="CJ78" s="6"/>
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A79" s="36"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="22" t="s">
+      <c r="A79" s="31"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="23"/>
+      <c r="F79" s="51"/>
       <c r="G79" s="15"/>
       <c r="H79" s="11"/>
       <c r="I79" s="3"/>
@@ -9279,14 +9288,14 @@
       <c r="CJ79" s="6"/>
     </row>
     <row r="80" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A80" s="36"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="22" t="s">
+      <c r="A80" s="31"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="23"/>
+      <c r="F80" s="51"/>
       <c r="G80" s="15"/>
       <c r="H80" s="11"/>
       <c r="I80" s="3"/>
@@ -9371,14 +9380,14 @@
       <c r="CJ80" s="6"/>
     </row>
     <row r="81" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A81" s="36"/>
-      <c r="B81" s="30"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="22" t="s">
+      <c r="A81" s="31"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="23"/>
+      <c r="F81" s="51"/>
       <c r="G81" s="15"/>
       <c r="H81" s="11"/>
       <c r="I81" s="3"/>
@@ -9463,14 +9472,14 @@
       <c r="CJ81" s="6"/>
     </row>
     <row r="82" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="36"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="22" t="s">
+      <c r="A82" s="31"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="23"/>
+      <c r="F82" s="51"/>
       <c r="G82" s="15"/>
       <c r="H82" s="11"/>
       <c r="I82" s="3"/>
@@ -9555,16 +9564,16 @@
       <c r="CJ82" s="6"/>
     </row>
     <row r="83" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A83" s="36"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="29" t="s">
+      <c r="A83" s="31"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="23"/>
+      <c r="F83" s="51"/>
       <c r="G83" s="15"/>
       <c r="H83" s="11"/>
       <c r="I83" s="3"/>
@@ -9649,14 +9658,14 @@
       <c r="CJ83" s="6"/>
     </row>
     <row r="84" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A84" s="36"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="22" t="s">
+      <c r="A84" s="31"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="23"/>
+      <c r="F84" s="51"/>
       <c r="G84" s="15"/>
       <c r="H84" s="11"/>
       <c r="I84" s="3"/>
@@ -9741,14 +9750,14 @@
       <c r="CJ84" s="6"/>
     </row>
     <row r="85" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A85" s="36"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="22" t="s">
+      <c r="A85" s="31"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="23"/>
+      <c r="F85" s="51"/>
       <c r="G85" s="15"/>
       <c r="H85" s="11"/>
       <c r="I85" s="3"/>
@@ -9833,14 +9842,14 @@
       <c r="CJ85" s="6"/>
     </row>
     <row r="86" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A86" s="36"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="22" t="s">
+      <c r="A86" s="31"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="23"/>
+      <c r="F86" s="51"/>
       <c r="G86" s="15"/>
       <c r="H86" s="11"/>
       <c r="I86" s="3"/>
@@ -9925,14 +9934,14 @@
       <c r="CJ86" s="6"/>
     </row>
     <row r="87" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A87" s="36"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="22" t="s">
+      <c r="A87" s="31"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="23"/>
+      <c r="F87" s="51"/>
       <c r="G87" s="15"/>
       <c r="H87" s="11"/>
       <c r="I87" s="3"/>
@@ -10017,14 +10026,14 @@
       <c r="CJ87" s="6"/>
     </row>
     <row r="88" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="36"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="22" t="s">
+      <c r="A88" s="31"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="23"/>
+      <c r="F88" s="51"/>
       <c r="G88" s="15"/>
       <c r="H88" s="11"/>
       <c r="I88" s="3"/>
@@ -10109,16 +10118,16 @@
       <c r="CJ88" s="6"/>
     </row>
     <row r="89" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A89" s="36"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="29" t="s">
+      <c r="A89" s="31"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="29"/>
-      <c r="E89" s="32" t="s">
+      <c r="D89" s="25"/>
+      <c r="E89" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="33"/>
+      <c r="F89" s="41"/>
       <c r="G89" s="15"/>
       <c r="H89" s="11"/>
       <c r="I89" s="3"/>
@@ -10203,14 +10212,14 @@
       <c r="CJ89" s="6"/>
     </row>
     <row r="90" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A90" s="36"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="32" t="s">
+      <c r="A90" s="31"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="33"/>
+      <c r="F90" s="41"/>
       <c r="G90" s="15"/>
       <c r="H90" s="11"/>
       <c r="I90" s="3"/>
@@ -10295,14 +10304,14 @@
       <c r="CJ90" s="6"/>
     </row>
     <row r="91" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A91" s="36"/>
-      <c r="B91" s="30"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="32" t="s">
+      <c r="A91" s="31"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="33"/>
+      <c r="F91" s="41"/>
       <c r="G91" s="15"/>
       <c r="H91" s="11"/>
       <c r="I91" s="3"/>
@@ -10387,14 +10396,14 @@
       <c r="CJ91" s="6"/>
     </row>
     <row r="92" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A92" s="36"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="32" t="s">
+      <c r="A92" s="31"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="33"/>
+      <c r="F92" s="41"/>
       <c r="G92" s="15"/>
       <c r="H92" s="11"/>
       <c r="I92" s="3"/>
@@ -10479,14 +10488,14 @@
       <c r="CJ92" s="6"/>
     </row>
     <row r="93" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="36"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="32" t="s">
+      <c r="A93" s="31"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="33"/>
+      <c r="F93" s="41"/>
       <c r="G93" s="15"/>
       <c r="H93" s="11"/>
       <c r="I93" s="3"/>
@@ -10571,16 +10580,16 @@
       <c r="CJ93" s="6"/>
     </row>
     <row r="94" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="36"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="31"/>
+      <c r="A94" s="31"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="27"/>
       <c r="D94" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="32" t="s">
+      <c r="E94" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="33"/>
+      <c r="F94" s="41"/>
       <c r="G94" s="15"/>
       <c r="H94" s="11"/>
       <c r="I94" s="3"/>
@@ -10665,16 +10674,16 @@
       <c r="CJ94" s="6"/>
     </row>
     <row r="95" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A95" s="36"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="29" t="s">
+      <c r="A95" s="31"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="32" t="s">
+      <c r="D95" s="25"/>
+      <c r="E95" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="33"/>
+      <c r="F95" s="41"/>
       <c r="G95" s="15"/>
       <c r="H95" s="11"/>
       <c r="I95" s="3"/>
@@ -10759,14 +10768,14 @@
       <c r="CJ95" s="6"/>
     </row>
     <row r="96" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A96" s="36"/>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="22" t="s">
+      <c r="A96" s="31"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="23"/>
+      <c r="F96" s="51"/>
       <c r="G96" s="15"/>
       <c r="H96" s="11"/>
       <c r="I96" s="3"/>
@@ -10851,14 +10860,14 @@
       <c r="CJ96" s="6"/>
     </row>
     <row r="97" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A97" s="36"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="22" t="s">
+      <c r="A97" s="31"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="23"/>
+      <c r="F97" s="51"/>
       <c r="G97" s="15"/>
       <c r="H97" s="11"/>
       <c r="I97" s="3"/>
@@ -10943,14 +10952,14 @@
       <c r="CJ97" s="6"/>
     </row>
     <row r="98" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="36"/>
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="32" t="s">
+      <c r="A98" s="31"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="33"/>
+      <c r="F98" s="41"/>
       <c r="G98" s="15"/>
       <c r="H98" s="11"/>
       <c r="I98" s="3"/>
@@ -11035,20 +11044,20 @@
       <c r="CJ98" s="6"/>
     </row>
     <row r="99" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A99" s="36"/>
-      <c r="B99" s="54" t="s">
+      <c r="A99" s="31"/>
+      <c r="B99" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="29" t="s">
+      <c r="C99" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="32" t="s">
+      <c r="E99" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="33"/>
+      <c r="F99" s="41"/>
       <c r="G99" s="15"/>
       <c r="H99" s="11"/>
       <c r="I99" s="3"/>
@@ -11133,14 +11142,14 @@
       <c r="CJ99" s="6"/>
     </row>
     <row r="100" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A100" s="36"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="32" t="s">
+      <c r="A100" s="31"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="33"/>
+      <c r="F100" s="41"/>
       <c r="G100" s="15"/>
       <c r="H100" s="11"/>
       <c r="I100" s="3"/>
@@ -11225,14 +11234,14 @@
       <c r="CJ100" s="6"/>
     </row>
     <row r="101" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="36"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="53"/>
-      <c r="E101" s="22" t="s">
+      <c r="A101" s="31"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="23"/>
+      <c r="F101" s="51"/>
       <c r="G101" s="15"/>
       <c r="H101" s="11"/>
       <c r="I101" s="3"/>
@@ -11317,16 +11326,16 @@
       <c r="CJ101" s="6"/>
     </row>
     <row r="102" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A102" s="36"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="29" t="s">
+      <c r="A102" s="31"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="22" t="s">
+      <c r="D102" s="25"/>
+      <c r="E102" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="23"/>
+      <c r="F102" s="51"/>
       <c r="G102" s="15"/>
       <c r="H102" s="11"/>
       <c r="I102" s="3"/>
@@ -11411,14 +11420,14 @@
       <c r="CJ102" s="6"/>
     </row>
     <row r="103" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="36"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="22" t="s">
+      <c r="A103" s="31"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="23"/>
+      <c r="F103" s="51"/>
       <c r="G103" s="15"/>
       <c r="H103" s="11"/>
       <c r="I103" s="3"/>
@@ -11503,16 +11512,16 @@
       <c r="CJ103" s="6"/>
     </row>
     <row r="104" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A104" s="36"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="52" t="s">
+      <c r="A104" s="31"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="29"/>
-      <c r="E104" s="32" t="s">
+      <c r="D104" s="25"/>
+      <c r="E104" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="33"/>
+      <c r="F104" s="41"/>
       <c r="G104" s="15"/>
       <c r="H104" s="11"/>
       <c r="I104" s="3"/>
@@ -11597,14 +11606,14 @@
       <c r="CJ104" s="6"/>
     </row>
     <row r="105" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="36"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="32" t="s">
+      <c r="A105" s="31"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="34"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="33"/>
+      <c r="F105" s="41"/>
       <c r="G105" s="15"/>
       <c r="H105" s="11"/>
       <c r="I105" s="3"/>
@@ -11689,16 +11698,16 @@
       <c r="CJ105" s="6"/>
     </row>
     <row r="106" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="36"/>
-      <c r="B106" s="38"/>
+      <c r="A106" s="31"/>
+      <c r="B106" s="29"/>
       <c r="C106" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="20"/>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="23"/>
+      <c r="F106" s="51"/>
       <c r="G106" s="15"/>
       <c r="H106" s="11"/>
       <c r="I106" s="3"/>
@@ -11783,16 +11792,16 @@
       <c r="CJ106" s="6"/>
     </row>
     <row r="107" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="59"/>
-      <c r="B107" s="39"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="20"/>
-      <c r="E107" s="24" t="s">
+      <c r="E107" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="25"/>
+      <c r="F107" s="53"/>
       <c r="G107" s="17"/>
       <c r="H107" s="13"/>
       <c r="I107" s="8"/>
@@ -11878,6 +11887,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:AO1"/>
+    <mergeCell ref="BU1:CJ1"/>
+    <mergeCell ref="AP1:BT1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="C64:C88"/>
     <mergeCell ref="D64:D75"/>
@@ -11902,136 +12041,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A64:A107"/>
     <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B99:B107"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:AO1"/>
-    <mergeCell ref="BU1:CJ1"/>
-    <mergeCell ref="AP1:BT1"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -1329,13 +1329,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1347,6 +1362,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1356,38 +1386,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1407,44 +1422,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1728,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1750,124 +1750,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="37" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="37" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="38"/>
-      <c r="AV1" s="38"/>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="38"/>
-      <c r="BD1" s="38"/>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
-      <c r="BJ1" s="38"/>
-      <c r="BK1" s="38"/>
-      <c r="BL1" s="38"/>
-      <c r="BM1" s="38"/>
-      <c r="BN1" s="38"/>
-      <c r="BO1" s="38"/>
-      <c r="BP1" s="38"/>
-      <c r="BQ1" s="38"/>
-      <c r="BR1" s="38"/>
-      <c r="BS1" s="38"/>
-      <c r="BT1" s="39"/>
-      <c r="BU1" s="37" t="s">
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45"/>
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45"/>
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45"/>
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45"/>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="45"/>
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="45"/>
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45"/>
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45"/>
+      <c r="BM1" s="45"/>
+      <c r="BN1" s="45"/>
+      <c r="BO1" s="45"/>
+      <c r="BP1" s="45"/>
+      <c r="BQ1" s="45"/>
+      <c r="BR1" s="45"/>
+      <c r="BS1" s="45"/>
+      <c r="BT1" s="46"/>
+      <c r="BU1" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="38"/>
-      <c r="BW1" s="38"/>
-      <c r="BX1" s="38"/>
-      <c r="BY1" s="38"/>
-      <c r="BZ1" s="38"/>
-      <c r="CA1" s="38"/>
-      <c r="CB1" s="38"/>
-      <c r="CC1" s="38"/>
-      <c r="CD1" s="38"/>
-      <c r="CE1" s="38"/>
-      <c r="CF1" s="38"/>
-      <c r="CG1" s="38"/>
-      <c r="CH1" s="38"/>
-      <c r="CI1" s="38"/>
-      <c r="CJ1" s="39"/>
+      <c r="BV1" s="45"/>
+      <c r="BW1" s="45"/>
+      <c r="BX1" s="45"/>
+      <c r="BY1" s="45"/>
+      <c r="BZ1" s="45"/>
+      <c r="CA1" s="45"/>
+      <c r="CB1" s="45"/>
+      <c r="CC1" s="45"/>
+      <c r="CD1" s="45"/>
+      <c r="CE1" s="45"/>
+      <c r="CF1" s="45"/>
+      <c r="CG1" s="45"/>
+      <c r="CH1" s="45"/>
+      <c r="CI1" s="45"/>
+      <c r="CJ1" s="46"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="49"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="14"/>
       <c r="H2" s="10">
         <v>44862</v>
@@ -2114,14 +2114,14 @@
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="50" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="51"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="15"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
@@ -2206,14 +2206,14 @@
       <c r="CJ3" s="6"/>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="50" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="51"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="15"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
@@ -2298,14 +2298,14 @@
       <c r="CJ4" s="6"/>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="50" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="15"/>
       <c r="H5" s="11"/>
       <c r="I5" s="3"/>
@@ -2390,14 +2390,14 @@
       <c r="CJ5" s="6"/>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A6" s="31"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="50" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="15"/>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
@@ -2482,14 +2482,14 @@
       <c r="CJ6" s="6"/>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="50" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="15"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
@@ -2574,14 +2574,14 @@
       <c r="CJ7" s="6"/>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="50" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="15"/>
       <c r="H8" s="11"/>
       <c r="I8" s="3"/>
@@ -2666,14 +2666,14 @@
       <c r="CJ8" s="6"/>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="50" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="24"/>
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="3"/>
@@ -2758,14 +2758,14 @@
       <c r="CJ9" s="6"/>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A10" s="31"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="50" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="24"/>
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
@@ -2850,14 +2850,14 @@
       <c r="CJ10" s="6"/>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="50" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="51"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="3"/>
@@ -2942,14 +2942,14 @@
       <c r="CJ11" s="6"/>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="50" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="51"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11"/>
       <c r="I12" s="3"/>
@@ -3034,14 +3034,14 @@
       <c r="CJ12" s="6"/>
     </row>
     <row r="13" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="31"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="52" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11"/>
       <c r="I13" s="3"/>
@@ -3126,16 +3126,16 @@
       <c r="CJ13" s="6"/>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A14" s="31"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="22" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="15"/>
       <c r="H14" s="11"/>
       <c r="I14" s="3"/>
@@ -3154,7 +3154,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="Y14" s="22"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -3220,14 +3220,14 @@
       <c r="CJ14" s="6"/>
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="40" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="41"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11"/>
       <c r="I15" s="3"/>
@@ -3246,7 +3246,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="Y15" s="22"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3312,14 +3312,14 @@
       <c r="CJ15" s="6"/>
     </row>
     <row r="16" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="31"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="42" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="16"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
@@ -3404,16 +3404,16 @@
       <c r="CJ16" s="7"/>
     </row>
     <row r="17" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
       <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="16"/>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
@@ -3498,16 +3498,16 @@
       <c r="CJ17" s="7"/>
     </row>
     <row r="18" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="31"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="16"/>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
@@ -3592,18 +3592,18 @@
       <c r="CJ18" s="7"/>
     </row>
     <row r="19" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="28" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="3"/>
@@ -3688,16 +3688,16 @@
       <c r="CJ19" s="6"/>
     </row>
     <row r="20" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="31"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="41"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="15"/>
       <c r="H20" s="11"/>
       <c r="I20" s="3"/>
@@ -3782,16 +3782,16 @@
       <c r="CJ20" s="6"/>
     </row>
     <row r="21" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="31"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="34"/>
       <c r="G21" s="15"/>
       <c r="H21" s="11"/>
       <c r="I21" s="3"/>
@@ -3876,16 +3876,16 @@
       <c r="CJ21" s="6"/>
     </row>
     <row r="22" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="31"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
       <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="41"/>
+      <c r="F22" s="34"/>
       <c r="G22" s="15"/>
       <c r="H22" s="11"/>
       <c r="I22" s="3"/>
@@ -3970,16 +3970,16 @@
       <c r="CJ22" s="6"/>
     </row>
     <row r="23" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
       <c r="D23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="41"/>
+      <c r="F23" s="34"/>
       <c r="G23" s="15"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3"/>
@@ -4064,16 +4064,16 @@
       <c r="CJ23" s="6"/>
     </row>
     <row r="24" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="31"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="41"/>
+      <c r="F24" s="34"/>
       <c r="G24" s="15"/>
       <c r="H24" s="11"/>
       <c r="I24" s="3"/>
@@ -4158,16 +4158,16 @@
       <c r="CJ24" s="6"/>
     </row>
     <row r="25" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A25" s="31"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="28" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="41"/>
+      <c r="F25" s="34"/>
       <c r="G25" s="15"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3"/>
@@ -4252,14 +4252,14 @@
       <c r="CJ25" s="6"/>
     </row>
     <row r="26" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A26" s="31"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="50" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="15"/>
       <c r="H26" s="11"/>
       <c r="I26" s="3"/>
@@ -4344,14 +4344,14 @@
       <c r="CJ26" s="6"/>
     </row>
     <row r="27" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A27" s="31"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="50" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="51"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="15"/>
       <c r="H27" s="11"/>
       <c r="I27" s="3"/>
@@ -4436,14 +4436,14 @@
       <c r="CJ27" s="6"/>
     </row>
     <row r="28" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="31"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="40" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="41"/>
+      <c r="F28" s="34"/>
       <c r="G28" s="15"/>
       <c r="H28" s="11"/>
       <c r="I28" s="3"/>
@@ -4528,16 +4528,16 @@
       <c r="CJ28" s="6"/>
     </row>
     <row r="29" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A29" s="31"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="28" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="40" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="41"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="15"/>
       <c r="H29" s="11"/>
       <c r="I29" s="3"/>
@@ -4622,14 +4622,14 @@
       <c r="CJ29" s="6"/>
     </row>
     <row r="30" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A30" s="31"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="40" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="15"/>
       <c r="H30" s="11"/>
       <c r="I30" s="3"/>
@@ -4714,14 +4714,14 @@
       <c r="CJ30" s="6"/>
     </row>
     <row r="31" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A31" s="31"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="40" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="I31" s="3"/>
@@ -4806,14 +4806,14 @@
       <c r="CJ31" s="6"/>
     </row>
     <row r="32" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="31"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="40" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="15"/>
       <c r="H32" s="11"/>
       <c r="I32" s="3"/>
@@ -4898,16 +4898,16 @@
       <c r="CJ32" s="6"/>
     </row>
     <row r="33" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A33" s="31"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="40" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="41"/>
+      <c r="F33" s="34"/>
       <c r="G33" s="15"/>
       <c r="H33" s="11"/>
       <c r="I33" s="3"/>
@@ -4992,14 +4992,14 @@
       <c r="CJ33" s="6"/>
     </row>
     <row r="34" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A34" s="31"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="40" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="34"/>
       <c r="G34" s="15"/>
       <c r="H34" s="11"/>
       <c r="I34" s="3"/>
@@ -5084,14 +5084,14 @@
       <c r="CJ34" s="6"/>
     </row>
     <row r="35" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="31"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="40" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="34"/>
       <c r="G35" s="15"/>
       <c r="H35" s="11"/>
       <c r="I35" s="3"/>
@@ -5176,16 +5176,16 @@
       <c r="CJ35" s="6"/>
     </row>
     <row r="36" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="31"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="40" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="34"/>
       <c r="G36" s="15"/>
       <c r="H36" s="11"/>
       <c r="I36" s="3"/>
@@ -5270,16 +5270,16 @@
       <c r="CJ36" s="6"/>
     </row>
     <row r="37" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="31"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="40" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="34"/>
       <c r="G37" s="15"/>
       <c r="H37" s="11"/>
       <c r="I37" s="3"/>
@@ -5364,20 +5364,20 @@
       <c r="CJ37" s="6"/>
     </row>
     <row r="38" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="57"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="15"/>
       <c r="H38" s="11"/>
       <c r="I38" s="3"/>
@@ -5462,18 +5462,18 @@
       <c r="CJ38" s="6"/>
     </row>
     <row r="39" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="31"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="30" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="50" t="s">
+      <c r="E39" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="51"/>
+      <c r="F39" s="24"/>
       <c r="G39" s="15"/>
       <c r="H39" s="11"/>
       <c r="I39" s="3"/>
@@ -5558,16 +5558,16 @@
       <c r="CJ39" s="6"/>
     </row>
     <row r="40" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="31"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="24"/>
       <c r="G40" s="15"/>
       <c r="H40" s="11"/>
       <c r="I40" s="3"/>
@@ -5652,20 +5652,20 @@
       <c r="CJ40" s="6"/>
     </row>
     <row r="41" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A41" s="31"/>
-      <c r="B41" s="28" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="57"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="15"/>
       <c r="H41" s="11"/>
       <c r="I41" s="3"/>
@@ -5750,14 +5750,14 @@
       <c r="CJ41" s="6"/>
     </row>
     <row r="42" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A42" s="31"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="56" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="57"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="15"/>
       <c r="H42" s="11"/>
       <c r="I42" s="3"/>
@@ -5842,14 +5842,14 @@
       <c r="CJ42" s="6"/>
     </row>
     <row r="43" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="31"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="56" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="15"/>
       <c r="H43" s="11"/>
       <c r="I43" s="3"/>
@@ -5934,16 +5934,16 @@
       <c r="CJ43" s="6"/>
     </row>
     <row r="44" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A44" s="31"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="25" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="51"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="15"/>
       <c r="H44" s="11"/>
       <c r="I44" s="3"/>
@@ -6028,14 +6028,14 @@
       <c r="CJ44" s="6"/>
     </row>
     <row r="45" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A45" s="31"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="50" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="51"/>
+      <c r="F45" s="24"/>
       <c r="G45" s="15"/>
       <c r="H45" s="11"/>
       <c r="I45" s="3"/>
@@ -6120,14 +6120,14 @@
       <c r="CJ45" s="6"/>
     </row>
     <row r="46" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A46" s="31"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="50" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="51"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="15"/>
       <c r="H46" s="11"/>
       <c r="I46" s="3"/>
@@ -6212,14 +6212,14 @@
       <c r="CJ46" s="6"/>
     </row>
     <row r="47" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="31"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="50" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="51"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="15"/>
       <c r="H47" s="11"/>
       <c r="I47" s="3"/>
@@ -6304,16 +6304,16 @@
       <c r="CJ47" s="6"/>
     </row>
     <row r="48" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="31"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="31"/>
       <c r="D48" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="24"/>
       <c r="G48" s="15"/>
       <c r="H48" s="11"/>
       <c r="I48" s="3"/>
@@ -6398,16 +6398,16 @@
       <c r="CJ48" s="6"/>
     </row>
     <row r="49" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A49" s="31"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="50" t="s">
+      <c r="E49" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="24"/>
       <c r="G49" s="15"/>
       <c r="H49" s="11"/>
       <c r="I49" s="3"/>
@@ -6492,14 +6492,14 @@
       <c r="CJ49" s="6"/>
     </row>
     <row r="50" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A50" s="31"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="50" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="51"/>
+      <c r="F50" s="24"/>
       <c r="G50" s="15"/>
       <c r="H50" s="11"/>
       <c r="I50" s="3"/>
@@ -6584,14 +6584,14 @@
       <c r="CJ50" s="6"/>
     </row>
     <row r="51" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="31"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="50" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="51"/>
+      <c r="F51" s="24"/>
       <c r="G51" s="15"/>
       <c r="H51" s="11"/>
       <c r="I51" s="3"/>
@@ -6676,18 +6676,18 @@
       <c r="CJ51" s="6"/>
     </row>
     <row r="52" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A52" s="31"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="E52" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="51"/>
+      <c r="F52" s="24"/>
       <c r="G52" s="15"/>
       <c r="H52" s="11"/>
       <c r="I52" s="3"/>
@@ -6772,14 +6772,14 @@
       <c r="CJ52" s="6"/>
     </row>
     <row r="53" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="31"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="50" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="51"/>
+      <c r="F53" s="24"/>
       <c r="G53" s="15"/>
       <c r="H53" s="11"/>
       <c r="I53" s="3"/>
@@ -6864,16 +6864,16 @@
       <c r="CJ53" s="6"/>
     </row>
     <row r="54" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="31"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="26"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="51"/>
+      <c r="F54" s="24"/>
       <c r="G54" s="15"/>
       <c r="H54" s="11"/>
       <c r="I54" s="3"/>
@@ -6958,16 +6958,16 @@
       <c r="CJ54" s="6"/>
     </row>
     <row r="55" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="31"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="26"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="31"/>
       <c r="D55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="50" t="s">
+      <c r="E55" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="51"/>
+      <c r="F55" s="24"/>
       <c r="G55" s="15"/>
       <c r="H55" s="11"/>
       <c r="I55" s="3"/>
@@ -7052,16 +7052,16 @@
       <c r="CJ55" s="6"/>
     </row>
     <row r="56" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="31"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="26"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="51"/>
+      <c r="F56" s="24"/>
       <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="3"/>
@@ -7146,16 +7146,16 @@
       <c r="CJ56" s="6"/>
     </row>
     <row r="57" spans="1:88" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="31"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="27"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="50" t="s">
+      <c r="E57" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="51"/>
+      <c r="F57" s="24"/>
       <c r="G57" s="15"/>
       <c r="H57" s="11"/>
       <c r="I57" s="3"/>
@@ -7240,18 +7240,18 @@
       <c r="CJ57" s="6"/>
     </row>
     <row r="58" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="31"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="25" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="30" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="51"/>
+      <c r="F58" s="24"/>
       <c r="G58" s="15"/>
       <c r="H58" s="11"/>
       <c r="I58" s="3"/>
@@ -7336,16 +7336,16 @@
       <c r="CJ58" s="6"/>
     </row>
     <row r="59" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="31"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="50" t="s">
+      <c r="E59" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="51"/>
+      <c r="F59" s="24"/>
       <c r="G59" s="15"/>
       <c r="H59" s="11"/>
       <c r="I59" s="3"/>
@@ -7430,16 +7430,16 @@
       <c r="CJ59" s="6"/>
     </row>
     <row r="60" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="31"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="26"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="31"/>
       <c r="D60" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="51"/>
+      <c r="F60" s="24"/>
       <c r="G60" s="15"/>
       <c r="H60" s="11"/>
       <c r="I60" s="3"/>
@@ -7524,16 +7524,16 @@
       <c r="CJ60" s="6"/>
     </row>
     <row r="61" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="31"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="27"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="32"/>
       <c r="D61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="50" t="s">
+      <c r="E61" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="51"/>
+      <c r="F61" s="24"/>
       <c r="G61" s="15"/>
       <c r="H61" s="11"/>
       <c r="I61" s="3"/>
@@ -7618,16 +7618,16 @@
       <c r="CJ61" s="6"/>
     </row>
     <row r="62" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="31"/>
-      <c r="B62" s="29"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="20"/>
-      <c r="E62" s="50" t="s">
+      <c r="E62" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="51"/>
+      <c r="F62" s="24"/>
       <c r="G62" s="15"/>
       <c r="H62" s="11"/>
       <c r="I62" s="3"/>
@@ -7712,16 +7712,16 @@
       <c r="CJ62" s="6"/>
     </row>
     <row r="63" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="31"/>
-      <c r="B63" s="30"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="40"/>
       <c r="C63" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="51"/>
+      <c r="F63" s="24"/>
       <c r="G63" s="15"/>
       <c r="H63" s="11"/>
       <c r="I63" s="3"/>
@@ -7806,22 +7806,22 @@
       <c r="CJ63" s="6"/>
     </row>
     <row r="64" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="50" t="s">
+      <c r="E64" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="51"/>
+      <c r="F64" s="24"/>
       <c r="G64" s="15"/>
       <c r="H64" s="11"/>
       <c r="I64" s="3"/>
@@ -7830,7 +7830,7 @@
       <c r="L64" s="11"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="60"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -7906,14 +7906,14 @@
       <c r="CJ64" s="6"/>
     </row>
     <row r="65" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A65" s="31"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="50" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="51"/>
+      <c r="F65" s="24"/>
       <c r="G65" s="15"/>
       <c r="H65" s="11"/>
       <c r="I65" s="3"/>
@@ -7922,7 +7922,7 @@
       <c r="L65" s="11"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="60"/>
+      <c r="O65" s="22"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -7998,14 +7998,14 @@
       <c r="CJ65" s="6"/>
     </row>
     <row r="66" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A66" s="31"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="50" t="s">
+      <c r="A66" s="37"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="51"/>
+      <c r="F66" s="24"/>
       <c r="G66" s="15"/>
       <c r="H66" s="11"/>
       <c r="I66" s="3"/>
@@ -8014,7 +8014,7 @@
       <c r="L66" s="11"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="60"/>
+      <c r="O66" s="22"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -8090,14 +8090,14 @@
       <c r="CJ66" s="6"/>
     </row>
     <row r="67" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A67" s="31"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="50" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="51"/>
+      <c r="F67" s="24"/>
       <c r="G67" s="15"/>
       <c r="H67" s="11"/>
       <c r="I67" s="3"/>
@@ -8106,7 +8106,7 @@
       <c r="L67" s="11"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="60"/>
+      <c r="O67" s="22"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
@@ -8182,14 +8182,14 @@
       <c r="CJ67" s="6"/>
     </row>
     <row r="68" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A68" s="31"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="50" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="51"/>
+      <c r="F68" s="24"/>
       <c r="G68" s="15"/>
       <c r="H68" s="11"/>
       <c r="I68" s="3"/>
@@ -8198,7 +8198,7 @@
       <c r="L68" s="11"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="60"/>
+      <c r="O68" s="22"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
@@ -8274,14 +8274,14 @@
       <c r="CJ68" s="6"/>
     </row>
     <row r="69" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A69" s="31"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="50" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="51"/>
+      <c r="F69" s="24"/>
       <c r="G69" s="15"/>
       <c r="H69" s="11"/>
       <c r="I69" s="3"/>
@@ -8290,7 +8290,7 @@
       <c r="L69" s="11"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="60"/>
+      <c r="O69" s="22"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
@@ -8366,14 +8366,14 @@
       <c r="CJ69" s="6"/>
     </row>
     <row r="70" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A70" s="31"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="50" t="s">
+      <c r="A70" s="37"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="51"/>
+      <c r="F70" s="24"/>
       <c r="G70" s="15"/>
       <c r="H70" s="11"/>
       <c r="I70" s="3"/>
@@ -8458,14 +8458,14 @@
       <c r="CJ70" s="6"/>
     </row>
     <row r="71" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A71" s="31"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="50" t="s">
+      <c r="A71" s="37"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="51"/>
+      <c r="F71" s="24"/>
       <c r="G71" s="15"/>
       <c r="H71" s="11"/>
       <c r="I71" s="3"/>
@@ -8550,14 +8550,14 @@
       <c r="CJ71" s="6"/>
     </row>
     <row r="72" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A72" s="31"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="50" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="51"/>
+      <c r="F72" s="24"/>
       <c r="G72" s="15"/>
       <c r="H72" s="11"/>
       <c r="I72" s="3"/>
@@ -8642,14 +8642,14 @@
       <c r="CJ72" s="6"/>
     </row>
     <row r="73" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A73" s="31"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="50" t="s">
+      <c r="A73" s="37"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="51"/>
+      <c r="F73" s="24"/>
       <c r="G73" s="15"/>
       <c r="H73" s="11"/>
       <c r="I73" s="3"/>
@@ -8734,14 +8734,14 @@
       <c r="CJ73" s="6"/>
     </row>
     <row r="74" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A74" s="31"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="50" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="51"/>
+      <c r="F74" s="24"/>
       <c r="G74" s="15"/>
       <c r="H74" s="11"/>
       <c r="I74" s="3"/>
@@ -8826,14 +8826,14 @@
       <c r="CJ74" s="6"/>
     </row>
     <row r="75" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="31"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="50" t="s">
+      <c r="A75" s="37"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="51"/>
+      <c r="F75" s="24"/>
       <c r="G75" s="15"/>
       <c r="H75" s="11"/>
       <c r="I75" s="3"/>
@@ -8918,16 +8918,16 @@
       <c r="CJ75" s="6"/>
     </row>
     <row r="76" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A76" s="31"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="25" t="s">
+      <c r="A76" s="37"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="51"/>
+      <c r="F76" s="24"/>
       <c r="G76" s="15"/>
       <c r="H76" s="11"/>
       <c r="I76" s="3"/>
@@ -9012,14 +9012,14 @@
       <c r="CJ76" s="6"/>
     </row>
     <row r="77" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A77" s="31"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="50" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="51"/>
+      <c r="F77" s="24"/>
       <c r="G77" s="15"/>
       <c r="H77" s="11"/>
       <c r="I77" s="3"/>
@@ -9104,14 +9104,14 @@
       <c r="CJ77" s="6"/>
     </row>
     <row r="78" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A78" s="31"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="50" t="s">
+      <c r="A78" s="37"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="51"/>
+      <c r="F78" s="24"/>
       <c r="G78" s="15"/>
       <c r="H78" s="11"/>
       <c r="I78" s="3"/>
@@ -9196,14 +9196,14 @@
       <c r="CJ78" s="6"/>
     </row>
     <row r="79" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A79" s="31"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="50" t="s">
+      <c r="A79" s="37"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="51"/>
+      <c r="F79" s="24"/>
       <c r="G79" s="15"/>
       <c r="H79" s="11"/>
       <c r="I79" s="3"/>
@@ -9288,14 +9288,14 @@
       <c r="CJ79" s="6"/>
     </row>
     <row r="80" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A80" s="31"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="50" t="s">
+      <c r="A80" s="37"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="51"/>
+      <c r="F80" s="24"/>
       <c r="G80" s="15"/>
       <c r="H80" s="11"/>
       <c r="I80" s="3"/>
@@ -9380,14 +9380,14 @@
       <c r="CJ80" s="6"/>
     </row>
     <row r="81" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A81" s="31"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="50" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="51"/>
+      <c r="F81" s="24"/>
       <c r="G81" s="15"/>
       <c r="H81" s="11"/>
       <c r="I81" s="3"/>
@@ -9472,14 +9472,14 @@
       <c r="CJ81" s="6"/>
     </row>
     <row r="82" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="31"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="50" t="s">
+      <c r="A82" s="37"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="51"/>
+      <c r="F82" s="24"/>
       <c r="G82" s="15"/>
       <c r="H82" s="11"/>
       <c r="I82" s="3"/>
@@ -9564,16 +9564,16 @@
       <c r="CJ82" s="6"/>
     </row>
     <row r="83" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A83" s="31"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="25" t="s">
+      <c r="A83" s="37"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="31"/>
+      <c r="D83" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="50" t="s">
+      <c r="E83" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="51"/>
+      <c r="F83" s="24"/>
       <c r="G83" s="15"/>
       <c r="H83" s="11"/>
       <c r="I83" s="3"/>
@@ -9658,14 +9658,14 @@
       <c r="CJ83" s="6"/>
     </row>
     <row r="84" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A84" s="31"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="50" t="s">
+      <c r="A84" s="37"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="31"/>
+      <c r="D84" s="31"/>
+      <c r="E84" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="51"/>
+      <c r="F84" s="24"/>
       <c r="G84" s="15"/>
       <c r="H84" s="11"/>
       <c r="I84" s="3"/>
@@ -9750,14 +9750,14 @@
       <c r="CJ84" s="6"/>
     </row>
     <row r="85" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A85" s="31"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="50" t="s">
+      <c r="A85" s="37"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="51"/>
+      <c r="F85" s="24"/>
       <c r="G85" s="15"/>
       <c r="H85" s="11"/>
       <c r="I85" s="3"/>
@@ -9842,14 +9842,14 @@
       <c r="CJ85" s="6"/>
     </row>
     <row r="86" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A86" s="31"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="50" t="s">
+      <c r="A86" s="37"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="51"/>
+      <c r="F86" s="24"/>
       <c r="G86" s="15"/>
       <c r="H86" s="11"/>
       <c r="I86" s="3"/>
@@ -9934,14 +9934,14 @@
       <c r="CJ86" s="6"/>
     </row>
     <row r="87" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A87" s="31"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="50" t="s">
+      <c r="A87" s="37"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="51"/>
+      <c r="F87" s="24"/>
       <c r="G87" s="15"/>
       <c r="H87" s="11"/>
       <c r="I87" s="3"/>
@@ -10026,14 +10026,14 @@
       <c r="CJ87" s="6"/>
     </row>
     <row r="88" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="31"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="50" t="s">
+      <c r="A88" s="37"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="51"/>
+      <c r="F88" s="24"/>
       <c r="G88" s="15"/>
       <c r="H88" s="11"/>
       <c r="I88" s="3"/>
@@ -10118,16 +10118,16 @@
       <c r="CJ88" s="6"/>
     </row>
     <row r="89" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A89" s="31"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="25" t="s">
+      <c r="A89" s="37"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="40" t="s">
+      <c r="D89" s="30"/>
+      <c r="E89" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="41"/>
+      <c r="F89" s="34"/>
       <c r="G89" s="15"/>
       <c r="H89" s="11"/>
       <c r="I89" s="3"/>
@@ -10212,14 +10212,14 @@
       <c r="CJ89" s="6"/>
     </row>
     <row r="90" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A90" s="31"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="40" t="s">
+      <c r="A90" s="37"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="41"/>
+      <c r="F90" s="34"/>
       <c r="G90" s="15"/>
       <c r="H90" s="11"/>
       <c r="I90" s="3"/>
@@ -10304,14 +10304,14 @@
       <c r="CJ90" s="6"/>
     </row>
     <row r="91" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A91" s="31"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="40" t="s">
+      <c r="A91" s="37"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="41"/>
+      <c r="F91" s="34"/>
       <c r="G91" s="15"/>
       <c r="H91" s="11"/>
       <c r="I91" s="3"/>
@@ -10396,14 +10396,14 @@
       <c r="CJ91" s="6"/>
     </row>
     <row r="92" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A92" s="31"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="40" t="s">
+      <c r="A92" s="37"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="41"/>
+      <c r="F92" s="34"/>
       <c r="G92" s="15"/>
       <c r="H92" s="11"/>
       <c r="I92" s="3"/>
@@ -10488,14 +10488,14 @@
       <c r="CJ92" s="6"/>
     </row>
     <row r="93" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="31"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="40" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="41"/>
+      <c r="F93" s="34"/>
       <c r="G93" s="15"/>
       <c r="H93" s="11"/>
       <c r="I93" s="3"/>
@@ -10580,16 +10580,16 @@
       <c r="CJ93" s="6"/>
     </row>
     <row r="94" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="31"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="27"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="32"/>
       <c r="D94" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="40" t="s">
+      <c r="E94" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="41"/>
+      <c r="F94" s="34"/>
       <c r="G94" s="15"/>
       <c r="H94" s="11"/>
       <c r="I94" s="3"/>
@@ -10674,16 +10674,16 @@
       <c r="CJ94" s="6"/>
     </row>
     <row r="95" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A95" s="31"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="25" t="s">
+      <c r="A95" s="37"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="40" t="s">
+      <c r="D95" s="30"/>
+      <c r="E95" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="41"/>
+      <c r="F95" s="34"/>
       <c r="G95" s="15"/>
       <c r="H95" s="11"/>
       <c r="I95" s="3"/>
@@ -10768,14 +10768,14 @@
       <c r="CJ95" s="6"/>
     </row>
     <row r="96" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A96" s="31"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="50" t="s">
+      <c r="A96" s="37"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="51"/>
+      <c r="F96" s="24"/>
       <c r="G96" s="15"/>
       <c r="H96" s="11"/>
       <c r="I96" s="3"/>
@@ -10860,14 +10860,14 @@
       <c r="CJ96" s="6"/>
     </row>
     <row r="97" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A97" s="31"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="50" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="51"/>
+      <c r="F97" s="24"/>
       <c r="G97" s="15"/>
       <c r="H97" s="11"/>
       <c r="I97" s="3"/>
@@ -10952,14 +10952,14 @@
       <c r="CJ97" s="6"/>
     </row>
     <row r="98" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="31"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="40" t="s">
+      <c r="A98" s="37"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="41"/>
+      <c r="F98" s="34"/>
       <c r="G98" s="15"/>
       <c r="H98" s="11"/>
       <c r="I98" s="3"/>
@@ -11044,20 +11044,20 @@
       <c r="CJ98" s="6"/>
     </row>
     <row r="99" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A99" s="31"/>
-      <c r="B99" s="35" t="s">
+      <c r="A99" s="37"/>
+      <c r="B99" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D99" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="41"/>
+      <c r="F99" s="34"/>
       <c r="G99" s="15"/>
       <c r="H99" s="11"/>
       <c r="I99" s="3"/>
@@ -11142,14 +11142,14 @@
       <c r="CJ99" s="6"/>
     </row>
     <row r="100" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A100" s="31"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="36"/>
-      <c r="E100" s="40" t="s">
+      <c r="A100" s="37"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="41"/>
+      <c r="F100" s="34"/>
       <c r="G100" s="15"/>
       <c r="H100" s="11"/>
       <c r="I100" s="3"/>
@@ -11234,14 +11234,14 @@
       <c r="CJ100" s="6"/>
     </row>
     <row r="101" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="31"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="50" t="s">
+      <c r="A101" s="37"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="51"/>
+      <c r="F101" s="24"/>
       <c r="G101" s="15"/>
       <c r="H101" s="11"/>
       <c r="I101" s="3"/>
@@ -11326,16 +11326,16 @@
       <c r="CJ101" s="6"/>
     </row>
     <row r="102" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A102" s="31"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="25" t="s">
+      <c r="A102" s="37"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="50" t="s">
+      <c r="D102" s="30"/>
+      <c r="E102" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="51"/>
+      <c r="F102" s="24"/>
       <c r="G102" s="15"/>
       <c r="H102" s="11"/>
       <c r="I102" s="3"/>
@@ -11420,14 +11420,14 @@
       <c r="CJ102" s="6"/>
     </row>
     <row r="103" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="31"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="50" t="s">
+      <c r="A103" s="37"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="51"/>
+      <c r="F103" s="24"/>
       <c r="G103" s="15"/>
       <c r="H103" s="11"/>
       <c r="I103" s="3"/>
@@ -11512,16 +11512,16 @@
       <c r="CJ103" s="6"/>
     </row>
     <row r="104" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A104" s="31"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="33" t="s">
+      <c r="A104" s="37"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="40" t="s">
+      <c r="D104" s="30"/>
+      <c r="E104" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="41"/>
+      <c r="F104" s="34"/>
       <c r="G104" s="15"/>
       <c r="H104" s="11"/>
       <c r="I104" s="3"/>
@@ -11606,14 +11606,14 @@
       <c r="CJ104" s="6"/>
     </row>
     <row r="105" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="31"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="34"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="40" t="s">
+      <c r="A105" s="37"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="41"/>
+      <c r="F105" s="34"/>
       <c r="G105" s="15"/>
       <c r="H105" s="11"/>
       <c r="I105" s="3"/>
@@ -11698,16 +11698,16 @@
       <c r="CJ105" s="6"/>
     </row>
     <row r="106" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="31"/>
-      <c r="B106" s="29"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="20"/>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="51"/>
+      <c r="F106" s="24"/>
       <c r="G106" s="15"/>
       <c r="H106" s="11"/>
       <c r="I106" s="3"/>
@@ -11792,16 +11792,16 @@
       <c r="CJ106" s="6"/>
     </row>
     <row r="107" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="32"/>
-      <c r="B107" s="30"/>
+      <c r="A107" s="60"/>
+      <c r="B107" s="40"/>
       <c r="C107" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="20"/>
-      <c r="E107" s="52" t="s">
+      <c r="E107" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="53"/>
+      <c r="F107" s="26"/>
       <c r="G107" s="17"/>
       <c r="H107" s="13"/>
       <c r="I107" s="8"/>
@@ -11887,6 +11887,136 @@
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C64:C88"/>
+    <mergeCell ref="D64:D75"/>
+    <mergeCell ref="D76:D82"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A38:A63"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B63"/>
+    <mergeCell ref="B64:B98"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="D89:D93"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C51"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A64:A107"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:AO1"/>
+    <mergeCell ref="BU1:CJ1"/>
+    <mergeCell ref="AP1:BT1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
     <mergeCell ref="E106:F106"/>
     <mergeCell ref="E107:F107"/>
     <mergeCell ref="A1:F1"/>
@@ -11911,136 +12041,6 @@
     <mergeCell ref="E95:F95"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:AO1"/>
-    <mergeCell ref="BU1:CJ1"/>
-    <mergeCell ref="AP1:BT1"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B99:B107"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C64:C88"/>
-    <mergeCell ref="D64:D75"/>
-    <mergeCell ref="D76:D82"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="C2:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A38:A63"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B63"/>
-    <mergeCell ref="B64:B98"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="D89:D93"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C51"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A64:A107"/>
-    <mergeCell ref="C58:C61"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="4">
@@ -850,6 +850,24 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>105項目</t>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -858,7 +876,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,6 +900,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -897,7 +923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1256,13 +1282,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1332,25 +1387,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1362,21 +1408,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,23 +1417,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1422,32 +1468,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1726,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ107"/>
+  <dimension ref="A1:CK111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1747,127 +1821,129 @@
     <col min="51" max="72" width="5.19921875" customWidth="1"/>
     <col min="73" max="81" width="4.19921875" customWidth="1"/>
     <col min="82" max="88" width="5.19921875" customWidth="1"/>
+    <col min="89" max="89" width="5.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="27" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="27" t="s">
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="45"/>
-      <c r="BT1" s="46"/>
-      <c r="BU1" s="27" t="s">
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="40"/>
+      <c r="AU1" s="40"/>
+      <c r="AV1" s="40"/>
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="40"/>
+      <c r="BA1" s="40"/>
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="40"/>
+      <c r="BE1" s="40"/>
+      <c r="BF1" s="40"/>
+      <c r="BG1" s="40"/>
+      <c r="BH1" s="40"/>
+      <c r="BI1" s="40"/>
+      <c r="BJ1" s="40"/>
+      <c r="BK1" s="40"/>
+      <c r="BL1" s="40"/>
+      <c r="BM1" s="40"/>
+      <c r="BN1" s="40"/>
+      <c r="BO1" s="40"/>
+      <c r="BP1" s="40"/>
+      <c r="BQ1" s="40"/>
+      <c r="BR1" s="40"/>
+      <c r="BS1" s="40"/>
+      <c r="BT1" s="41"/>
+      <c r="BU1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="45"/>
-      <c r="BW1" s="45"/>
-      <c r="BX1" s="45"/>
-      <c r="BY1" s="45"/>
-      <c r="BZ1" s="45"/>
-      <c r="CA1" s="45"/>
-      <c r="CB1" s="45"/>
-      <c r="CC1" s="45"/>
-      <c r="CD1" s="45"/>
-      <c r="CE1" s="45"/>
-      <c r="CF1" s="45"/>
-      <c r="CG1" s="45"/>
-      <c r="CH1" s="45"/>
-      <c r="CI1" s="45"/>
-      <c r="CJ1" s="46"/>
+      <c r="BV1" s="40"/>
+      <c r="BW1" s="40"/>
+      <c r="BX1" s="40"/>
+      <c r="BY1" s="40"/>
+      <c r="BZ1" s="40"/>
+      <c r="CA1" s="40"/>
+      <c r="CB1" s="40"/>
+      <c r="CC1" s="40"/>
+      <c r="CD1" s="40"/>
+      <c r="CE1" s="40"/>
+      <c r="CF1" s="40"/>
+      <c r="CG1" s="40"/>
+      <c r="CH1" s="40"/>
+      <c r="CI1" s="40"/>
+      <c r="CJ1" s="65"/>
+      <c r="CK1" s="23"/>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="14"/>
       <c r="H2" s="10">
         <v>44862</v>
@@ -2109,19 +2185,22 @@
       <c r="CI2" s="2">
         <v>44941</v>
       </c>
-      <c r="CJ2" s="5">
+      <c r="CJ2" s="66">
         <v>44942</v>
       </c>
+      <c r="CK2" s="23" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A3" s="37"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="23" t="s">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="15"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
@@ -2204,16 +2283,20 @@
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="6"/>
+      <c r="CK3" s="64" t="str">
+        <f>IF(COUNTA(H3:CJ3)=1,"〇","")</f>
+        <v/>
+      </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="23" t="s">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A4" s="33"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="15"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
@@ -2296,16 +2379,20 @@
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
       <c r="CJ4" s="6"/>
+      <c r="CK4" s="15" t="str">
+        <f t="shared" ref="CK4:CK67" si="0">IF(COUNTA(H4:CJ4)=1,"〇","")</f>
+        <v/>
+      </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A5" s="37"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="23" t="s">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="15"/>
       <c r="H5" s="11"/>
       <c r="I5" s="3"/>
@@ -2388,16 +2475,20 @@
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
       <c r="CJ5" s="6"/>
+      <c r="CK5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="23" t="s">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A6" s="33"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="15"/>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
@@ -2480,16 +2571,20 @@
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
       <c r="CJ6" s="6"/>
+      <c r="CK6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A7" s="37"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="23" t="s">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A7" s="33"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="15"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
@@ -2572,16 +2667,20 @@
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
       <c r="CJ7" s="6"/>
+      <c r="CK7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="23" t="s">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A8" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="15"/>
       <c r="H8" s="11"/>
       <c r="I8" s="3"/>
@@ -2664,16 +2763,20 @@
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="6"/>
+      <c r="CK8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A9" s="37"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="23" t="s">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A9" s="33"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="3"/>
@@ -2756,16 +2859,20 @@
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="6"/>
+      <c r="CK9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A10" s="37"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="23" t="s">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="53"/>
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
@@ -2848,16 +2955,20 @@
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
       <c r="CJ10" s="6"/>
+      <c r="CK10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A11" s="37"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="23" t="s">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A11" s="33"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="3"/>
@@ -2940,16 +3051,20 @@
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="6"/>
+      <c r="CK11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="23" t="s">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11"/>
       <c r="I12" s="3"/>
@@ -3032,16 +3147,20 @@
       <c r="CH12" s="3"/>
       <c r="CI12" s="3"/>
       <c r="CJ12" s="6"/>
+      <c r="CK12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="13" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="37"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="25" t="s">
+    <row r="13" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="33"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="26"/>
+      <c r="F13" s="55"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11"/>
       <c r="I13" s="3"/>
@@ -3124,18 +3243,22 @@
       <c r="CH13" s="3"/>
       <c r="CI13" s="3"/>
       <c r="CJ13" s="6"/>
+      <c r="CK13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A14" s="37"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="57" t="s">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="15"/>
       <c r="H14" s="11"/>
       <c r="I14" s="3"/>
@@ -3154,7 +3277,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="22"/>
+      <c r="Y14" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
@@ -3218,16 +3343,20 @@
       <c r="CH14" s="3"/>
       <c r="CI14" s="3"/>
       <c r="CJ14" s="6"/>
+      <c r="CK14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A15" s="37"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="33" t="s">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A15" s="33"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="43"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11"/>
       <c r="I15" s="3"/>
@@ -3246,7 +3375,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-      <c r="Y15" s="22"/>
+      <c r="Y15" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
@@ -3310,16 +3441,20 @@
       <c r="CH15" s="3"/>
       <c r="CI15" s="3"/>
       <c r="CJ15" s="6"/>
+      <c r="CK15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="16" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="47" t="s">
+    <row r="16" spans="1:89" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="33"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="16"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
@@ -3402,18 +3537,22 @@
       <c r="CH16" s="4"/>
       <c r="CI16" s="4"/>
       <c r="CJ16" s="7"/>
+      <c r="CK16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="17" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="37"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+    <row r="17" spans="1:89" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="50"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="16"/>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
@@ -3496,18 +3635,22 @@
       <c r="CH17" s="4"/>
       <c r="CI17" s="4"/>
       <c r="CJ17" s="7"/>
+      <c r="CK17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="18" spans="1:88" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="37"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="40"/>
+    <row r="18" spans="1:89" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="33"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="50"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="16"/>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
@@ -3590,20 +3733,24 @@
       <c r="CH18" s="4"/>
       <c r="CI18" s="4"/>
       <c r="CJ18" s="7"/>
+      <c r="CK18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="19" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="37"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="38" t="s">
+    <row r="19" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="33"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="49"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="3"/>
@@ -3686,18 +3833,22 @@
       <c r="CH19" s="3"/>
       <c r="CI19" s="3"/>
       <c r="CJ19" s="6"/>
+      <c r="CK19" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="20" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="37"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+    <row r="20" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="33"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
       <c r="D20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="34"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="15"/>
       <c r="H20" s="11"/>
       <c r="I20" s="3"/>
@@ -3780,18 +3931,22 @@
       <c r="CH20" s="3"/>
       <c r="CI20" s="3"/>
       <c r="CJ20" s="6"/>
+      <c r="CK20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="21" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="37"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+    <row r="21" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="33"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="15"/>
       <c r="H21" s="11"/>
       <c r="I21" s="3"/>
@@ -3874,18 +4029,22 @@
       <c r="CH21" s="3"/>
       <c r="CI21" s="3"/>
       <c r="CJ21" s="6"/>
+      <c r="CK21" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="22" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="37"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+    <row r="22" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="33"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="34"/>
+      <c r="F22" s="43"/>
       <c r="G22" s="15"/>
       <c r="H22" s="11"/>
       <c r="I22" s="3"/>
@@ -3968,18 +4127,22 @@
       <c r="CH22" s="3"/>
       <c r="CI22" s="3"/>
       <c r="CJ22" s="6"/>
+      <c r="CK22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="23" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="37"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+    <row r="23" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="34"/>
+      <c r="F23" s="43"/>
       <c r="G23" s="15"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3"/>
@@ -4062,18 +4225,22 @@
       <c r="CH23" s="3"/>
       <c r="CI23" s="3"/>
       <c r="CJ23" s="6"/>
+      <c r="CK23" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="24" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="37"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40"/>
+    <row r="24" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="34"/>
+      <c r="F24" s="43"/>
       <c r="G24" s="15"/>
       <c r="H24" s="11"/>
       <c r="I24" s="3"/>
@@ -4156,18 +4323,22 @@
       <c r="CH24" s="3"/>
       <c r="CI24" s="3"/>
       <c r="CJ24" s="6"/>
+      <c r="CK24" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="25" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A25" s="37"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="38" t="s">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A25" s="33"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="33" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="34"/>
+      <c r="F25" s="43"/>
       <c r="G25" s="15"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3"/>
@@ -4250,16 +4421,20 @@
       <c r="CH25" s="3"/>
       <c r="CI25" s="3"/>
       <c r="CJ25" s="6"/>
+      <c r="CK25" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="26" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A26" s="37"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="23" t="s">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A26" s="33"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="24"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="15"/>
       <c r="H26" s="11"/>
       <c r="I26" s="3"/>
@@ -4342,16 +4517,20 @@
       <c r="CH26" s="3"/>
       <c r="CI26" s="3"/>
       <c r="CJ26" s="6"/>
+      <c r="CK26" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="27" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A27" s="37"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="23" t="s">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A27" s="33"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="24"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="15"/>
       <c r="H27" s="11"/>
       <c r="I27" s="3"/>
@@ -4434,16 +4613,20 @@
       <c r="CH27" s="3"/>
       <c r="CI27" s="3"/>
       <c r="CJ27" s="6"/>
+      <c r="CK27" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="28" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="37"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33" t="s">
+    <row r="28" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="33"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="34"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="15"/>
       <c r="H28" s="11"/>
       <c r="I28" s="3"/>
@@ -4526,18 +4709,22 @@
       <c r="CH28" s="3"/>
       <c r="CI28" s="3"/>
       <c r="CJ28" s="6"/>
+      <c r="CK28" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="29" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A29" s="37"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="38" t="s">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="33" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="34"/>
+      <c r="F29" s="43"/>
       <c r="G29" s="15"/>
       <c r="H29" s="11"/>
       <c r="I29" s="3"/>
@@ -4557,7 +4744,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
+      <c r="Z29" s="62"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -4620,16 +4807,20 @@
       <c r="CH29" s="3"/>
       <c r="CI29" s="3"/>
       <c r="CJ29" s="6"/>
+      <c r="CK29" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="30" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A30" s="37"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="33" t="s">
+    <row r="30" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A30" s="33"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="15"/>
       <c r="H30" s="11"/>
       <c r="I30" s="3"/>
@@ -4649,7 +4840,9 @@
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
+      <c r="Z30" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
@@ -4712,16 +4905,20 @@
       <c r="CH30" s="3"/>
       <c r="CI30" s="3"/>
       <c r="CJ30" s="6"/>
+      <c r="CK30" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="31" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A31" s="37"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="33" t="s">
+    <row r="31" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A31" s="33"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="34"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="I31" s="3"/>
@@ -4741,7 +4938,9 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
+      <c r="Z31" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
@@ -4804,16 +5003,20 @@
       <c r="CH31" s="3"/>
       <c r="CI31" s="3"/>
       <c r="CJ31" s="6"/>
+      <c r="CK31" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="32" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="37"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="33" t="s">
+    <row r="32" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="34"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="15"/>
       <c r="H32" s="11"/>
       <c r="I32" s="3"/>
@@ -4833,7 +5036,9 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="Z32" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
@@ -4896,18 +5101,22 @@
       <c r="CH32" s="3"/>
       <c r="CI32" s="3"/>
       <c r="CJ32" s="6"/>
+      <c r="CK32" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="33" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38" t="s">
+    <row r="33" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A33" s="33"/>
+      <c r="B33" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="33" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="34"/>
+      <c r="F33" s="43"/>
       <c r="G33" s="15"/>
       <c r="H33" s="11"/>
       <c r="I33" s="3"/>
@@ -4990,16 +5199,20 @@
       <c r="CH33" s="3"/>
       <c r="CI33" s="3"/>
       <c r="CJ33" s="6"/>
+      <c r="CK33" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="34" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A34" s="37"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="33" t="s">
+    <row r="34" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A34" s="33"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="34"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="15"/>
       <c r="H34" s="11"/>
       <c r="I34" s="3"/>
@@ -5082,16 +5295,20 @@
       <c r="CH34" s="3"/>
       <c r="CI34" s="3"/>
       <c r="CJ34" s="6"/>
+      <c r="CK34" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="35" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="37"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33" t="s">
+    <row r="35" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="33"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="34"/>
+      <c r="F35" s="43"/>
       <c r="G35" s="15"/>
       <c r="H35" s="11"/>
       <c r="I35" s="3"/>
@@ -5174,18 +5391,22 @@
       <c r="CH35" s="3"/>
       <c r="CI35" s="3"/>
       <c r="CJ35" s="6"/>
+      <c r="CK35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="36" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="37"/>
+    <row r="36" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="33"/>
       <c r="B36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="33" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="34"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="15"/>
       <c r="H36" s="11"/>
       <c r="I36" s="3"/>
@@ -5268,18 +5489,22 @@
       <c r="CH36" s="3"/>
       <c r="CI36" s="3"/>
       <c r="CJ36" s="6"/>
+      <c r="CK36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="37" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="37"/>
+    <row r="37" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="33"/>
       <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="34"/>
+      <c r="F37" s="43"/>
       <c r="G37" s="15"/>
       <c r="H37" s="11"/>
       <c r="I37" s="3"/>
@@ -5362,22 +5587,26 @@
       <c r="CH37" s="3"/>
       <c r="CI37" s="3"/>
       <c r="CJ37" s="6"/>
+      <c r="CK37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="38" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="35" t="s">
+      <c r="E38" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="36"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="15"/>
       <c r="H38" s="11"/>
       <c r="I38" s="3"/>
@@ -5460,20 +5689,24 @@
       <c r="CH38" s="3"/>
       <c r="CI38" s="3"/>
       <c r="CJ38" s="6"/>
+      <c r="CK38" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="39" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="37"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="30" t="s">
+    <row r="39" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="33"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="27" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="24"/>
+      <c r="F39" s="53"/>
       <c r="G39" s="15"/>
       <c r="H39" s="11"/>
       <c r="I39" s="3"/>
@@ -5556,18 +5789,22 @@
       <c r="CH39" s="3"/>
       <c r="CI39" s="3"/>
       <c r="CJ39" s="6"/>
+      <c r="CK39" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="40" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="37"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="32"/>
+    <row r="40" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="33"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="24"/>
+      <c r="F40" s="53"/>
       <c r="G40" s="15"/>
       <c r="H40" s="11"/>
       <c r="I40" s="3"/>
@@ -5650,22 +5887,26 @@
       <c r="CH40" s="3"/>
       <c r="CI40" s="3"/>
       <c r="CJ40" s="6"/>
+      <c r="CK40" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="41" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38" t="s">
+    <row r="41" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A41" s="33"/>
+      <c r="B41" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="36"/>
+      <c r="F41" s="59"/>
       <c r="G41" s="15"/>
       <c r="H41" s="11"/>
       <c r="I41" s="3"/>
@@ -5748,16 +5989,20 @@
       <c r="CH41" s="3"/>
       <c r="CI41" s="3"/>
       <c r="CJ41" s="6"/>
+      <c r="CK41" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="42" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A42" s="37"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="35" t="s">
+    <row r="42" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="36"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="15"/>
       <c r="H42" s="11"/>
       <c r="I42" s="3"/>
@@ -5840,16 +6085,20 @@
       <c r="CH42" s="3"/>
       <c r="CI42" s="3"/>
       <c r="CJ42" s="6"/>
+      <c r="CK42" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="43" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="37"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="35" t="s">
+    <row r="43" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="36"/>
+      <c r="F43" s="59"/>
       <c r="G43" s="15"/>
       <c r="H43" s="11"/>
       <c r="I43" s="3"/>
@@ -5932,18 +6181,22 @@
       <c r="CH43" s="3"/>
       <c r="CI43" s="3"/>
       <c r="CJ43" s="6"/>
+      <c r="CK43" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="44" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A44" s="37"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30" t="s">
+    <row r="44" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="24"/>
+      <c r="F44" s="53"/>
       <c r="G44" s="15"/>
       <c r="H44" s="11"/>
       <c r="I44" s="3"/>
@@ -6026,16 +6279,20 @@
       <c r="CH44" s="3"/>
       <c r="CI44" s="3"/>
       <c r="CJ44" s="6"/>
+      <c r="CK44" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="45" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A45" s="37"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="23" t="s">
+    <row r="45" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A45" s="33"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="24"/>
+      <c r="F45" s="53"/>
       <c r="G45" s="15"/>
       <c r="H45" s="11"/>
       <c r="I45" s="3"/>
@@ -6118,16 +6375,20 @@
       <c r="CH45" s="3"/>
       <c r="CI45" s="3"/>
       <c r="CJ45" s="6"/>
+      <c r="CK45" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="46" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A46" s="37"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="23" t="s">
+    <row r="46" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A46" s="33"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="24"/>
+      <c r="F46" s="53"/>
       <c r="G46" s="15"/>
       <c r="H46" s="11"/>
       <c r="I46" s="3"/>
@@ -6210,16 +6471,20 @@
       <c r="CH46" s="3"/>
       <c r="CI46" s="3"/>
       <c r="CJ46" s="6"/>
+      <c r="CK46" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="47" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="37"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="23" t="s">
+    <row r="47" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A47" s="33"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="24"/>
+      <c r="F47" s="53"/>
       <c r="G47" s="15"/>
       <c r="H47" s="11"/>
       <c r="I47" s="3"/>
@@ -6302,18 +6567,22 @@
       <c r="CH47" s="3"/>
       <c r="CI47" s="3"/>
       <c r="CJ47" s="6"/>
+      <c r="CK47" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="48" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="37"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="31"/>
+    <row r="48" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="33"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="24"/>
+      <c r="F48" s="53"/>
       <c r="G48" s="15"/>
       <c r="H48" s="11"/>
       <c r="I48" s="3"/>
@@ -6396,18 +6665,22 @@
       <c r="CH48" s="3"/>
       <c r="CI48" s="3"/>
       <c r="CJ48" s="6"/>
+      <c r="CK48" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="49" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A49" s="37"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="30" t="s">
+    <row r="49" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A49" s="33"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="24"/>
+      <c r="F49" s="53"/>
       <c r="G49" s="15"/>
       <c r="H49" s="11"/>
       <c r="I49" s="3"/>
@@ -6490,16 +6763,20 @@
       <c r="CH49" s="3"/>
       <c r="CI49" s="3"/>
       <c r="CJ49" s="6"/>
+      <c r="CK49" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="50" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A50" s="37"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="23" t="s">
+    <row r="50" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A50" s="33"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="24"/>
+      <c r="F50" s="53"/>
       <c r="G50" s="15"/>
       <c r="H50" s="11"/>
       <c r="I50" s="3"/>
@@ -6582,16 +6859,20 @@
       <c r="CH50" s="3"/>
       <c r="CI50" s="3"/>
       <c r="CJ50" s="6"/>
+      <c r="CK50" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="51" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="37"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="23" t="s">
+    <row r="51" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="33"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="24"/>
+      <c r="F51" s="53"/>
       <c r="G51" s="15"/>
       <c r="H51" s="11"/>
       <c r="I51" s="3"/>
@@ -6674,20 +6955,24 @@
       <c r="CH51" s="3"/>
       <c r="CI51" s="3"/>
       <c r="CJ51" s="6"/>
+      <c r="CK51" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="52" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A52" s="37"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="30" t="s">
+    <row r="52" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A52" s="33"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="24"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="15"/>
       <c r="H52" s="11"/>
       <c r="I52" s="3"/>
@@ -6770,16 +7055,20 @@
       <c r="CH52" s="3"/>
       <c r="CI52" s="3"/>
       <c r="CJ52" s="6"/>
+      <c r="CK52" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="53" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="37"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="23" t="s">
+    <row r="53" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="33"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="24"/>
+      <c r="F53" s="53"/>
       <c r="G53" s="15"/>
       <c r="H53" s="11"/>
       <c r="I53" s="3"/>
@@ -6862,18 +7151,22 @@
       <c r="CH53" s="3"/>
       <c r="CI53" s="3"/>
       <c r="CJ53" s="6"/>
+      <c r="CK53" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="54" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="37"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="31"/>
+    <row r="54" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="33"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="28"/>
       <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="23" t="s">
+      <c r="E54" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="24"/>
+      <c r="F54" s="53"/>
       <c r="G54" s="15"/>
       <c r="H54" s="11"/>
       <c r="I54" s="3"/>
@@ -6956,18 +7249,22 @@
       <c r="CH54" s="3"/>
       <c r="CI54" s="3"/>
       <c r="CJ54" s="6"/>
+      <c r="CK54" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="55" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="37"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="31"/>
+    <row r="55" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="33"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="24"/>
+      <c r="F55" s="53"/>
       <c r="G55" s="15"/>
       <c r="H55" s="11"/>
       <c r="I55" s="3"/>
@@ -7050,18 +7347,22 @@
       <c r="CH55" s="3"/>
       <c r="CI55" s="3"/>
       <c r="CJ55" s="6"/>
+      <c r="CK55" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="56" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="37"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="31"/>
+    <row r="56" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="33"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="24"/>
+      <c r="F56" s="53"/>
       <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="3"/>
@@ -7144,18 +7445,22 @@
       <c r="CH56" s="3"/>
       <c r="CI56" s="3"/>
       <c r="CJ56" s="6"/>
+      <c r="CK56" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="57" spans="1:88" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="37"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="32"/>
+    <row r="57" spans="1:89" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="33"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="24"/>
+      <c r="F57" s="53"/>
       <c r="G57" s="15"/>
       <c r="H57" s="11"/>
       <c r="I57" s="3"/>
@@ -7238,20 +7543,24 @@
       <c r="CH57" s="3"/>
       <c r="CI57" s="3"/>
       <c r="CJ57" s="6"/>
+      <c r="CK57" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="58" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="37"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="30" t="s">
+    <row r="58" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="33"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="24"/>
+      <c r="F58" s="53"/>
       <c r="G58" s="15"/>
       <c r="H58" s="11"/>
       <c r="I58" s="3"/>
@@ -7334,18 +7643,22 @@
       <c r="CH58" s="3"/>
       <c r="CI58" s="3"/>
       <c r="CJ58" s="6"/>
+      <c r="CK58" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="59" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="37"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="31"/>
+    <row r="59" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="33"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="28"/>
       <c r="D59" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="24"/>
+      <c r="F59" s="53"/>
       <c r="G59" s="15"/>
       <c r="H59" s="11"/>
       <c r="I59" s="3"/>
@@ -7428,18 +7741,22 @@
       <c r="CH59" s="3"/>
       <c r="CI59" s="3"/>
       <c r="CJ59" s="6"/>
+      <c r="CK59" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="60" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="37"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="31"/>
+    <row r="60" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A60" s="33"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="24"/>
+      <c r="F60" s="53"/>
       <c r="G60" s="15"/>
       <c r="H60" s="11"/>
       <c r="I60" s="3"/>
@@ -7522,18 +7839,22 @@
       <c r="CH60" s="3"/>
       <c r="CI60" s="3"/>
       <c r="CJ60" s="6"/>
+      <c r="CK60" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="61" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="37"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="32"/>
+    <row r="61" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A61" s="33"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="23" t="s">
+      <c r="E61" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="53"/>
       <c r="G61" s="15"/>
       <c r="H61" s="11"/>
       <c r="I61" s="3"/>
@@ -7616,18 +7937,22 @@
       <c r="CH61" s="3"/>
       <c r="CI61" s="3"/>
       <c r="CJ61" s="6"/>
+      <c r="CK61" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="62" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="37"/>
-      <c r="B62" s="39"/>
+    <row r="62" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A62" s="33"/>
+      <c r="B62" s="31"/>
       <c r="C62" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="20"/>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="24"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="15"/>
       <c r="H62" s="11"/>
       <c r="I62" s="3"/>
@@ -7710,18 +8035,22 @@
       <c r="CH62" s="3"/>
       <c r="CI62" s="3"/>
       <c r="CJ62" s="6"/>
+      <c r="CK62" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="63" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="37"/>
-      <c r="B63" s="40"/>
+    <row r="63" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A63" s="33"/>
+      <c r="B63" s="32"/>
       <c r="C63" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="23" t="s">
+      <c r="E63" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="24"/>
+      <c r="F63" s="53"/>
       <c r="G63" s="15"/>
       <c r="H63" s="11"/>
       <c r="I63" s="3"/>
@@ -7804,24 +8133,28 @@
       <c r="CH63" s="3"/>
       <c r="CI63" s="3"/>
       <c r="CJ63" s="6"/>
+      <c r="CK63" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
-    <row r="64" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A64" s="37" t="s">
+    <row r="64" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A64" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="30" t="s">
+      <c r="C64" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="24"/>
+      <c r="F64" s="53"/>
       <c r="G64" s="15"/>
       <c r="H64" s="11"/>
       <c r="I64" s="3"/>
@@ -7830,7 +8163,9 @@
       <c r="L64" s="11"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="22"/>
+      <c r="O64" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
@@ -7904,16 +8239,20 @@
       <c r="CH64" s="3"/>
       <c r="CI64" s="3"/>
       <c r="CJ64" s="6"/>
+      <c r="CK64" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="65" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A65" s="37"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="23" t="s">
+    <row r="65" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A65" s="33"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="24"/>
+      <c r="F65" s="53"/>
       <c r="G65" s="15"/>
       <c r="H65" s="11"/>
       <c r="I65" s="3"/>
@@ -7922,7 +8261,9 @@
       <c r="L65" s="11"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="22"/>
+      <c r="O65" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
@@ -7996,16 +8337,20 @@
       <c r="CH65" s="3"/>
       <c r="CI65" s="3"/>
       <c r="CJ65" s="6"/>
+      <c r="CK65" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="66" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A66" s="37"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="23" t="s">
+    <row r="66" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A66" s="33"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="24"/>
+      <c r="F66" s="53"/>
       <c r="G66" s="15"/>
       <c r="H66" s="11"/>
       <c r="I66" s="3"/>
@@ -8014,7 +8359,9 @@
       <c r="L66" s="11"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="22"/>
+      <c r="O66" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -8088,16 +8435,20 @@
       <c r="CH66" s="3"/>
       <c r="CI66" s="3"/>
       <c r="CJ66" s="6"/>
+      <c r="CK66" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="67" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A67" s="37"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="23" t="s">
+    <row r="67" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A67" s="33"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="24"/>
+      <c r="F67" s="53"/>
       <c r="G67" s="15"/>
       <c r="H67" s="11"/>
       <c r="I67" s="3"/>
@@ -8106,7 +8457,9 @@
       <c r="L67" s="11"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="O67" s="22"/>
+      <c r="O67" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
@@ -8180,16 +8533,20 @@
       <c r="CH67" s="3"/>
       <c r="CI67" s="3"/>
       <c r="CJ67" s="6"/>
+      <c r="CK67" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="68" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A68" s="37"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="23" t="s">
+    <row r="68" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A68" s="33"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="24"/>
+      <c r="F68" s="53"/>
       <c r="G68" s="15"/>
       <c r="H68" s="11"/>
       <c r="I68" s="3"/>
@@ -8198,7 +8555,9 @@
       <c r="L68" s="11"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="22"/>
+      <c r="O68" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
@@ -8272,16 +8631,20 @@
       <c r="CH68" s="3"/>
       <c r="CI68" s="3"/>
       <c r="CJ68" s="6"/>
+      <c r="CK68" s="15" t="str">
+        <f t="shared" ref="CK68:CK107" si="1">IF(COUNTA(H68:CJ68)=1,"〇","")</f>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="69" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A69" s="37"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="23" t="s">
+    <row r="69" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A69" s="33"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="24"/>
+      <c r="F69" s="53"/>
       <c r="G69" s="15"/>
       <c r="H69" s="11"/>
       <c r="I69" s="3"/>
@@ -8290,7 +8653,9 @@
       <c r="L69" s="11"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="22"/>
+      <c r="O69" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
@@ -8364,16 +8729,20 @@
       <c r="CH69" s="3"/>
       <c r="CI69" s="3"/>
       <c r="CJ69" s="6"/>
+      <c r="CK69" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>〇</v>
+      </c>
     </row>
-    <row r="70" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A70" s="37"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="23" t="s">
+    <row r="70" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A70" s="33"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="24"/>
+      <c r="F70" s="53"/>
       <c r="G70" s="15"/>
       <c r="H70" s="11"/>
       <c r="I70" s="3"/>
@@ -8456,16 +8825,20 @@
       <c r="CH70" s="3"/>
       <c r="CI70" s="3"/>
       <c r="CJ70" s="6"/>
+      <c r="CK70" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="71" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A71" s="37"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="23" t="s">
+    <row r="71" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A71" s="33"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="24"/>
+      <c r="F71" s="53"/>
       <c r="G71" s="15"/>
       <c r="H71" s="11"/>
       <c r="I71" s="3"/>
@@ -8548,16 +8921,20 @@
       <c r="CH71" s="3"/>
       <c r="CI71" s="3"/>
       <c r="CJ71" s="6"/>
+      <c r="CK71" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="72" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A72" s="37"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="23" t="s">
+    <row r="72" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A72" s="33"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="24"/>
+      <c r="F72" s="53"/>
       <c r="G72" s="15"/>
       <c r="H72" s="11"/>
       <c r="I72" s="3"/>
@@ -8640,16 +9017,20 @@
       <c r="CH72" s="3"/>
       <c r="CI72" s="3"/>
       <c r="CJ72" s="6"/>
+      <c r="CK72" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="73" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A73" s="37"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="23" t="s">
+    <row r="73" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A73" s="33"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="24"/>
+      <c r="F73" s="53"/>
       <c r="G73" s="15"/>
       <c r="H73" s="11"/>
       <c r="I73" s="3"/>
@@ -8732,16 +9113,20 @@
       <c r="CH73" s="3"/>
       <c r="CI73" s="3"/>
       <c r="CJ73" s="6"/>
+      <c r="CK73" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="74" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A74" s="37"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="23" t="s">
+    <row r="74" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A74" s="33"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="24"/>
+      <c r="F74" s="53"/>
       <c r="G74" s="15"/>
       <c r="H74" s="11"/>
       <c r="I74" s="3"/>
@@ -8824,16 +9209,20 @@
       <c r="CH74" s="3"/>
       <c r="CI74" s="3"/>
       <c r="CJ74" s="6"/>
+      <c r="CK74" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="75" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="37"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="23" t="s">
+    <row r="75" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="33"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="24"/>
+      <c r="F75" s="53"/>
       <c r="G75" s="15"/>
       <c r="H75" s="11"/>
       <c r="I75" s="3"/>
@@ -8916,18 +9305,22 @@
       <c r="CH75" s="3"/>
       <c r="CI75" s="3"/>
       <c r="CJ75" s="6"/>
+      <c r="CK75" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="76" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A76" s="37"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="30" t="s">
+    <row r="76" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A76" s="33"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="23" t="s">
+      <c r="E76" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="24"/>
+      <c r="F76" s="53"/>
       <c r="G76" s="15"/>
       <c r="H76" s="11"/>
       <c r="I76" s="3"/>
@@ -9010,16 +9403,20 @@
       <c r="CH76" s="3"/>
       <c r="CI76" s="3"/>
       <c r="CJ76" s="6"/>
+      <c r="CK76" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="77" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A77" s="37"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="23" t="s">
+    <row r="77" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A77" s="33"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="24"/>
+      <c r="F77" s="53"/>
       <c r="G77" s="15"/>
       <c r="H77" s="11"/>
       <c r="I77" s="3"/>
@@ -9102,16 +9499,20 @@
       <c r="CH77" s="3"/>
       <c r="CI77" s="3"/>
       <c r="CJ77" s="6"/>
+      <c r="CK77" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="78" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A78" s="37"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="23" t="s">
+    <row r="78" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A78" s="33"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="24"/>
+      <c r="F78" s="53"/>
       <c r="G78" s="15"/>
       <c r="H78" s="11"/>
       <c r="I78" s="3"/>
@@ -9194,16 +9595,20 @@
       <c r="CH78" s="3"/>
       <c r="CI78" s="3"/>
       <c r="CJ78" s="6"/>
+      <c r="CK78" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="79" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A79" s="37"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="23" t="s">
+    <row r="79" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A79" s="33"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="24"/>
+      <c r="F79" s="53"/>
       <c r="G79" s="15"/>
       <c r="H79" s="11"/>
       <c r="I79" s="3"/>
@@ -9286,16 +9691,20 @@
       <c r="CH79" s="3"/>
       <c r="CI79" s="3"/>
       <c r="CJ79" s="6"/>
+      <c r="CK79" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="80" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A80" s="37"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="23" t="s">
+    <row r="80" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A80" s="33"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="24"/>
+      <c r="F80" s="53"/>
       <c r="G80" s="15"/>
       <c r="H80" s="11"/>
       <c r="I80" s="3"/>
@@ -9378,16 +9787,20 @@
       <c r="CH80" s="3"/>
       <c r="CI80" s="3"/>
       <c r="CJ80" s="6"/>
+      <c r="CK80" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="81" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A81" s="37"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="23" t="s">
+    <row r="81" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A81" s="33"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="24"/>
+      <c r="F81" s="53"/>
       <c r="G81" s="15"/>
       <c r="H81" s="11"/>
       <c r="I81" s="3"/>
@@ -9470,16 +9883,20 @@
       <c r="CH81" s="3"/>
       <c r="CI81" s="3"/>
       <c r="CJ81" s="6"/>
+      <c r="CK81" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="82" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="37"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="23" t="s">
+    <row r="82" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="33"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="24"/>
+      <c r="F82" s="53"/>
       <c r="G82" s="15"/>
       <c r="H82" s="11"/>
       <c r="I82" s="3"/>
@@ -9562,18 +9979,22 @@
       <c r="CH82" s="3"/>
       <c r="CI82" s="3"/>
       <c r="CJ82" s="6"/>
+      <c r="CK82" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="83" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A83" s="37"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="30" t="s">
+    <row r="83" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A83" s="33"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="24"/>
+      <c r="F83" s="53"/>
       <c r="G83" s="15"/>
       <c r="H83" s="11"/>
       <c r="I83" s="3"/>
@@ -9656,16 +10077,20 @@
       <c r="CH83" s="3"/>
       <c r="CI83" s="3"/>
       <c r="CJ83" s="6"/>
+      <c r="CK83" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="84" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A84" s="37"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="23" t="s">
+    <row r="84" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A84" s="33"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="24"/>
+      <c r="F84" s="53"/>
       <c r="G84" s="15"/>
       <c r="H84" s="11"/>
       <c r="I84" s="3"/>
@@ -9748,16 +10173,20 @@
       <c r="CH84" s="3"/>
       <c r="CI84" s="3"/>
       <c r="CJ84" s="6"/>
+      <c r="CK84" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="85" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A85" s="37"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="23" t="s">
+    <row r="85" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A85" s="33"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="24"/>
+      <c r="F85" s="53"/>
       <c r="G85" s="15"/>
       <c r="H85" s="11"/>
       <c r="I85" s="3"/>
@@ -9840,16 +10269,20 @@
       <c r="CH85" s="3"/>
       <c r="CI85" s="3"/>
       <c r="CJ85" s="6"/>
+      <c r="CK85" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="86" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A86" s="37"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="23" t="s">
+    <row r="86" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A86" s="33"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="24"/>
+      <c r="F86" s="53"/>
       <c r="G86" s="15"/>
       <c r="H86" s="11"/>
       <c r="I86" s="3"/>
@@ -9932,16 +10365,20 @@
       <c r="CH86" s="3"/>
       <c r="CI86" s="3"/>
       <c r="CJ86" s="6"/>
+      <c r="CK86" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="87" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A87" s="37"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="23" t="s">
+    <row r="87" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A87" s="33"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="24"/>
+      <c r="F87" s="53"/>
       <c r="G87" s="15"/>
       <c r="H87" s="11"/>
       <c r="I87" s="3"/>
@@ -10024,16 +10461,20 @@
       <c r="CH87" s="3"/>
       <c r="CI87" s="3"/>
       <c r="CJ87" s="6"/>
+      <c r="CK87" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="88" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="37"/>
-      <c r="B88" s="31"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="23" t="s">
+    <row r="88" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A88" s="33"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="24"/>
+      <c r="F88" s="53"/>
       <c r="G88" s="15"/>
       <c r="H88" s="11"/>
       <c r="I88" s="3"/>
@@ -10116,18 +10557,22 @@
       <c r="CH88" s="3"/>
       <c r="CI88" s="3"/>
       <c r="CJ88" s="6"/>
+      <c r="CK88" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="89" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A89" s="37"/>
-      <c r="B89" s="31"/>
-      <c r="C89" s="30" t="s">
+    <row r="89" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A89" s="33"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="30"/>
-      <c r="E89" s="33" t="s">
+      <c r="D89" s="27"/>
+      <c r="E89" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="34"/>
+      <c r="F89" s="43"/>
       <c r="G89" s="15"/>
       <c r="H89" s="11"/>
       <c r="I89" s="3"/>
@@ -10210,16 +10655,20 @@
       <c r="CH89" s="3"/>
       <c r="CI89" s="3"/>
       <c r="CJ89" s="6"/>
+      <c r="CK89" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="90" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A90" s="37"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="33" t="s">
+    <row r="90" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A90" s="33"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="34"/>
+      <c r="F90" s="43"/>
       <c r="G90" s="15"/>
       <c r="H90" s="11"/>
       <c r="I90" s="3"/>
@@ -10302,16 +10751,20 @@
       <c r="CH90" s="3"/>
       <c r="CI90" s="3"/>
       <c r="CJ90" s="6"/>
+      <c r="CK90" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="91" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A91" s="37"/>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="33" t="s">
+    <row r="91" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A91" s="33"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="34"/>
+      <c r="F91" s="43"/>
       <c r="G91" s="15"/>
       <c r="H91" s="11"/>
       <c r="I91" s="3"/>
@@ -10394,16 +10847,20 @@
       <c r="CH91" s="3"/>
       <c r="CI91" s="3"/>
       <c r="CJ91" s="6"/>
+      <c r="CK91" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="92" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A92" s="37"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="33" t="s">
+    <row r="92" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A92" s="33"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="34"/>
+      <c r="F92" s="43"/>
       <c r="G92" s="15"/>
       <c r="H92" s="11"/>
       <c r="I92" s="3"/>
@@ -10486,16 +10943,20 @@
       <c r="CH92" s="3"/>
       <c r="CI92" s="3"/>
       <c r="CJ92" s="6"/>
+      <c r="CK92" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="93" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="37"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="33" t="s">
+    <row r="93" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A93" s="33"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="34"/>
+      <c r="F93" s="43"/>
       <c r="G93" s="15"/>
       <c r="H93" s="11"/>
       <c r="I93" s="3"/>
@@ -10578,18 +11039,22 @@
       <c r="CH93" s="3"/>
       <c r="CI93" s="3"/>
       <c r="CJ93" s="6"/>
+      <c r="CK93" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="94" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="37"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="32"/>
+    <row r="94" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A94" s="33"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
       <c r="D94" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E94" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="34"/>
+      <c r="F94" s="43"/>
       <c r="G94" s="15"/>
       <c r="H94" s="11"/>
       <c r="I94" s="3"/>
@@ -10672,18 +11137,22 @@
       <c r="CH94" s="3"/>
       <c r="CI94" s="3"/>
       <c r="CJ94" s="6"/>
+      <c r="CK94" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="95" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A95" s="37"/>
-      <c r="B95" s="31"/>
-      <c r="C95" s="30" t="s">
+    <row r="95" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A95" s="33"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="30"/>
-      <c r="E95" s="33" t="s">
+      <c r="D95" s="27"/>
+      <c r="E95" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="34"/>
+      <c r="F95" s="43"/>
       <c r="G95" s="15"/>
       <c r="H95" s="11"/>
       <c r="I95" s="3"/>
@@ -10766,16 +11235,20 @@
       <c r="CH95" s="3"/>
       <c r="CI95" s="3"/>
       <c r="CJ95" s="6"/>
+      <c r="CK95" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="96" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A96" s="37"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="23" t="s">
+    <row r="96" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A96" s="33"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28"/>
+      <c r="D96" s="28"/>
+      <c r="E96" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="24"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="15"/>
       <c r="H96" s="11"/>
       <c r="I96" s="3"/>
@@ -10858,16 +11331,20 @@
       <c r="CH96" s="3"/>
       <c r="CI96" s="3"/>
       <c r="CJ96" s="6"/>
+      <c r="CK96" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="97" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A97" s="37"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="23" t="s">
+    <row r="97" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A97" s="33"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="24"/>
+      <c r="F97" s="53"/>
       <c r="G97" s="15"/>
       <c r="H97" s="11"/>
       <c r="I97" s="3"/>
@@ -10950,16 +11427,20 @@
       <c r="CH97" s="3"/>
       <c r="CI97" s="3"/>
       <c r="CJ97" s="6"/>
+      <c r="CK97" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="98" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="37"/>
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="33" t="s">
+    <row r="98" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A98" s="33"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="34"/>
+      <c r="F98" s="43"/>
       <c r="G98" s="15"/>
       <c r="H98" s="11"/>
       <c r="I98" s="3"/>
@@ -11042,22 +11523,26 @@
       <c r="CH98" s="3"/>
       <c r="CI98" s="3"/>
       <c r="CJ98" s="6"/>
+      <c r="CK98" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="99" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A99" s="37"/>
-      <c r="B99" s="55" t="s">
+    <row r="99" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A99" s="33"/>
+      <c r="B99" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="53" t="s">
+      <c r="D99" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="34"/>
+      <c r="F99" s="43"/>
       <c r="G99" s="15"/>
       <c r="H99" s="11"/>
       <c r="I99" s="3"/>
@@ -11140,16 +11625,20 @@
       <c r="CH99" s="3"/>
       <c r="CI99" s="3"/>
       <c r="CJ99" s="6"/>
+      <c r="CK99" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="100" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A100" s="37"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="33" t="s">
+    <row r="100" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A100" s="33"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="38"/>
+      <c r="E100" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="34"/>
+      <c r="F100" s="43"/>
       <c r="G100" s="15"/>
       <c r="H100" s="11"/>
       <c r="I100" s="3"/>
@@ -11232,16 +11721,20 @@
       <c r="CH100" s="3"/>
       <c r="CI100" s="3"/>
       <c r="CJ100" s="6"/>
+      <c r="CK100" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="101" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="37"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="23" t="s">
+    <row r="101" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A101" s="33"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="24"/>
+      <c r="F101" s="53"/>
       <c r="G101" s="15"/>
       <c r="H101" s="11"/>
       <c r="I101" s="3"/>
@@ -11324,18 +11817,22 @@
       <c r="CH101" s="3"/>
       <c r="CI101" s="3"/>
       <c r="CJ101" s="6"/>
+      <c r="CK101" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="102" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A102" s="37"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="30" t="s">
+    <row r="102" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A102" s="33"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="30"/>
-      <c r="E102" s="23" t="s">
+      <c r="D102" s="27"/>
+      <c r="E102" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="24"/>
+      <c r="F102" s="53"/>
       <c r="G102" s="15"/>
       <c r="H102" s="11"/>
       <c r="I102" s="3"/>
@@ -11418,16 +11915,20 @@
       <c r="CH102" s="3"/>
       <c r="CI102" s="3"/>
       <c r="CJ102" s="6"/>
+      <c r="CK102" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="103" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="37"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="23" t="s">
+    <row r="103" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A103" s="33"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="24"/>
+      <c r="F103" s="53"/>
       <c r="G103" s="15"/>
       <c r="H103" s="11"/>
       <c r="I103" s="3"/>
@@ -11510,18 +12011,22 @@
       <c r="CH103" s="3"/>
       <c r="CI103" s="3"/>
       <c r="CJ103" s="6"/>
+      <c r="CK103" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="104" spans="1:88" x14ac:dyDescent="0.45">
-      <c r="A104" s="37"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="53" t="s">
+    <row r="104" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="A104" s="33"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="30"/>
-      <c r="E104" s="33" t="s">
+      <c r="D104" s="27"/>
+      <c r="E104" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="34"/>
+      <c r="F104" s="43"/>
       <c r="G104" s="15"/>
       <c r="H104" s="11"/>
       <c r="I104" s="3"/>
@@ -11604,16 +12109,20 @@
       <c r="CH104" s="3"/>
       <c r="CI104" s="3"/>
       <c r="CJ104" s="6"/>
+      <c r="CK104" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="105" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="37"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="33" t="s">
+    <row r="105" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A105" s="33"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="34"/>
+      <c r="F105" s="43"/>
       <c r="G105" s="15"/>
       <c r="H105" s="11"/>
       <c r="I105" s="3"/>
@@ -11696,18 +12205,22 @@
       <c r="CH105" s="3"/>
       <c r="CI105" s="3"/>
       <c r="CJ105" s="6"/>
+      <c r="CK105" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="106" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="37"/>
-      <c r="B106" s="39"/>
+    <row r="106" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A106" s="33"/>
+      <c r="B106" s="31"/>
       <c r="C106" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="20"/>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="24"/>
+      <c r="F106" s="53"/>
       <c r="G106" s="15"/>
       <c r="H106" s="11"/>
       <c r="I106" s="3"/>
@@ -11790,18 +12303,22 @@
       <c r="CH106" s="3"/>
       <c r="CI106" s="3"/>
       <c r="CJ106" s="6"/>
+      <c r="CK106" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
-    <row r="107" spans="1:88" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="60"/>
-      <c r="B107" s="40"/>
+    <row r="107" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A107" s="34"/>
+      <c r="B107" s="32"/>
       <c r="C107" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="20"/>
-      <c r="E107" s="25" t="s">
+      <c r="E107" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="26"/>
+      <c r="F107" s="55"/>
       <c r="G107" s="17"/>
       <c r="H107" s="13"/>
       <c r="I107" s="8"/>
@@ -11884,9 +12401,159 @@
       <c r="CH107" s="8"/>
       <c r="CI107" s="8"/>
       <c r="CJ107" s="9"/>
+      <c r="CK107" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="C110" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="63"/>
+    </row>
+    <row r="111" spans="1:89" x14ac:dyDescent="0.45">
+      <c r="C111">
+        <f>105-COUNTBLANK(CK3:CK107)</f>
+        <v>11</v>
+      </c>
+      <c r="D111" s="63">
+        <f>C111/105</f>
+        <v>0.10476190476190476</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E107:F107"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:AO1"/>
+    <mergeCell ref="BU1:CJ1"/>
+    <mergeCell ref="AP1:BT1"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="B99:B107"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D104:D105"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="C64:C88"/>
     <mergeCell ref="D64:D75"/>
@@ -11911,136 +12578,6 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A64:A107"/>
     <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="B99:B107"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:AO1"/>
-    <mergeCell ref="BU1:CJ1"/>
-    <mergeCell ref="AP1:BT1"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E107:F107"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E103:F103"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール.xlsx
+++ b/スケジュール.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユザ\Desktop\個人用\ゲーム作成\kozingame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ユザ\Desktop\個人用\ゲーム作成\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="125">
   <si>
     <t>作業工程</t>
     <rPh sb="0" eb="4">
@@ -868,6 +868,21 @@
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1390,6 +1405,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1442,6 +1469,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -1503,21 +1533,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1802,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="CG107" sqref="CG107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1816,134 +1831,136 @@
     <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="5.19921875" customWidth="1"/>
     <col min="12" max="20" width="4.19921875" customWidth="1"/>
-    <col min="21" max="41" width="5.19921875" customWidth="1"/>
-    <col min="42" max="50" width="4.19921875" customWidth="1"/>
-    <col min="51" max="72" width="5.19921875" customWidth="1"/>
-    <col min="73" max="81" width="4.19921875" customWidth="1"/>
-    <col min="82" max="88" width="5.19921875" customWidth="1"/>
+    <col min="21" max="26" width="5.19921875" customWidth="1"/>
+    <col min="27" max="41" width="5.19921875" hidden="1" customWidth="1"/>
+    <col min="42" max="50" width="4.19921875" hidden="1" customWidth="1"/>
+    <col min="51" max="72" width="5.19921875" hidden="1" customWidth="1"/>
+    <col min="73" max="81" width="4.19921875" hidden="1" customWidth="1"/>
+    <col min="82" max="84" width="5.19921875" hidden="1" customWidth="1"/>
+    <col min="85" max="88" width="5.19921875" customWidth="1"/>
     <col min="89" max="89" width="5.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="39" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="39" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
-      <c r="AW1" s="40"/>
-      <c r="AX1" s="40"/>
-      <c r="AY1" s="40"/>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
-      <c r="BD1" s="40"/>
-      <c r="BE1" s="40"/>
-      <c r="BF1" s="40"/>
-      <c r="BG1" s="40"/>
-      <c r="BH1" s="40"/>
-      <c r="BI1" s="40"/>
-      <c r="BJ1" s="40"/>
-      <c r="BK1" s="40"/>
-      <c r="BL1" s="40"/>
-      <c r="BM1" s="40"/>
-      <c r="BN1" s="40"/>
-      <c r="BO1" s="40"/>
-      <c r="BP1" s="40"/>
-      <c r="BQ1" s="40"/>
-      <c r="BR1" s="40"/>
-      <c r="BS1" s="40"/>
-      <c r="BT1" s="41"/>
-      <c r="BU1" s="39" t="s">
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="44"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
+      <c r="AX1" s="44"/>
+      <c r="AY1" s="44"/>
+      <c r="AZ1" s="44"/>
+      <c r="BA1" s="44"/>
+      <c r="BB1" s="44"/>
+      <c r="BC1" s="44"/>
+      <c r="BD1" s="44"/>
+      <c r="BE1" s="44"/>
+      <c r="BF1" s="44"/>
+      <c r="BG1" s="44"/>
+      <c r="BH1" s="44"/>
+      <c r="BI1" s="44"/>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="44"/>
+      <c r="BL1" s="44"/>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="44"/>
+      <c r="BO1" s="44"/>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="44"/>
+      <c r="BR1" s="44"/>
+      <c r="BS1" s="44"/>
+      <c r="BT1" s="45"/>
+      <c r="BU1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="40"/>
-      <c r="BW1" s="40"/>
-      <c r="BX1" s="40"/>
-      <c r="BY1" s="40"/>
-      <c r="BZ1" s="40"/>
-      <c r="CA1" s="40"/>
-      <c r="CB1" s="40"/>
-      <c r="CC1" s="40"/>
-      <c r="CD1" s="40"/>
-      <c r="CE1" s="40"/>
-      <c r="CF1" s="40"/>
-      <c r="CG1" s="40"/>
-      <c r="CH1" s="40"/>
-      <c r="CI1" s="40"/>
-      <c r="CJ1" s="65"/>
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="44"/>
+      <c r="BX1" s="44"/>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="44"/>
+      <c r="CA1" s="44"/>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="44"/>
+      <c r="CD1" s="44"/>
+      <c r="CE1" s="44"/>
+      <c r="CF1" s="44"/>
+      <c r="CG1" s="44"/>
+      <c r="CH1" s="44"/>
+      <c r="CI1" s="44"/>
+      <c r="CJ1" s="46"/>
       <c r="CK1" s="23"/>
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="51"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="14"/>
       <c r="H2" s="10">
         <v>44862</v>
@@ -2185,7 +2202,7 @@
       <c r="CI2" s="2">
         <v>44941</v>
       </c>
-      <c r="CJ2" s="66">
+      <c r="CJ2" s="27">
         <v>44942</v>
       </c>
       <c r="CK2" s="23" t="s">
@@ -2193,14 +2210,14 @@
       </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A3" s="33"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="52" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="15"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
@@ -2279,24 +2296,26 @@
       <c r="CD3" s="3"/>
       <c r="CE3" s="3"/>
       <c r="CF3" s="3"/>
-      <c r="CG3" s="3"/>
+      <c r="CG3" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="6"/>
-      <c r="CK3" s="64" t="str">
+      <c r="CK3" s="26" t="str">
         <f>IF(COUNTA(H3:CJ3)=1,"〇","")</f>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A4" s="33"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="52" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="15"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
@@ -2375,24 +2394,26 @@
       <c r="CD4" s="3"/>
       <c r="CE4" s="3"/>
       <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
+      <c r="CG4" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
       <c r="CJ4" s="6"/>
       <c r="CK4" s="15" t="str">
         <f t="shared" ref="CK4:CK67" si="0">IF(COUNTA(H4:CJ4)=1,"〇","")</f>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A5" s="33"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="52" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="15"/>
       <c r="H5" s="11"/>
       <c r="I5" s="3"/>
@@ -2471,24 +2492,26 @@
       <c r="CD5" s="3"/>
       <c r="CE5" s="3"/>
       <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
+      <c r="CG5" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
       <c r="CJ5" s="6"/>
       <c r="CK5" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A6" s="33"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="52" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="15"/>
       <c r="H6" s="11"/>
       <c r="I6" s="3"/>
@@ -2567,24 +2590,26 @@
       <c r="CD6" s="3"/>
       <c r="CE6" s="3"/>
       <c r="CF6" s="3"/>
-      <c r="CG6" s="3"/>
+      <c r="CG6" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
       <c r="CJ6" s="6"/>
       <c r="CK6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A7" s="33"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="52" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="15"/>
       <c r="H7" s="11"/>
       <c r="I7" s="3"/>
@@ -2663,24 +2688,26 @@
       <c r="CD7" s="3"/>
       <c r="CE7" s="3"/>
       <c r="CF7" s="3"/>
-      <c r="CG7" s="3"/>
+      <c r="CG7" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
       <c r="CJ7" s="6"/>
       <c r="CK7" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A8" s="33"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="52" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="15"/>
       <c r="H8" s="11"/>
       <c r="I8" s="3"/>
@@ -2759,24 +2786,26 @@
       <c r="CD8" s="3"/>
       <c r="CE8" s="3"/>
       <c r="CF8" s="3"/>
-      <c r="CG8" s="3"/>
+      <c r="CG8" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="6"/>
       <c r="CK8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A9" s="33"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="52" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="15"/>
       <c r="H9" s="11"/>
       <c r="I9" s="3"/>
@@ -2855,24 +2884,26 @@
       <c r="CD9" s="3"/>
       <c r="CE9" s="3"/>
       <c r="CF9" s="3"/>
-      <c r="CG9" s="3"/>
+      <c r="CG9" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="6"/>
       <c r="CK9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A10" s="33"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="52" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="15"/>
       <c r="H10" s="11"/>
       <c r="I10" s="3"/>
@@ -2951,24 +2982,26 @@
       <c r="CD10" s="3"/>
       <c r="CE10" s="3"/>
       <c r="CF10" s="3"/>
-      <c r="CG10" s="3"/>
+      <c r="CG10" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
       <c r="CJ10" s="6"/>
       <c r="CK10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A11" s="33"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="52" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="53"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="15"/>
       <c r="H11" s="11"/>
       <c r="I11" s="3"/>
@@ -3047,24 +3080,26 @@
       <c r="CD11" s="3"/>
       <c r="CE11" s="3"/>
       <c r="CF11" s="3"/>
-      <c r="CG11" s="3"/>
+      <c r="CG11" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="6"/>
       <c r="CK11" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A12" s="33"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="52" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="15"/>
       <c r="H12" s="11"/>
       <c r="I12" s="3"/>
@@ -3143,24 +3178,26 @@
       <c r="CD12" s="3"/>
       <c r="CE12" s="3"/>
       <c r="CF12" s="3"/>
-      <c r="CG12" s="3"/>
+      <c r="CG12" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH12" s="3"/>
       <c r="CI12" s="3"/>
       <c r="CJ12" s="6"/>
       <c r="CK12" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="13" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="54" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="15"/>
       <c r="H13" s="11"/>
       <c r="I13" s="3"/>
@@ -3239,26 +3276,28 @@
       <c r="CD13" s="3"/>
       <c r="CE13" s="3"/>
       <c r="CF13" s="3"/>
-      <c r="CG13" s="3"/>
+      <c r="CG13" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH13" s="3"/>
       <c r="CI13" s="3"/>
       <c r="CJ13" s="6"/>
       <c r="CK13" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="24" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="57"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="15"/>
       <c r="H14" s="11"/>
       <c r="I14" s="3"/>
@@ -3349,14 +3388,14 @@
       </c>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="42" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="43"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="15"/>
       <c r="H15" s="11"/>
       <c r="I15" s="3"/>
@@ -3447,14 +3486,14 @@
       </c>
     </row>
     <row r="16" spans="1:89" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="44" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="16"/>
       <c r="H16" s="12"/>
       <c r="I16" s="4"/>
@@ -3533,26 +3572,28 @@
       <c r="CD16" s="4"/>
       <c r="CE16" s="4"/>
       <c r="CF16" s="4"/>
-      <c r="CG16" s="4"/>
+      <c r="CG16" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="CH16" s="4"/>
       <c r="CI16" s="4"/>
       <c r="CJ16" s="7"/>
       <c r="CK16" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="17" spans="1:89" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="33"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="16"/>
       <c r="H17" s="12"/>
       <c r="I17" s="4"/>
@@ -3631,26 +3672,28 @@
       <c r="CD17" s="4"/>
       <c r="CE17" s="4"/>
       <c r="CF17" s="4"/>
-      <c r="CG17" s="4"/>
+      <c r="CG17" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="CH17" s="4"/>
       <c r="CI17" s="4"/>
       <c r="CJ17" s="7"/>
       <c r="CK17" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="18" spans="1:89" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="16"/>
       <c r="H18" s="12"/>
       <c r="I18" s="4"/>
@@ -3729,28 +3772,30 @@
       <c r="CD18" s="4"/>
       <c r="CE18" s="4"/>
       <c r="CF18" s="4"/>
-      <c r="CG18" s="4"/>
+      <c r="CG18" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="CH18" s="4"/>
       <c r="CI18" s="4"/>
       <c r="CJ18" s="7"/>
       <c r="CK18" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="19" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="30" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="34" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="49"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="15"/>
       <c r="H19" s="11"/>
       <c r="I19" s="3"/>
@@ -3829,26 +3874,28 @@
       <c r="CD19" s="3"/>
       <c r="CE19" s="3"/>
       <c r="CF19" s="3"/>
-      <c r="CG19" s="3"/>
+      <c r="CG19" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH19" s="3"/>
       <c r="CI19" s="3"/>
       <c r="CJ19" s="6"/>
       <c r="CK19" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="20" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="15"/>
       <c r="H20" s="11"/>
       <c r="I20" s="3"/>
@@ -3927,26 +3974,28 @@
       <c r="CD20" s="3"/>
       <c r="CE20" s="3"/>
       <c r="CF20" s="3"/>
-      <c r="CG20" s="3"/>
+      <c r="CG20" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH20" s="3"/>
       <c r="CI20" s="3"/>
       <c r="CJ20" s="6"/>
       <c r="CK20" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="21" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="43"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="15"/>
       <c r="H21" s="11"/>
       <c r="I21" s="3"/>
@@ -4025,26 +4074,28 @@
       <c r="CD21" s="3"/>
       <c r="CE21" s="3"/>
       <c r="CF21" s="3"/>
-      <c r="CG21" s="3"/>
+      <c r="CG21" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH21" s="3"/>
       <c r="CI21" s="3"/>
       <c r="CJ21" s="6"/>
       <c r="CK21" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="22" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
       <c r="D22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="15"/>
       <c r="H22" s="11"/>
       <c r="I22" s="3"/>
@@ -4133,16 +4184,16 @@
       </c>
     </row>
     <row r="23" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="15"/>
       <c r="H23" s="11"/>
       <c r="I23" s="3"/>
@@ -4231,16 +4282,16 @@
       </c>
     </row>
     <row r="24" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="43"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="15"/>
       <c r="H24" s="11"/>
       <c r="I24" s="3"/>
@@ -4329,16 +4380,16 @@
       </c>
     </row>
     <row r="25" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="30" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="15"/>
       <c r="H25" s="11"/>
       <c r="I25" s="3"/>
@@ -4417,24 +4468,26 @@
       <c r="CD25" s="3"/>
       <c r="CE25" s="3"/>
       <c r="CF25" s="3"/>
-      <c r="CG25" s="3"/>
+      <c r="CG25" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH25" s="3"/>
       <c r="CI25" s="3"/>
       <c r="CJ25" s="6"/>
       <c r="CK25" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="26" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A26" s="33"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="52" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="53"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="15"/>
       <c r="H26" s="11"/>
       <c r="I26" s="3"/>
@@ -4523,14 +4576,14 @@
       </c>
     </row>
     <row r="27" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A27" s="33"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="52" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="15"/>
       <c r="H27" s="11"/>
       <c r="I27" s="3"/>
@@ -4619,14 +4672,14 @@
       </c>
     </row>
     <row r="28" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="33"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="42" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="15"/>
       <c r="H28" s="11"/>
       <c r="I28" s="3"/>
@@ -4715,16 +4768,16 @@
       </c>
     </row>
     <row r="29" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A29" s="33"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="30" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="42" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="43"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="15"/>
       <c r="H29" s="11"/>
       <c r="I29" s="3"/>
@@ -4744,7 +4797,7 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="62"/>
+      <c r="Z29" s="24"/>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
@@ -4803,24 +4856,26 @@
       <c r="CD29" s="3"/>
       <c r="CE29" s="3"/>
       <c r="CF29" s="3"/>
-      <c r="CG29" s="3"/>
+      <c r="CG29" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH29" s="3"/>
       <c r="CI29" s="3"/>
       <c r="CJ29" s="6"/>
       <c r="CK29" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="30" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A30" s="33"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="42" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="15"/>
       <c r="H30" s="11"/>
       <c r="I30" s="3"/>
@@ -4911,14 +4966,14 @@
       </c>
     </row>
     <row r="31" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A31" s="33"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="42" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="43"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="15"/>
       <c r="H31" s="11"/>
       <c r="I31" s="3"/>
@@ -5009,14 +5064,14 @@
       </c>
     </row>
     <row r="32" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="33"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="42" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="43"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="15"/>
       <c r="H32" s="11"/>
       <c r="I32" s="3"/>
@@ -5107,16 +5162,16 @@
       </c>
     </row>
     <row r="33" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A33" s="33"/>
-      <c r="B33" s="30" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="42" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="43"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="15"/>
       <c r="H33" s="11"/>
       <c r="I33" s="3"/>
@@ -5195,24 +5250,26 @@
       <c r="CD33" s="3"/>
       <c r="CE33" s="3"/>
       <c r="CF33" s="3"/>
-      <c r="CG33" s="3"/>
+      <c r="CG33" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH33" s="3"/>
       <c r="CI33" s="3"/>
       <c r="CJ33" s="6"/>
       <c r="CK33" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="34" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A34" s="33"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="42" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="15"/>
       <c r="H34" s="11"/>
       <c r="I34" s="3"/>
@@ -5301,14 +5358,14 @@
       </c>
     </row>
     <row r="35" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="42" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="15"/>
       <c r="H35" s="11"/>
       <c r="I35" s="3"/>
@@ -5387,26 +5444,28 @@
       <c r="CD35" s="3"/>
       <c r="CE35" s="3"/>
       <c r="CF35" s="3"/>
-      <c r="CG35" s="3"/>
+      <c r="CG35" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="CH35" s="3"/>
       <c r="CI35" s="3"/>
       <c r="CJ35" s="6"/>
       <c r="CK35" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="36" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="33"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="42" t="s">
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="15"/>
       <c r="H36" s="11"/>
       <c r="I36" s="3"/>
@@ -5485,26 +5544,28 @@
       <c r="CD36" s="3"/>
       <c r="CE36" s="3"/>
       <c r="CF36" s="3"/>
-      <c r="CG36" s="3"/>
+      <c r="CG36" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH36" s="3"/>
       <c r="CI36" s="3"/>
       <c r="CJ36" s="6"/>
       <c r="CK36" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="37" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="33"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="42" t="s">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="43"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="15"/>
       <c r="H37" s="11"/>
       <c r="I37" s="3"/>
@@ -5583,30 +5644,32 @@
       <c r="CD37" s="3"/>
       <c r="CE37" s="3"/>
       <c r="CF37" s="3"/>
-      <c r="CG37" s="3"/>
+      <c r="CG37" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH37" s="3"/>
       <c r="CI37" s="3"/>
       <c r="CJ37" s="6"/>
       <c r="CK37" s="15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="38" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="15"/>
       <c r="H38" s="11"/>
       <c r="I38" s="3"/>
@@ -5695,18 +5758,18 @@
       </c>
     </row>
     <row r="39" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="27" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="31" t="s">
         <v>56</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="15"/>
       <c r="H39" s="11"/>
       <c r="I39" s="3"/>
@@ -5795,16 +5858,16 @@
       </c>
     </row>
     <row r="40" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="33"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="53"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="15"/>
       <c r="H40" s="11"/>
       <c r="I40" s="3"/>
@@ -5893,20 +5956,20 @@
       </c>
     </row>
     <row r="41" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A41" s="33"/>
-      <c r="B41" s="30" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="59"/>
+      <c r="F41" s="64"/>
       <c r="G41" s="15"/>
       <c r="H41" s="11"/>
       <c r="I41" s="3"/>
@@ -5995,14 +6058,14 @@
       </c>
     </row>
     <row r="42" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A42" s="33"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="58" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="F42" s="59"/>
+      <c r="F42" s="64"/>
       <c r="G42" s="15"/>
       <c r="H42" s="11"/>
       <c r="I42" s="3"/>
@@ -6091,14 +6154,14 @@
       </c>
     </row>
     <row r="43" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="33"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="58" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="59"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="15"/>
       <c r="H43" s="11"/>
       <c r="I43" s="3"/>
@@ -6187,16 +6250,16 @@
       </c>
     </row>
     <row r="44" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A44" s="33"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="27" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="53"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="15"/>
       <c r="H44" s="11"/>
       <c r="I44" s="3"/>
@@ -6285,14 +6348,14 @@
       </c>
     </row>
     <row r="45" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A45" s="33"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="52" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="53"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="15"/>
       <c r="H45" s="11"/>
       <c r="I45" s="3"/>
@@ -6381,14 +6444,14 @@
       </c>
     </row>
     <row r="46" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A46" s="33"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="52" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="53"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="15"/>
       <c r="H46" s="11"/>
       <c r="I46" s="3"/>
@@ -6477,14 +6540,14 @@
       </c>
     </row>
     <row r="47" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="33"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="52" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="F47" s="53"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="15"/>
       <c r="H47" s="11"/>
       <c r="I47" s="3"/>
@@ -6573,16 +6636,16 @@
       </c>
     </row>
     <row r="48" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="33"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="53"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="15"/>
       <c r="H48" s="11"/>
       <c r="I48" s="3"/>
@@ -6671,16 +6734,16 @@
       </c>
     </row>
     <row r="49" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A49" s="33"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="27" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="53"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="15"/>
       <c r="H49" s="11"/>
       <c r="I49" s="3"/>
@@ -6769,14 +6832,14 @@
       </c>
     </row>
     <row r="50" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A50" s="33"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="52" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="15"/>
       <c r="H50" s="11"/>
       <c r="I50" s="3"/>
@@ -6865,14 +6928,14 @@
       </c>
     </row>
     <row r="51" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="33"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="52" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="53"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="15"/>
       <c r="H51" s="11"/>
       <c r="I51" s="3"/>
@@ -6961,18 +7024,18 @@
       </c>
     </row>
     <row r="52" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A52" s="33"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="27" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="15"/>
       <c r="H52" s="11"/>
       <c r="I52" s="3"/>
@@ -7061,14 +7124,14 @@
       </c>
     </row>
     <row r="53" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="33"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="52" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="53"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="15"/>
       <c r="H53" s="11"/>
       <c r="I53" s="3"/>
@@ -7157,16 +7220,16 @@
       </c>
     </row>
     <row r="54" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A54" s="33"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="53"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="15"/>
       <c r="H54" s="11"/>
       <c r="I54" s="3"/>
@@ -7255,16 +7318,16 @@
       </c>
     </row>
     <row r="55" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="33"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="32"/>
       <c r="D55" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F55" s="53"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="15"/>
       <c r="H55" s="11"/>
       <c r="I55" s="3"/>
@@ -7353,16 +7416,16 @@
       </c>
     </row>
     <row r="56" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="33"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E56" s="52" t="s">
+      <c r="E56" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F56" s="53"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="15"/>
       <c r="H56" s="11"/>
       <c r="I56" s="3"/>
@@ -7451,16 +7514,16 @@
       </c>
     </row>
     <row r="57" spans="1:89" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="33"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="29"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F57" s="53"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="15"/>
       <c r="H57" s="11"/>
       <c r="I57" s="3"/>
@@ -7549,18 +7612,18 @@
       </c>
     </row>
     <row r="58" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="33"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="27" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="31" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F58" s="53"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="15"/>
       <c r="H58" s="11"/>
       <c r="I58" s="3"/>
@@ -7649,16 +7712,16 @@
       </c>
     </row>
     <row r="59" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A59" s="33"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="28"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="32"/>
       <c r="D59" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E59" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="53"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="15"/>
       <c r="H59" s="11"/>
       <c r="I59" s="3"/>
@@ -7747,16 +7810,16 @@
       </c>
     </row>
     <row r="60" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="33"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="28"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="32"/>
       <c r="D60" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="53"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="15"/>
       <c r="H60" s="11"/>
       <c r="I60" s="3"/>
@@ -7845,16 +7908,16 @@
       </c>
     </row>
     <row r="61" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="33"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="29"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F61" s="53"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="15"/>
       <c r="H61" s="11"/>
       <c r="I61" s="3"/>
@@ -7943,16 +8006,16 @@
       </c>
     </row>
     <row r="62" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="33"/>
-      <c r="B62" s="31"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="35"/>
       <c r="C62" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D62" s="20"/>
-      <c r="E62" s="52" t="s">
+      <c r="E62" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="15"/>
       <c r="H62" s="11"/>
       <c r="I62" s="3"/>
@@ -8041,16 +8104,16 @@
       </c>
     </row>
     <row r="63" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="33"/>
-      <c r="B63" s="32"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="20"/>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="53"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="15"/>
       <c r="H63" s="11"/>
       <c r="I63" s="3"/>
@@ -8139,22 +8202,22 @@
       </c>
     </row>
     <row r="64" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A64" s="33" t="s">
+      <c r="A64" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="27" t="s">
+      <c r="C64" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="53"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="15"/>
       <c r="H64" s="11"/>
       <c r="I64" s="3"/>
@@ -8245,14 +8308,14 @@
       </c>
     </row>
     <row r="65" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A65" s="33"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="52" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F65" s="53"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="15"/>
       <c r="H65" s="11"/>
       <c r="I65" s="3"/>
@@ -8343,14 +8406,14 @@
       </c>
     </row>
     <row r="66" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A66" s="33"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="52" t="s">
+      <c r="A66" s="37"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="F66" s="53"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="15"/>
       <c r="H66" s="11"/>
       <c r="I66" s="3"/>
@@ -8441,14 +8504,14 @@
       </c>
     </row>
     <row r="67" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A67" s="33"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="52" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="F67" s="53"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="15"/>
       <c r="H67" s="11"/>
       <c r="I67" s="3"/>
@@ -8539,14 +8602,14 @@
       </c>
     </row>
     <row r="68" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A68" s="33"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="52" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="F68" s="53"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="15"/>
       <c r="H68" s="11"/>
       <c r="I68" s="3"/>
@@ -8637,14 +8700,14 @@
       </c>
     </row>
     <row r="69" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A69" s="33"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="52" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="F69" s="53"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="15"/>
       <c r="H69" s="11"/>
       <c r="I69" s="3"/>
@@ -8735,14 +8798,14 @@
       </c>
     </row>
     <row r="70" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A70" s="33"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="52" t="s">
+      <c r="A70" s="37"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F70" s="53"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="15"/>
       <c r="H70" s="11"/>
       <c r="I70" s="3"/>
@@ -8821,24 +8884,26 @@
       <c r="CD70" s="3"/>
       <c r="CE70" s="3"/>
       <c r="CF70" s="3"/>
-      <c r="CG70" s="3"/>
+      <c r="CG70" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH70" s="3"/>
       <c r="CI70" s="3"/>
       <c r="CJ70" s="6"/>
       <c r="CK70" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="71" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A71" s="33"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="52" t="s">
+      <c r="A71" s="37"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="F71" s="53"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="15"/>
       <c r="H71" s="11"/>
       <c r="I71" s="3"/>
@@ -8917,24 +8982,26 @@
       <c r="CD71" s="3"/>
       <c r="CE71" s="3"/>
       <c r="CF71" s="3"/>
-      <c r="CG71" s="3"/>
+      <c r="CG71" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH71" s="3"/>
       <c r="CI71" s="3"/>
       <c r="CJ71" s="6"/>
       <c r="CK71" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="72" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A72" s="33"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="52" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="F72" s="53"/>
+      <c r="F72" s="58"/>
       <c r="G72" s="15"/>
       <c r="H72" s="11"/>
       <c r="I72" s="3"/>
@@ -9013,24 +9080,26 @@
       <c r="CD72" s="3"/>
       <c r="CE72" s="3"/>
       <c r="CF72" s="3"/>
-      <c r="CG72" s="3"/>
+      <c r="CG72" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH72" s="3"/>
       <c r="CI72" s="3"/>
       <c r="CJ72" s="6"/>
       <c r="CK72" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="73" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A73" s="33"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="52" t="s">
+      <c r="A73" s="37"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="F73" s="53"/>
+      <c r="F73" s="58"/>
       <c r="G73" s="15"/>
       <c r="H73" s="11"/>
       <c r="I73" s="3"/>
@@ -9109,24 +9178,26 @@
       <c r="CD73" s="3"/>
       <c r="CE73" s="3"/>
       <c r="CF73" s="3"/>
-      <c r="CG73" s="3"/>
+      <c r="CG73" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH73" s="3"/>
       <c r="CI73" s="3"/>
       <c r="CJ73" s="6"/>
       <c r="CK73" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="74" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A74" s="33"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="52" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="53"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="15"/>
       <c r="H74" s="11"/>
       <c r="I74" s="3"/>
@@ -9205,24 +9276,26 @@
       <c r="CD74" s="3"/>
       <c r="CE74" s="3"/>
       <c r="CF74" s="3"/>
-      <c r="CG74" s="3"/>
+      <c r="CG74" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH74" s="3"/>
       <c r="CI74" s="3"/>
       <c r="CJ74" s="6"/>
       <c r="CK74" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="75" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A75" s="33"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="52" t="s">
+      <c r="A75" s="37"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F75" s="53"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="15"/>
       <c r="H75" s="11"/>
       <c r="I75" s="3"/>
@@ -9311,16 +9384,16 @@
       </c>
     </row>
     <row r="76" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A76" s="33"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="27" t="s">
+      <c r="A76" s="37"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F76" s="53"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="15"/>
       <c r="H76" s="11"/>
       <c r="I76" s="3"/>
@@ -9399,24 +9472,26 @@
       <c r="CD76" s="3"/>
       <c r="CE76" s="3"/>
       <c r="CF76" s="3"/>
-      <c r="CG76" s="3"/>
+      <c r="CG76" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH76" s="3"/>
       <c r="CI76" s="3"/>
       <c r="CJ76" s="6"/>
       <c r="CK76" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="77" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A77" s="33"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="52" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F77" s="53"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="15"/>
       <c r="H77" s="11"/>
       <c r="I77" s="3"/>
@@ -9495,24 +9570,26 @@
       <c r="CD77" s="3"/>
       <c r="CE77" s="3"/>
       <c r="CF77" s="3"/>
-      <c r="CG77" s="3"/>
+      <c r="CG77" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH77" s="3"/>
       <c r="CI77" s="3"/>
       <c r="CJ77" s="6"/>
       <c r="CK77" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="78" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A78" s="33"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="52" t="s">
+      <c r="A78" s="37"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="F78" s="53"/>
+      <c r="F78" s="58"/>
       <c r="G78" s="15"/>
       <c r="H78" s="11"/>
       <c r="I78" s="3"/>
@@ -9601,14 +9678,14 @@
       </c>
     </row>
     <row r="79" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A79" s="33"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="52" t="s">
+      <c r="A79" s="37"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="53"/>
+      <c r="F79" s="58"/>
       <c r="G79" s="15"/>
       <c r="H79" s="11"/>
       <c r="I79" s="3"/>
@@ -9687,24 +9764,26 @@
       <c r="CD79" s="3"/>
       <c r="CE79" s="3"/>
       <c r="CF79" s="3"/>
-      <c r="CG79" s="3"/>
+      <c r="CG79" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH79" s="3"/>
       <c r="CI79" s="3"/>
       <c r="CJ79" s="6"/>
       <c r="CK79" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="80" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A80" s="33"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="52" t="s">
+      <c r="A80" s="37"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="53"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="15"/>
       <c r="H80" s="11"/>
       <c r="I80" s="3"/>
@@ -9793,14 +9872,14 @@
       </c>
     </row>
     <row r="81" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A81" s="33"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="52" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F81" s="53"/>
+      <c r="F81" s="58"/>
       <c r="G81" s="15"/>
       <c r="H81" s="11"/>
       <c r="I81" s="3"/>
@@ -9879,24 +9958,26 @@
       <c r="CD81" s="3"/>
       <c r="CE81" s="3"/>
       <c r="CF81" s="3"/>
-      <c r="CG81" s="3"/>
+      <c r="CG81" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH81" s="3"/>
       <c r="CI81" s="3"/>
       <c r="CJ81" s="6"/>
       <c r="CK81" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="82" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="33"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="52" t="s">
+      <c r="A82" s="37"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F82" s="53"/>
+      <c r="F82" s="58"/>
       <c r="G82" s="15"/>
       <c r="H82" s="11"/>
       <c r="I82" s="3"/>
@@ -9985,16 +10066,16 @@
       </c>
     </row>
     <row r="83" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A83" s="33"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="27" t="s">
+      <c r="A83" s="37"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E83" s="52" t="s">
+      <c r="E83" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F83" s="53"/>
+      <c r="F83" s="58"/>
       <c r="G83" s="15"/>
       <c r="H83" s="11"/>
       <c r="I83" s="3"/>
@@ -10073,24 +10154,26 @@
       <c r="CD83" s="3"/>
       <c r="CE83" s="3"/>
       <c r="CF83" s="3"/>
-      <c r="CG83" s="3"/>
+      <c r="CG83" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH83" s="3"/>
       <c r="CI83" s="3"/>
       <c r="CJ83" s="6"/>
       <c r="CK83" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="84" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A84" s="33"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="52" t="s">
+      <c r="A84" s="37"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F84" s="53"/>
+      <c r="F84" s="58"/>
       <c r="G84" s="15"/>
       <c r="H84" s="11"/>
       <c r="I84" s="3"/>
@@ -10169,24 +10252,26 @@
       <c r="CD84" s="3"/>
       <c r="CE84" s="3"/>
       <c r="CF84" s="3"/>
-      <c r="CG84" s="3"/>
+      <c r="CG84" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH84" s="3"/>
       <c r="CI84" s="3"/>
       <c r="CJ84" s="6"/>
       <c r="CK84" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="85" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A85" s="33"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="52" t="s">
+      <c r="A85" s="37"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="F85" s="53"/>
+      <c r="F85" s="58"/>
       <c r="G85" s="15"/>
       <c r="H85" s="11"/>
       <c r="I85" s="3"/>
@@ -10275,14 +10360,14 @@
       </c>
     </row>
     <row r="86" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A86" s="33"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="52" t="s">
+      <c r="A86" s="37"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="53"/>
+      <c r="F86" s="58"/>
       <c r="G86" s="15"/>
       <c r="H86" s="11"/>
       <c r="I86" s="3"/>
@@ -10361,24 +10446,26 @@
       <c r="CD86" s="3"/>
       <c r="CE86" s="3"/>
       <c r="CF86" s="3"/>
-      <c r="CG86" s="3"/>
+      <c r="CG86" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH86" s="3"/>
       <c r="CI86" s="3"/>
       <c r="CJ86" s="6"/>
       <c r="CK86" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="87" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A87" s="33"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="52" t="s">
+      <c r="A87" s="37"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="53"/>
+      <c r="F87" s="58"/>
       <c r="G87" s="15"/>
       <c r="H87" s="11"/>
       <c r="I87" s="3"/>
@@ -10467,14 +10554,14 @@
       </c>
     </row>
     <row r="88" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="33"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="52" t="s">
+      <c r="A88" s="37"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="53"/>
+      <c r="F88" s="58"/>
       <c r="G88" s="15"/>
       <c r="H88" s="11"/>
       <c r="I88" s="3"/>
@@ -10563,16 +10650,16 @@
       </c>
     </row>
     <row r="89" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A89" s="33"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="27" t="s">
+      <c r="A89" s="37"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="27"/>
-      <c r="E89" s="42" t="s">
+      <c r="D89" s="31"/>
+      <c r="E89" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="F89" s="43"/>
+      <c r="F89" s="48"/>
       <c r="G89" s="15"/>
       <c r="H89" s="11"/>
       <c r="I89" s="3"/>
@@ -10651,24 +10738,26 @@
       <c r="CD89" s="3"/>
       <c r="CE89" s="3"/>
       <c r="CF89" s="3"/>
-      <c r="CG89" s="3"/>
+      <c r="CG89" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH89" s="3"/>
       <c r="CI89" s="3"/>
       <c r="CJ89" s="6"/>
       <c r="CK89" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="90" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A90" s="33"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="42" t="s">
+      <c r="A90" s="37"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="F90" s="43"/>
+      <c r="F90" s="48"/>
       <c r="G90" s="15"/>
       <c r="H90" s="11"/>
       <c r="I90" s="3"/>
@@ -10747,24 +10836,26 @@
       <c r="CD90" s="3"/>
       <c r="CE90" s="3"/>
       <c r="CF90" s="3"/>
-      <c r="CG90" s="3"/>
+      <c r="CG90" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH90" s="3"/>
       <c r="CI90" s="3"/>
       <c r="CJ90" s="6"/>
       <c r="CK90" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="91" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A91" s="33"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="42" t="s">
+      <c r="A91" s="37"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="F91" s="43"/>
+      <c r="F91" s="48"/>
       <c r="G91" s="15"/>
       <c r="H91" s="11"/>
       <c r="I91" s="3"/>
@@ -10843,24 +10934,26 @@
       <c r="CD91" s="3"/>
       <c r="CE91" s="3"/>
       <c r="CF91" s="3"/>
-      <c r="CG91" s="3"/>
+      <c r="CG91" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH91" s="3"/>
       <c r="CI91" s="3"/>
       <c r="CJ91" s="6"/>
       <c r="CK91" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="92" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A92" s="33"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="42" t="s">
+      <c r="A92" s="37"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="43"/>
+      <c r="F92" s="48"/>
       <c r="G92" s="15"/>
       <c r="H92" s="11"/>
       <c r="I92" s="3"/>
@@ -10949,14 +11042,14 @@
       </c>
     </row>
     <row r="93" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A93" s="33"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="42" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="F93" s="43"/>
+      <c r="F93" s="48"/>
       <c r="G93" s="15"/>
       <c r="H93" s="11"/>
       <c r="I93" s="3"/>
@@ -11045,16 +11138,16 @@
       </c>
     </row>
     <row r="94" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A94" s="33"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E94" s="42" t="s">
+      <c r="E94" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="43"/>
+      <c r="F94" s="48"/>
       <c r="G94" s="15"/>
       <c r="H94" s="11"/>
       <c r="I94" s="3"/>
@@ -11143,16 +11236,16 @@
       </c>
     </row>
     <row r="95" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A95" s="33"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="27" t="s">
+      <c r="A95" s="37"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D95" s="27"/>
-      <c r="E95" s="42" t="s">
+      <c r="D95" s="31"/>
+      <c r="E95" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="43"/>
+      <c r="F95" s="48"/>
       <c r="G95" s="15"/>
       <c r="H95" s="11"/>
       <c r="I95" s="3"/>
@@ -11241,14 +11334,14 @@
       </c>
     </row>
     <row r="96" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A96" s="33"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="52" t="s">
+      <c r="A96" s="37"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="F96" s="53"/>
+      <c r="F96" s="58"/>
       <c r="G96" s="15"/>
       <c r="H96" s="11"/>
       <c r="I96" s="3"/>
@@ -11337,14 +11430,14 @@
       </c>
     </row>
     <row r="97" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A97" s="33"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="52" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="F97" s="53"/>
+      <c r="F97" s="58"/>
       <c r="G97" s="15"/>
       <c r="H97" s="11"/>
       <c r="I97" s="3"/>
@@ -11433,14 +11526,14 @@
       </c>
     </row>
     <row r="98" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A98" s="33"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="42" t="s">
+      <c r="A98" s="37"/>
+      <c r="B98" s="33"/>
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="F98" s="43"/>
+      <c r="F98" s="48"/>
       <c r="G98" s="15"/>
       <c r="H98" s="11"/>
       <c r="I98" s="3"/>
@@ -11529,20 +11622,20 @@
       </c>
     </row>
     <row r="99" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A99" s="33"/>
-      <c r="B99" s="37" t="s">
+      <c r="A99" s="37"/>
+      <c r="B99" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="42" t="s">
+      <c r="E99" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="F99" s="43"/>
+      <c r="F99" s="48"/>
       <c r="G99" s="15"/>
       <c r="H99" s="11"/>
       <c r="I99" s="3"/>
@@ -11621,24 +11714,26 @@
       <c r="CD99" s="3"/>
       <c r="CE99" s="3"/>
       <c r="CF99" s="3"/>
-      <c r="CG99" s="3"/>
+      <c r="CG99" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH99" s="3"/>
       <c r="CI99" s="3"/>
       <c r="CJ99" s="6"/>
       <c r="CK99" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="100" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A100" s="33"/>
-      <c r="B100" s="31"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="42" t="s">
+      <c r="A100" s="37"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F100" s="43"/>
+      <c r="F100" s="48"/>
       <c r="G100" s="15"/>
       <c r="H100" s="11"/>
       <c r="I100" s="3"/>
@@ -11727,14 +11822,14 @@
       </c>
     </row>
     <row r="101" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A101" s="33"/>
-      <c r="B101" s="31"/>
-      <c r="C101" s="29"/>
-      <c r="D101" s="36"/>
-      <c r="E101" s="52" t="s">
+      <c r="A101" s="37"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="33"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="F101" s="53"/>
+      <c r="F101" s="58"/>
       <c r="G101" s="15"/>
       <c r="H101" s="11"/>
       <c r="I101" s="3"/>
@@ -11813,26 +11908,28 @@
       <c r="CD101" s="3"/>
       <c r="CE101" s="3"/>
       <c r="CF101" s="3"/>
-      <c r="CG101" s="3"/>
+      <c r="CG101" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH101" s="3"/>
       <c r="CI101" s="3"/>
       <c r="CJ101" s="6"/>
       <c r="CK101" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="102" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A102" s="33"/>
-      <c r="B102" s="31"/>
-      <c r="C102" s="27" t="s">
+      <c r="A102" s="37"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="27"/>
-      <c r="E102" s="52" t="s">
+      <c r="D102" s="31"/>
+      <c r="E102" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="F102" s="53"/>
+      <c r="F102" s="58"/>
       <c r="G102" s="15"/>
       <c r="H102" s="11"/>
       <c r="I102" s="3"/>
@@ -11911,24 +12008,26 @@
       <c r="CD102" s="3"/>
       <c r="CE102" s="3"/>
       <c r="CF102" s="3"/>
-      <c r="CG102" s="3"/>
+      <c r="CG102" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH102" s="3"/>
       <c r="CI102" s="3"/>
       <c r="CJ102" s="6"/>
       <c r="CK102" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="103" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A103" s="33"/>
-      <c r="B103" s="31"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="52" t="s">
+      <c r="A103" s="37"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F103" s="53"/>
+      <c r="F103" s="58"/>
       <c r="G103" s="15"/>
       <c r="H103" s="11"/>
       <c r="I103" s="3"/>
@@ -12017,16 +12116,16 @@
       </c>
     </row>
     <row r="104" spans="1:89" x14ac:dyDescent="0.45">
-      <c r="A104" s="33"/>
-      <c r="B104" s="31"/>
-      <c r="C104" s="35" t="s">
+      <c r="A104" s="37"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="42" t="s">
+      <c r="D104" s="31"/>
+      <c r="E104" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F104" s="43"/>
+      <c r="F104" s="48"/>
       <c r="G104" s="15"/>
       <c r="H104" s="11"/>
       <c r="I104" s="3"/>
@@ -12115,14 +12214,14 @@
       </c>
     </row>
     <row r="105" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A105" s="33"/>
-      <c r="B105" s="31"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="42" t="s">
+      <c r="A105" s="37"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="40"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="F105" s="43"/>
+      <c r="F105" s="48"/>
       <c r="G105" s="15"/>
       <c r="H105" s="11"/>
       <c r="I105" s="3"/>
@@ -12211,16 +12310,16 @@
       </c>
     </row>
     <row r="106" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A106" s="33"/>
-      <c r="B106" s="31"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="35"/>
       <c r="C106" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D106" s="20"/>
-      <c r="E106" s="52" t="s">
+      <c r="E106" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="53"/>
+      <c r="F106" s="58"/>
       <c r="G106" s="15"/>
       <c r="H106" s="11"/>
       <c r="I106" s="3"/>
@@ -12299,26 +12398,28 @@
       <c r="CD106" s="3"/>
       <c r="CE106" s="3"/>
       <c r="CF106" s="3"/>
-      <c r="CG106" s="3"/>
+      <c r="CG106" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="CH106" s="3"/>
       <c r="CI106" s="3"/>
       <c r="CJ106" s="6"/>
       <c r="CK106" s="15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="107" spans="1:89" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A107" s="34"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="20"/>
-      <c r="E107" s="54" t="s">
+      <c r="E107" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="55"/>
+      <c r="F107" s="60"/>
       <c r="G107" s="17"/>
       <c r="H107" s="13"/>
       <c r="I107" s="8"/>
@@ -12397,29 +12498,31 @@
       <c r="CD107" s="8"/>
       <c r="CE107" s="8"/>
       <c r="CF107" s="8"/>
-      <c r="CG107" s="8"/>
+      <c r="CG107" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="CH107" s="8"/>
       <c r="CI107" s="8"/>
       <c r="CJ107" s="9"/>
       <c r="CK107" s="17" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>〇</v>
       </c>
     </row>
     <row r="110" spans="1:89" x14ac:dyDescent="0.45">
       <c r="C110" t="s">
         <v>118</v>
       </c>
-      <c r="D110" s="63"/>
+      <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:89" x14ac:dyDescent="0.45">
       <c r="C111">
         <f>105-COUNTBLANK(CK3:CK107)</f>
-        <v>11</v>
-      </c>
-      <c r="D111" s="63">
+        <v>54</v>
+      </c>
+      <c r="D111" s="25">
         <f>C111/105</f>
-        <v>0.10476190476190476</v>
+        <v>0.51428571428571423</v>
       </c>
     </row>
   </sheetData>
